--- a/JupyterNotebooks/AvgHW/BrassA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,31 +653,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.527910351013502</v>
+        <v>1.422661252425824</v>
       </c>
       <c r="D3">
-        <v>1.422661252425824</v>
+        <v>0.9440892187165776</v>
       </c>
       <c r="E3">
         <v>1.37029002550875</v>
       </c>
       <c r="F3">
+        <v>1.422661252425824</v>
+      </c>
+      <c r="G3">
+        <v>1.527910351012994</v>
+      </c>
+      <c r="H3">
         <v>1.527910351013502</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>1.527910351013502</v>
+      </c>
+      <c r="J3">
         <v>1.156516396342582</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>1.09658635125702</v>
-      </c>
-      <c r="I3">
-        <v>1.527910351012994</v>
-      </c>
-      <c r="J3">
-        <v>1.422661252425824</v>
-      </c>
-      <c r="K3">
-        <v>0.9440892187165776</v>
       </c>
       <c r="L3">
         <v>1.158516425277809</v>
@@ -712,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.398170418239275</v>
+        <v>1.563685135483127</v>
       </c>
       <c r="D4">
-        <v>1.563685135483127</v>
+        <v>0.8798935545742522</v>
       </c>
       <c r="E4">
         <v>1.437519589998957</v>
       </c>
       <c r="F4">
+        <v>1.563685135483127</v>
+      </c>
+      <c r="G4">
+        <v>2.398170418238369</v>
+      </c>
+      <c r="H4">
         <v>2.398170418239275</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>2.398170418239275</v>
+      </c>
+      <c r="J4">
         <v>1.425712245827338</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>1.36195913335645</v>
-      </c>
-      <c r="I4">
-        <v>2.398170418238369</v>
-      </c>
-      <c r="J4">
-        <v>1.563685135483127</v>
-      </c>
-      <c r="K4">
-        <v>0.8798935545742522</v>
       </c>
       <c r="L4">
         <v>1.310389589932087</v>
       </c>
       <c r="M4">
-        <v>1.354468425806629</v>
+        <v>1.35446842580663</v>
       </c>
       <c r="N4">
         <v>2.398170418239275</v>
@@ -783,31 +795,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.735588947634973</v>
+        <v>0.7689901981840218</v>
       </c>
       <c r="D5">
-        <v>0.7689901981840218</v>
+        <v>0.6325400855383384</v>
       </c>
       <c r="E5">
         <v>1.882022256273875</v>
       </c>
       <c r="F5">
+        <v>0.7689901981840218</v>
+      </c>
+      <c r="G5">
+        <v>5.735588947634778</v>
+      </c>
+      <c r="H5">
         <v>5.735588947634973</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>5.735588947634973</v>
+      </c>
+      <c r="J5">
         <v>2.318758879323132</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>1.826229911306863</v>
-      </c>
-      <c r="I5">
-        <v>5.735588947634778</v>
-      </c>
-      <c r="J5">
-        <v>0.7689901981840218</v>
-      </c>
-      <c r="K5">
-        <v>0.6325400855383384</v>
       </c>
       <c r="L5">
         <v>2.661312642370365</v>
@@ -854,31 +866,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.715720029732433</v>
+        <v>0.9477222617543412</v>
       </c>
       <c r="D6">
-        <v>0.9477222617543412</v>
+        <v>1.02796245169435</v>
       </c>
       <c r="E6">
         <v>3.127168259551774</v>
       </c>
       <c r="F6">
+        <v>0.9477222617543412</v>
+      </c>
+      <c r="G6">
+        <v>6.715720029732825</v>
+      </c>
+      <c r="H6">
         <v>6.715720029732433</v>
       </c>
-      <c r="G6">
-        <v>2.562834543345008</v>
-      </c>
-      <c r="H6">
-        <v>0.5900055710210589</v>
-      </c>
       <c r="I6">
-        <v>6.715720029732825</v>
+        <v>6.715720029732433</v>
       </c>
       <c r="J6">
-        <v>0.9477222617543412</v>
+        <v>2.562834543345007</v>
       </c>
       <c r="K6">
-        <v>1.02796245169435</v>
+        <v>0.5900055710210591</v>
       </c>
       <c r="L6">
         <v>2.212591745177018</v>
@@ -925,58 +937,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.080837186518792</v>
+        <v>1.073127310326628</v>
       </c>
       <c r="D7">
-        <v>1.073127310326625</v>
+        <v>1.012572244393734</v>
       </c>
       <c r="E7">
-        <v>1.137013115978418</v>
+        <v>1.137013115978419</v>
       </c>
       <c r="F7">
-        <v>1.080837186518792</v>
+        <v>1.073127310326628</v>
       </c>
       <c r="G7">
+        <v>1.080837186518161</v>
+      </c>
+      <c r="H7">
+        <v>1.080837186518791</v>
+      </c>
+      <c r="I7">
+        <v>1.080837186518791</v>
+      </c>
+      <c r="J7">
         <v>1.049281055066483</v>
       </c>
-      <c r="H7">
-        <v>1.016056325443138</v>
-      </c>
-      <c r="I7">
-        <v>1.080837186518162</v>
-      </c>
-      <c r="J7">
-        <v>1.073127310326625</v>
-      </c>
       <c r="K7">
-        <v>1.012572244393732</v>
+        <v>1.01605632544314</v>
       </c>
       <c r="L7">
-        <v>1.055877896386287</v>
+        <v>1.055877896386286</v>
       </c>
       <c r="M7">
         <v>1.025303119728608</v>
       </c>
       <c r="N7">
-        <v>1.080837186518792</v>
+        <v>1.080837186518791</v>
       </c>
       <c r="O7">
-        <v>1.137013115978418</v>
+        <v>1.137013115978419</v>
       </c>
       <c r="P7">
-        <v>1.105070213152522</v>
+        <v>1.105070213152523</v>
       </c>
       <c r="Q7">
         <v>1.093147085522451</v>
       </c>
       <c r="R7">
-        <v>1.096992537607945</v>
+        <v>1.096992537607946</v>
       </c>
       <c r="S7">
-        <v>1.086473827123842</v>
+        <v>1.086473827123843</v>
       </c>
       <c r="T7">
-        <v>1.096992537607945</v>
+        <v>1.096992537607946</v>
       </c>
       <c r="U7">
         <v>1.08506466697258</v>
@@ -985,7 +997,7 @@
         <v>1.084219170881822</v>
       </c>
       <c r="W7">
-        <v>1.05625853173026</v>
+        <v>1.056258531730261</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1008,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.093490359155654</v>
+        <v>1.076232207234717</v>
       </c>
       <c r="D8">
+        <v>1.000586853858469</v>
+      </c>
+      <c r="E8">
+        <v>1.23542488510193</v>
+      </c>
+      <c r="F8">
         <v>1.076232207234717</v>
       </c>
-      <c r="E8">
-        <v>1.235424885101909</v>
-      </c>
-      <c r="F8">
-        <v>1.093490359155654</v>
-      </c>
       <c r="G8">
-        <v>1.041117515094364</v>
+        <v>1.093490359155039</v>
       </c>
       <c r="H8">
+        <v>1.09349035915566</v>
+      </c>
+      <c r="I8">
+        <v>1.09349035915566</v>
+      </c>
+      <c r="J8">
+        <v>1.041117515094362</v>
+      </c>
+      <c r="K8">
         <v>1.032836120848694</v>
       </c>
-      <c r="I8">
-        <v>1.093490359155034</v>
-      </c>
-      <c r="J8">
-        <v>1.076232207234717</v>
-      </c>
-      <c r="K8">
-        <v>1.000586853858471</v>
-      </c>
       <c r="L8">
-        <v>1.085967077970076</v>
+        <v>1.085967077970077</v>
       </c>
       <c r="M8">
-        <v>1.028404716262461</v>
+        <v>1.028404716262462</v>
       </c>
       <c r="N8">
-        <v>1.093490359155654</v>
+        <v>1.09349035915566</v>
       </c>
       <c r="O8">
-        <v>1.235424885101909</v>
+        <v>1.23542488510193</v>
       </c>
       <c r="P8">
-        <v>1.155828546168313</v>
+        <v>1.155828546168323</v>
       </c>
       <c r="Q8">
-        <v>1.138271200098136</v>
+        <v>1.138271200098146</v>
       </c>
       <c r="R8">
-        <v>1.135049150497427</v>
+        <v>1.135049150497436</v>
       </c>
       <c r="S8">
-        <v>1.11759153581033</v>
+        <v>1.117591535810336</v>
       </c>
       <c r="T8">
-        <v>1.135049150497427</v>
+        <v>1.135049150497436</v>
       </c>
       <c r="U8">
-        <v>1.111566241646661</v>
+        <v>1.111566241646667</v>
       </c>
       <c r="V8">
-        <v>1.10795106514846</v>
+        <v>1.107951065148466</v>
       </c>
       <c r="W8">
-        <v>1.074257466940793</v>
+        <v>1.074257466940796</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,31 +1079,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.124437602665828</v>
+        <v>0.9516178581799319</v>
       </c>
       <c r="D9">
-        <v>0.9516178581799317</v>
+        <v>1.092901443416536</v>
       </c>
       <c r="E9">
         <v>1.092080846198069</v>
       </c>
       <c r="F9">
+        <v>0.9516178581799319</v>
+      </c>
+      <c r="G9">
+        <v>1.124437602665267</v>
+      </c>
+      <c r="H9">
         <v>1.124437602665828</v>
       </c>
-      <c r="G9">
-        <v>1.047870713063784</v>
-      </c>
-      <c r="H9">
-        <v>0.9897645431886759</v>
-      </c>
       <c r="I9">
-        <v>1.124437602665267</v>
+        <v>1.124437602665828</v>
       </c>
       <c r="J9">
-        <v>0.9516178581799317</v>
+        <v>1.047870713063783</v>
       </c>
       <c r="K9">
-        <v>1.092901443416536</v>
+        <v>0.9897645431886756</v>
       </c>
       <c r="L9">
         <v>1.206061509780795</v>
@@ -1138,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.489486920013744</v>
+        <v>0.9814113664025892</v>
       </c>
       <c r="D10">
-        <v>0.9814113664025887</v>
+        <v>0.9696125769628766</v>
       </c>
       <c r="E10">
         <v>1.524550038649736</v>
       </c>
       <c r="F10">
+        <v>0.9814113664025892</v>
+      </c>
+      <c r="G10">
+        <v>1.489486920013063</v>
+      </c>
+      <c r="H10">
         <v>1.489486920013744</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>1.489486920013744</v>
+      </c>
+      <c r="J10">
         <v>1.269339039741807</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>1.127306509973417</v>
-      </c>
-      <c r="I10">
-        <v>1.489486920013063</v>
-      </c>
-      <c r="J10">
-        <v>0.9814113664025887</v>
-      </c>
-      <c r="K10">
-        <v>0.9696125769628766</v>
       </c>
       <c r="L10">
         <v>1.374832016110116</v>
@@ -1209,34 +1221,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7320982460135993</v>
+        <v>0.2052465750224286</v>
       </c>
       <c r="D11">
-        <v>0.2052465750224289</v>
+        <v>0.97060009788047</v>
       </c>
       <c r="E11">
         <v>2.302742249943646</v>
       </c>
       <c r="F11">
+        <v>0.2052465750224286</v>
+      </c>
+      <c r="G11">
+        <v>0.7320982460134513</v>
+      </c>
+      <c r="H11">
         <v>0.7320982460135993</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>0.7320982460135993</v>
+      </c>
+      <c r="J11">
         <v>0.8702147614664912</v>
       </c>
-      <c r="H11">
-        <v>0.9014917179958545</v>
-      </c>
-      <c r="I11">
-        <v>0.7320982460134512</v>
-      </c>
-      <c r="J11">
-        <v>0.2052465750224289</v>
-      </c>
       <c r="K11">
-        <v>0.9706000978804709</v>
+        <v>0.901491717995856</v>
       </c>
       <c r="L11">
-        <v>1.749737855439948</v>
+        <v>1.749737855439947</v>
       </c>
       <c r="M11">
         <v>1.004231651550592</v>
@@ -1248,25 +1260,25 @@
         <v>2.302742249943646</v>
       </c>
       <c r="P11">
-        <v>1.253994412483038</v>
+        <v>1.253994412483037</v>
       </c>
       <c r="Q11">
         <v>1.586478505705069</v>
       </c>
       <c r="R11">
-        <v>1.080029023659892</v>
+        <v>1.080029023659891</v>
       </c>
       <c r="S11">
         <v>1.126067862144189</v>
       </c>
       <c r="T11">
-        <v>1.080029023659892</v>
+        <v>1.080029023659891</v>
       </c>
       <c r="U11">
         <v>1.027575458111541</v>
       </c>
       <c r="V11">
-        <v>0.9684800156919531</v>
+        <v>0.9684800156919529</v>
       </c>
       <c r="W11">
         <v>1.092045394414129</v>
@@ -1280,64 +1292,64 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.2402145757208906</v>
+        <v>7.73658349294782</v>
       </c>
       <c r="D12">
-        <v>7.736583492947816</v>
+        <v>0.4716841930581974</v>
       </c>
       <c r="E12">
-        <v>0.0001533346788089347</v>
+        <v>0.0001533346788089328</v>
       </c>
       <c r="F12">
-        <v>0.2402145757208906</v>
+        <v>7.73658349294782</v>
       </c>
       <c r="G12">
-        <v>1.031889489027873</v>
+        <v>0.2402145757208905</v>
       </c>
       <c r="H12">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="I12">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="J12">
+        <v>1.031889489027874</v>
+      </c>
+      <c r="K12">
         <v>0.149880501300373</v>
       </c>
-      <c r="I12">
-        <v>0.2402145757208906</v>
-      </c>
-      <c r="J12">
-        <v>7.736583492947816</v>
-      </c>
-      <c r="K12">
-        <v>0.4716841930582009</v>
-      </c>
       <c r="L12">
-        <v>1.120701832849869</v>
+        <v>1.12070183284987</v>
       </c>
       <c r="M12">
-        <v>0.4045366655406437</v>
+        <v>0.4045366655406436</v>
       </c>
       <c r="N12">
-        <v>0.2402145757208906</v>
+        <v>0.2402145757208905</v>
       </c>
       <c r="O12">
-        <v>0.0001533346788089347</v>
+        <v>0.0001533346788089328</v>
       </c>
       <c r="P12">
-        <v>3.868368413813313</v>
+        <v>3.868368413813315</v>
       </c>
       <c r="Q12">
-        <v>0.516021411853341</v>
+        <v>0.5160214118533413</v>
       </c>
       <c r="R12">
-        <v>2.658983801115839</v>
+        <v>2.65898380111584</v>
       </c>
       <c r="S12">
-        <v>2.922875438884833</v>
+        <v>2.922875438884834</v>
       </c>
       <c r="T12">
-        <v>2.658983801115839</v>
+        <v>2.65898380111584</v>
       </c>
       <c r="U12">
-        <v>2.252210223093847</v>
+        <v>2.252210223093848</v>
       </c>
       <c r="V12">
-        <v>1.849811093619256</v>
+        <v>1.849811093619257</v>
       </c>
       <c r="W12">
         <v>1.394455510640559</v>
@@ -1351,64 +1363,64 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-0.0003113697009666464</v>
+        <v>-6.495477200630874E-05</v>
       </c>
       <c r="D13">
-        <v>-6.49547720063096E-05</v>
+        <v>0.4776134271255647</v>
       </c>
       <c r="E13">
-        <v>0.2407556825720927</v>
+        <v>0.2407556825720928</v>
       </c>
       <c r="F13">
-        <v>-0.0003113697009666464</v>
+        <v>-6.495477200630874E-05</v>
       </c>
       <c r="G13">
-        <v>1.717593411598699</v>
+        <v>-0.0003113697009199246</v>
       </c>
       <c r="H13">
-        <v>0.9855229993493922</v>
+        <v>-0.0003113697009666391</v>
       </c>
       <c r="I13">
-        <v>-0.0003113697009199315</v>
+        <v>-0.0003113697009666391</v>
       </c>
       <c r="J13">
-        <v>-6.49547720063096E-05</v>
+        <v>1.717593411598698</v>
       </c>
       <c r="K13">
-        <v>0.4776134271255662</v>
+        <v>0.9855229993493944</v>
       </c>
       <c r="L13">
         <v>1.688939989499504</v>
       </c>
       <c r="M13">
-        <v>0.960715570514507</v>
+        <v>0.9607155705145068</v>
       </c>
       <c r="N13">
-        <v>-0.0003113697009666464</v>
+        <v>-0.0003113697009666391</v>
       </c>
       <c r="O13">
-        <v>0.2407556825720927</v>
+        <v>0.2407556825720928</v>
       </c>
       <c r="P13">
-        <v>0.1203453639000432</v>
+        <v>0.1203453639000433</v>
       </c>
       <c r="Q13">
-        <v>0.9791745470853958</v>
+        <v>0.9791745470853953</v>
       </c>
       <c r="R13">
-        <v>0.08012645269970659</v>
+        <v>0.08012645269970663</v>
       </c>
       <c r="S13">
-        <v>0.6527613797995951</v>
+        <v>0.6527613797995947</v>
       </c>
       <c r="T13">
-        <v>0.08012645269970659</v>
+        <v>0.08012645269970663</v>
       </c>
       <c r="U13">
-        <v>0.4894931924244547</v>
+        <v>0.4894931924244544</v>
       </c>
       <c r="V13">
-        <v>0.3915322799993704</v>
+        <v>0.3915322799993702</v>
       </c>
       <c r="W13">
         <v>0.7588455945233485</v>
@@ -1422,64 +1434,64 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0007078795867205128</v>
+        <v>-0.0008902999245786065</v>
       </c>
       <c r="D14">
-        <v>-0.0008902999245786144</v>
+        <v>1.618634134740093</v>
       </c>
       <c r="E14">
         <v>0.001759181932168311</v>
       </c>
       <c r="F14">
-        <v>-0.0007078795867205128</v>
+        <v>-0.0008902999245786065</v>
       </c>
       <c r="G14">
-        <v>0.02167873897790511</v>
+        <v>-0.0007078795867205206</v>
       </c>
       <c r="H14">
-        <v>-0.001479546310663429</v>
+        <v>-0.0007078795867205206</v>
       </c>
       <c r="I14">
-        <v>-0.0007078795867205128</v>
+        <v>-0.0007078795867205206</v>
       </c>
       <c r="J14">
-        <v>-0.0008902999245786144</v>
+        <v>0.02167873897790513</v>
       </c>
       <c r="K14">
-        <v>1.618634134740095</v>
+        <v>-0.001479546310663426</v>
       </c>
       <c r="L14">
         <v>4.048563920433525</v>
       </c>
       <c r="M14">
-        <v>2.089197074806369</v>
+        <v>2.089197074806371</v>
       </c>
       <c r="N14">
-        <v>-0.0007078795867205128</v>
+        <v>-0.0007078795867205206</v>
       </c>
       <c r="O14">
         <v>0.001759181932168311</v>
       </c>
       <c r="P14">
-        <v>0.0004344410037948482</v>
+        <v>0.0004344410037948523</v>
       </c>
       <c r="Q14">
-        <v>0.01171896045503671</v>
+        <v>0.01171896045503672</v>
       </c>
       <c r="R14">
-        <v>5.366747362306117E-05</v>
+        <v>5.366747362306135E-05</v>
       </c>
       <c r="S14">
-        <v>0.007515873661831604</v>
+        <v>0.007515873661831612</v>
       </c>
       <c r="T14">
-        <v>5.366747362306121E-05</v>
+        <v>5.366747362306135E-05</v>
       </c>
       <c r="U14">
-        <v>0.005459935349693574</v>
+        <v>0.005459935349693579</v>
       </c>
       <c r="V14">
-        <v>0.004226372362410757</v>
+        <v>0.004226372362410758</v>
       </c>
       <c r="W14">
         <v>0.9720944156335125</v>
@@ -1493,46 +1505,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7542481882576301</v>
+        <v>6.293782320883294</v>
       </c>
       <c r="D15">
-        <v>6.293782320883295</v>
+        <v>0.6547557923070556</v>
       </c>
       <c r="E15">
         <v>1.827441551796372</v>
       </c>
       <c r="F15">
-        <v>0.7542481882576301</v>
+        <v>6.293782320883294</v>
       </c>
       <c r="G15">
-        <v>0.1104950233091276</v>
+        <v>0.7542481882576328</v>
       </c>
       <c r="H15">
+        <v>0.7542481882576304</v>
+      </c>
+      <c r="I15">
+        <v>0.7542481882576304</v>
+      </c>
+      <c r="J15">
+        <v>0.1104950233091275</v>
+      </c>
+      <c r="K15">
         <v>2.266937972922715</v>
       </c>
-      <c r="I15">
-        <v>0.7542481882576324</v>
-      </c>
-      <c r="J15">
-        <v>6.293782320883295</v>
-      </c>
-      <c r="K15">
-        <v>0.6547557923070556</v>
-      </c>
       <c r="L15">
-        <v>0.0006869477132776929</v>
+        <v>0.0006869477132776931</v>
       </c>
       <c r="M15">
         <v>1.48290195909784</v>
       </c>
       <c r="N15">
-        <v>0.7542481882576301</v>
+        <v>0.7542481882576304</v>
       </c>
       <c r="O15">
         <v>1.827441551796372</v>
       </c>
       <c r="P15">
-        <v>4.060611936339834</v>
+        <v>4.060611936339833</v>
       </c>
       <c r="Q15">
         <v>0.9689682875527498</v>
@@ -1541,7 +1553,7 @@
         <v>2.958490686979099</v>
       </c>
       <c r="S15">
-        <v>2.743906298662932</v>
+        <v>2.743906298662931</v>
       </c>
       <c r="T15">
         <v>2.958490686979099</v>
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.100759723710767</v>
+        <v>5.887882296627901</v>
       </c>
       <c r="D16">
-        <v>1.156020288630273</v>
+        <v>0.2354369054151948</v>
       </c>
       <c r="E16">
-        <v>1.102428119252099</v>
+        <v>3.972286963837162</v>
       </c>
       <c r="F16">
-        <v>1.100759723710767</v>
+        <v>5.887882296627901</v>
       </c>
       <c r="G16">
-        <v>1.017354810249393</v>
+        <v>8.718901519122554</v>
       </c>
       <c r="H16">
-        <v>1.000854441214142</v>
+        <v>8.718901519122266</v>
       </c>
       <c r="I16">
-        <v>1.100759723710136</v>
+        <v>8.718901519122266</v>
       </c>
       <c r="J16">
-        <v>1.156020288630273</v>
+        <v>3.052663480476966</v>
       </c>
       <c r="K16">
-        <v>1.010999416481303</v>
+        <v>2.881285049141006</v>
       </c>
       <c r="L16">
-        <v>1.021881115656392</v>
+        <v>3.064276872841281</v>
       </c>
       <c r="M16">
-        <v>1.009788987700916</v>
+        <v>2.986913289990894</v>
       </c>
       <c r="N16">
-        <v>1.100759723710767</v>
+        <v>8.718901519122266</v>
       </c>
       <c r="O16">
-        <v>1.102428119252099</v>
+        <v>3.972286963837162</v>
       </c>
       <c r="P16">
-        <v>1.129224203941186</v>
+        <v>4.930084630232532</v>
       </c>
       <c r="Q16">
-        <v>1.059891464750746</v>
+        <v>3.512475222157064</v>
       </c>
       <c r="R16">
-        <v>1.11973604386438</v>
+        <v>6.193023593195776</v>
       </c>
       <c r="S16">
-        <v>1.091934406043922</v>
+        <v>4.30427758031401</v>
       </c>
       <c r="T16">
-        <v>1.11973604386438</v>
+        <v>6.193023593195775</v>
       </c>
       <c r="U16">
-        <v>1.094140735460633</v>
+        <v>5.407933565016073</v>
       </c>
       <c r="V16">
-        <v>1.09546453311066</v>
+        <v>6.070127155837311</v>
       </c>
       <c r="W16">
-        <v>1.052510862861911</v>
+        <v>3.849955797181583</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9676775840462136</v>
+        <v>4.222431283822477</v>
       </c>
       <c r="D17">
-        <v>0.9242915791941753</v>
+        <v>0.4718511218366936</v>
       </c>
       <c r="E17">
-        <v>1.138681694095622</v>
+        <v>4.235551124199104</v>
       </c>
       <c r="F17">
-        <v>0.9676775840462136</v>
+        <v>4.222431283822477</v>
       </c>
       <c r="G17">
-        <v>1.053555294891267</v>
+        <v>6.135647745414686</v>
       </c>
       <c r="H17">
-        <v>1.029575373058365</v>
+        <v>6.135647745414616</v>
       </c>
       <c r="I17">
-        <v>0.9676775840454848</v>
+        <v>6.135647745414616</v>
       </c>
       <c r="J17">
-        <v>0.9242915791941753</v>
+        <v>2.336894133246836</v>
       </c>
       <c r="K17">
-        <v>1.006598589262788</v>
+        <v>2.281019118613665</v>
       </c>
       <c r="L17">
-        <v>1.08241900777411</v>
+        <v>2.373453675080025</v>
       </c>
       <c r="M17">
-        <v>1.029224598203456</v>
+        <v>2.280689111113246</v>
       </c>
       <c r="N17">
-        <v>0.9676775840462136</v>
+        <v>6.135647745414616</v>
       </c>
       <c r="O17">
-        <v>1.138681694095622</v>
+        <v>4.235551124199104</v>
       </c>
       <c r="P17">
-        <v>1.031486636644899</v>
+        <v>4.228991204010791</v>
       </c>
       <c r="Q17">
-        <v>1.096118494493444</v>
+        <v>3.28622262872297</v>
       </c>
       <c r="R17">
-        <v>1.010216952445337</v>
+        <v>4.864543384478733</v>
       </c>
       <c r="S17">
-        <v>1.038842856060355</v>
+        <v>3.598292180422806</v>
       </c>
       <c r="T17">
-        <v>1.010216952445337</v>
+        <v>4.864543384478733</v>
       </c>
       <c r="U17">
-        <v>1.021051538056819</v>
+        <v>4.232631071670759</v>
       </c>
       <c r="V17">
-        <v>1.010376747254698</v>
+        <v>4.61323440641953</v>
       </c>
       <c r="W17">
-        <v>1.02900296506575</v>
+        <v>3.042192164165833</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.491567963776982</v>
+        <v>0.4848198303291671</v>
       </c>
       <c r="D18">
-        <v>0.8427012920794497</v>
+        <v>0.8374866791152914</v>
       </c>
       <c r="E18">
-        <v>1.556058851878036</v>
+        <v>4.801275224234304</v>
       </c>
       <c r="F18">
-        <v>1.491567963776982</v>
+        <v>0.4848198303291671</v>
       </c>
       <c r="G18">
-        <v>1.789969616954987</v>
+        <v>1.223987864361009</v>
       </c>
       <c r="H18">
-        <v>1.253578917475459</v>
+        <v>1.223987864361251</v>
       </c>
       <c r="I18">
-        <v>1.491567963776624</v>
+        <v>1.223987864361251</v>
       </c>
       <c r="J18">
-        <v>0.8427012920794497</v>
+        <v>0.8070556033615144</v>
       </c>
       <c r="K18">
-        <v>1.04460451813509</v>
+        <v>1.335768121824824</v>
       </c>
       <c r="L18">
-        <v>1.637720466302097</v>
+        <v>1.245683681511106</v>
       </c>
       <c r="M18">
-        <v>1.35922263294378</v>
+        <v>0.8946606680724258</v>
       </c>
       <c r="N18">
-        <v>1.491567963776982</v>
+        <v>1.223987864361251</v>
       </c>
       <c r="O18">
-        <v>1.556058851878036</v>
+        <v>4.801275224234304</v>
       </c>
       <c r="P18">
-        <v>1.199380071978743</v>
+        <v>2.643047527281736</v>
       </c>
       <c r="Q18">
-        <v>1.673014234416512</v>
+        <v>2.80416541379791</v>
       </c>
       <c r="R18">
-        <v>1.296776035911489</v>
+        <v>2.170027639641574</v>
       </c>
       <c r="S18">
-        <v>1.396243253637491</v>
+        <v>2.031050219308329</v>
       </c>
       <c r="T18">
-        <v>1.296776035911489</v>
+        <v>2.170027639641574</v>
       </c>
       <c r="U18">
-        <v>1.420074431172364</v>
+        <v>1.829284630571559</v>
       </c>
       <c r="V18">
-        <v>1.434373137693288</v>
+        <v>1.708225277329497</v>
       </c>
       <c r="W18">
-        <v>1.371928032443235</v>
+        <v>1.453842209101236</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.4137942044506255</v>
+      </c>
+      <c r="D19">
+        <v>1.052118943478877</v>
+      </c>
+      <c r="E19">
+        <v>7.018564716869493</v>
+      </c>
+      <c r="F19">
+        <v>0.4137942044506255</v>
+      </c>
+      <c r="G19">
+        <v>0.5486931741750724</v>
+      </c>
+      <c r="H19">
+        <v>0.5486931741743863</v>
+      </c>
+      <c r="I19">
+        <v>0.5486931741743863</v>
+      </c>
+      <c r="J19">
+        <v>0.7150354663470115</v>
+      </c>
+      <c r="K19">
+        <v>1.21908453635959</v>
+      </c>
+      <c r="L19">
+        <v>0.8207120590007432</v>
+      </c>
+      <c r="M19">
+        <v>0.7853200193861009</v>
+      </c>
+      <c r="N19">
+        <v>0.5486931741743863</v>
+      </c>
+      <c r="O19">
+        <v>7.018564716869493</v>
+      </c>
+      <c r="P19">
+        <v>3.716179460660059</v>
+      </c>
+      <c r="Q19">
+        <v>3.866800091608252</v>
+      </c>
+      <c r="R19">
+        <v>2.660350698498168</v>
+      </c>
+      <c r="S19">
+        <v>2.715798129222377</v>
+      </c>
+      <c r="T19">
+        <v>2.660350698498168</v>
+      </c>
+      <c r="U19">
+        <v>2.174021890460379</v>
+      </c>
+      <c r="V19">
+        <v>1.848956147203181</v>
+      </c>
+      <c r="W19">
+        <v>1.571665390008353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.156020288630276</v>
+      </c>
+      <c r="D20">
+        <v>1.010999416481301</v>
+      </c>
+      <c r="E20">
+        <v>1.1024281192521</v>
+      </c>
+      <c r="F20">
+        <v>1.156020288630276</v>
+      </c>
+      <c r="G20">
+        <v>1.10075972371014</v>
+      </c>
+      <c r="H20">
+        <v>1.100759723710771</v>
+      </c>
+      <c r="I20">
+        <v>1.100759723710771</v>
+      </c>
+      <c r="J20">
+        <v>1.017354810249393</v>
+      </c>
+      <c r="K20">
+        <v>1.000854441214142</v>
+      </c>
+      <c r="L20">
+        <v>1.021881115656392</v>
+      </c>
+      <c r="M20">
+        <v>1.009788987700918</v>
+      </c>
+      <c r="N20">
+        <v>1.100759723710771</v>
+      </c>
+      <c r="O20">
+        <v>1.1024281192521</v>
+      </c>
+      <c r="P20">
+        <v>1.129224203941188</v>
+      </c>
+      <c r="Q20">
+        <v>1.059891464750747</v>
+      </c>
+      <c r="R20">
+        <v>1.119736043864383</v>
+      </c>
+      <c r="S20">
+        <v>1.091934406043923</v>
+      </c>
+      <c r="T20">
+        <v>1.119736043864383</v>
+      </c>
+      <c r="U20">
+        <v>1.094140735460635</v>
+      </c>
+      <c r="V20">
+        <v>1.095464533110662</v>
+      </c>
+      <c r="W20">
+        <v>1.052510862861912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9242915791941786</v>
+      </c>
+      <c r="D21">
+        <v>1.00659858926279</v>
+      </c>
+      <c r="E21">
+        <v>1.138681694095622</v>
+      </c>
+      <c r="F21">
+        <v>0.9242915791941786</v>
+      </c>
+      <c r="G21">
+        <v>0.9676775840454893</v>
+      </c>
+      <c r="H21">
+        <v>0.9676775840462181</v>
+      </c>
+      <c r="I21">
+        <v>0.9676775840462181</v>
+      </c>
+      <c r="J21">
+        <v>1.053555294891265</v>
+      </c>
+      <c r="K21">
+        <v>1.029575373058367</v>
+      </c>
+      <c r="L21">
+        <v>1.082419007774111</v>
+      </c>
+      <c r="M21">
+        <v>1.029224598203457</v>
+      </c>
+      <c r="N21">
+        <v>0.9676775840462181</v>
+      </c>
+      <c r="O21">
+        <v>1.138681694095622</v>
+      </c>
+      <c r="P21">
+        <v>1.0314866366449</v>
+      </c>
+      <c r="Q21">
+        <v>1.096118494493444</v>
+      </c>
+      <c r="R21">
+        <v>1.01021695244534</v>
+      </c>
+      <c r="S21">
+        <v>1.038842856060355</v>
+      </c>
+      <c r="T21">
+        <v>1.01021695244534</v>
+      </c>
+      <c r="U21">
+        <v>1.021051538056821</v>
+      </c>
+      <c r="V21">
+        <v>1.0103767472547</v>
+      </c>
+      <c r="W21">
+        <v>1.029002965065751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.842701292079458</v>
+      </c>
+      <c r="D22">
+        <v>1.044604518135091</v>
+      </c>
+      <c r="E22">
+        <v>1.556058851878036</v>
+      </c>
+      <c r="F22">
+        <v>0.842701292079458</v>
+      </c>
+      <c r="G22">
+        <v>1.49156796377664</v>
+      </c>
+      <c r="H22">
+        <v>1.491567963776999</v>
+      </c>
+      <c r="I22">
+        <v>1.491567963776999</v>
+      </c>
+      <c r="J22">
+        <v>1.789969616954987</v>
+      </c>
+      <c r="K22">
+        <v>1.25357891747546</v>
+      </c>
+      <c r="L22">
+        <v>1.637720466302097</v>
+      </c>
+      <c r="M22">
+        <v>1.359222632943781</v>
+      </c>
+      <c r="N22">
+        <v>1.491567963776999</v>
+      </c>
+      <c r="O22">
+        <v>1.556058851878036</v>
+      </c>
+      <c r="P22">
+        <v>1.199380071978747</v>
+      </c>
+      <c r="Q22">
+        <v>1.673014234416511</v>
+      </c>
+      <c r="R22">
+        <v>1.296776035911497</v>
+      </c>
+      <c r="S22">
+        <v>1.396243253637494</v>
+      </c>
+      <c r="T22">
+        <v>1.296776035911497</v>
+      </c>
+      <c r="U22">
+        <v>1.42007443117237</v>
+      </c>
+      <c r="V22">
+        <v>1.434373137693296</v>
+      </c>
+      <c r="W22">
+        <v>1.371928032443239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9432897633598424</v>
+      </c>
+      <c r="D23">
+        <v>0.8105831061660465</v>
+      </c>
+      <c r="E23">
+        <v>2.279114321940964</v>
+      </c>
+      <c r="F23">
+        <v>0.9432897633598424</v>
+      </c>
+      <c r="G23">
+        <v>2.293671858345638</v>
+      </c>
+      <c r="H23">
         <v>2.293671858345335</v>
       </c>
-      <c r="D19">
-        <v>0.9432897633598423</v>
-      </c>
-      <c r="E19">
+      <c r="I23">
+        <v>2.293671858345335</v>
+      </c>
+      <c r="J23">
+        <v>0.4888290514499138</v>
+      </c>
+      <c r="K23">
+        <v>1.302731461326176</v>
+      </c>
+      <c r="L23">
+        <v>1.407095258519091</v>
+      </c>
+      <c r="M23">
+        <v>0.9860791330480219</v>
+      </c>
+      <c r="N23">
+        <v>2.293671858345335</v>
+      </c>
+      <c r="O23">
         <v>2.279114321940964</v>
       </c>
-      <c r="F19">
-        <v>2.293671858345335</v>
-      </c>
-      <c r="G19">
-        <v>0.4888290514499138</v>
-      </c>
-      <c r="H19">
-        <v>1.302731461326176</v>
-      </c>
-      <c r="I19">
-        <v>2.293671858345638</v>
-      </c>
-      <c r="J19">
-        <v>0.9432897633598423</v>
-      </c>
-      <c r="K19">
-        <v>0.8105831061660465</v>
-      </c>
-      <c r="L19">
-        <v>1.407095258519091</v>
-      </c>
-      <c r="M19">
-        <v>0.9860791330480219</v>
-      </c>
-      <c r="N19">
-        <v>2.293671858345335</v>
-      </c>
-      <c r="O19">
-        <v>2.279114321940964</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.611202042650403</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.383971686695439</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.838691981215381</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.23707771225024</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.838691981215381</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.501226248774014</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.659715370688278</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.313924244269424</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.422661252425824</v>
+        <v>1.009299393873708</v>
       </c>
       <c r="D3">
-        <v>0.9440892187165776</v>
+        <v>0.8884880414063108</v>
       </c>
       <c r="E3">
-        <v>1.37029002550875</v>
+        <v>7.655469779151606</v>
       </c>
       <c r="F3">
-        <v>1.422661252425824</v>
+        <v>1.009299393873708</v>
       </c>
       <c r="G3">
-        <v>1.527910351012994</v>
+        <v>1.167293839124023</v>
       </c>
       <c r="H3">
-        <v>1.527910351013502</v>
+        <v>1.167293839124324</v>
       </c>
       <c r="I3">
-        <v>1.527910351013502</v>
+        <v>1.167293839124324</v>
       </c>
       <c r="J3">
-        <v>1.156516396342582</v>
+        <v>0.9368101695575413</v>
       </c>
       <c r="K3">
-        <v>1.09658635125702</v>
+        <v>1.095708006156033</v>
       </c>
       <c r="L3">
-        <v>1.158516425277809</v>
+        <v>1.058581009847352</v>
       </c>
       <c r="M3">
-        <v>1.130976564992927</v>
+        <v>0.9001364229259686</v>
       </c>
       <c r="N3">
-        <v>1.527910351013502</v>
+        <v>1.167293839124324</v>
       </c>
       <c r="O3">
-        <v>1.37029002550875</v>
+        <v>7.655469779151606</v>
       </c>
       <c r="P3">
-        <v>1.396475638967287</v>
+        <v>4.332384586512657</v>
       </c>
       <c r="Q3">
-        <v>1.263403210925666</v>
+        <v>4.296139974354574</v>
       </c>
       <c r="R3">
-        <v>1.440287209649358</v>
+        <v>3.277354337383213</v>
       </c>
       <c r="S3">
-        <v>1.316489224759052</v>
+        <v>3.200526447527619</v>
       </c>
       <c r="T3">
-        <v>1.440287209649358</v>
+        <v>3.277354337383213</v>
       </c>
       <c r="U3">
-        <v>1.369344506322664</v>
+        <v>2.692218295426795</v>
       </c>
       <c r="V3">
-        <v>1.401057675260832</v>
+        <v>2.387233404166301</v>
       </c>
       <c r="W3">
-        <v>1.225943323191874</v>
+        <v>1.838973332755355</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.563685135483127</v>
+        <v>0.9429017825125318</v>
       </c>
       <c r="D4">
-        <v>0.8798935545742522</v>
+        <v>0.9193728579144457</v>
       </c>
       <c r="E4">
-        <v>1.437519589998957</v>
+        <v>6.066892851777198</v>
       </c>
       <c r="F4">
-        <v>1.563685135483127</v>
+        <v>0.9429017825125318</v>
       </c>
       <c r="G4">
-        <v>2.398170418238369</v>
+        <v>1.055939555532499</v>
       </c>
       <c r="H4">
-        <v>2.398170418239275</v>
+        <v>1.055939555532857</v>
       </c>
       <c r="I4">
-        <v>2.398170418239275</v>
+        <v>1.055939555532857</v>
       </c>
       <c r="J4">
-        <v>1.425712245827338</v>
+        <v>0.9188385726617235</v>
       </c>
       <c r="K4">
-        <v>1.36195913335645</v>
+        <v>1.086505643259174</v>
       </c>
       <c r="L4">
-        <v>1.310389589932087</v>
+        <v>0.9898559905084173</v>
       </c>
       <c r="M4">
-        <v>1.35446842580663</v>
+        <v>0.881814629905297</v>
       </c>
       <c r="N4">
-        <v>2.398170418239275</v>
+        <v>1.055939555532857</v>
       </c>
       <c r="O4">
-        <v>1.437519589998957</v>
+        <v>6.066892851777198</v>
       </c>
       <c r="P4">
-        <v>1.500602362741042</v>
+        <v>3.504897317144865</v>
       </c>
       <c r="Q4">
-        <v>1.431615917913148</v>
+        <v>3.492865712219461</v>
       </c>
       <c r="R4">
-        <v>1.799791714573787</v>
+        <v>2.688578063274196</v>
       </c>
       <c r="S4">
-        <v>1.475638990436474</v>
+        <v>2.642877735650484</v>
       </c>
       <c r="T4">
-        <v>1.799791714573787</v>
+        <v>2.688578063274196</v>
       </c>
       <c r="U4">
-        <v>1.706271847387174</v>
+        <v>2.246143190621078</v>
       </c>
       <c r="V4">
-        <v>1.844651561557594</v>
+        <v>2.008102463603433</v>
       </c>
       <c r="W4">
-        <v>1.466474761652264</v>
+        <v>1.607765235508956</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7689901981840218</v>
+        <v>0.2534674124572776</v>
       </c>
       <c r="D5">
-        <v>0.6325400855383384</v>
+        <v>1.151541068455094</v>
       </c>
       <c r="E5">
-        <v>1.882022256273875</v>
+        <v>14.11517124186238</v>
       </c>
       <c r="F5">
-        <v>0.7689901981840218</v>
+        <v>0.2534674124572776</v>
       </c>
       <c r="G5">
-        <v>5.735588947634778</v>
+        <v>2.033409478602851</v>
       </c>
       <c r="H5">
-        <v>5.735588947634973</v>
+        <v>2.033409478602684</v>
       </c>
       <c r="I5">
-        <v>5.735588947634973</v>
+        <v>2.033409478602684</v>
       </c>
       <c r="J5">
-        <v>2.318758879323132</v>
+        <v>1.242228051417574</v>
       </c>
       <c r="K5">
-        <v>1.826229911306863</v>
+        <v>1.812969619376225</v>
       </c>
       <c r="L5">
-        <v>2.661312642370365</v>
+        <v>1.925997695526952</v>
       </c>
       <c r="M5">
-        <v>2.424283577873369</v>
+        <v>0.8763520315688683</v>
       </c>
       <c r="N5">
-        <v>5.735588947634973</v>
+        <v>2.033409478602684</v>
       </c>
       <c r="O5">
-        <v>1.882022256273875</v>
+        <v>14.11517124186238</v>
       </c>
       <c r="P5">
-        <v>1.325506227228948</v>
+        <v>7.184319327159831</v>
       </c>
       <c r="Q5">
-        <v>2.100390567798503</v>
+        <v>7.678699646639979</v>
       </c>
       <c r="R5">
-        <v>2.795533800697623</v>
+        <v>5.467349377640782</v>
       </c>
       <c r="S5">
-        <v>1.656590444593676</v>
+        <v>5.203622235245745</v>
       </c>
       <c r="T5">
-        <v>2.795533800697623</v>
+        <v>5.467349377640782</v>
       </c>
       <c r="U5">
-        <v>2.676340070354001</v>
+        <v>4.41106904608498</v>
       </c>
       <c r="V5">
-        <v>3.288189845810195</v>
+        <v>3.935537132588521</v>
       </c>
       <c r="W5">
-        <v>2.281215812313117</v>
+        <v>2.926392074908382</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9477222617543412</v>
+        <v>0.7351326684400339</v>
       </c>
       <c r="D6">
-        <v>1.02796245169435</v>
+        <v>0.4463540022737843</v>
       </c>
       <c r="E6">
-        <v>3.127168259551774</v>
+        <v>20.28240204288069</v>
       </c>
       <c r="F6">
-        <v>0.9477222617543412</v>
+        <v>0.7351326684400339</v>
       </c>
       <c r="G6">
-        <v>6.715720029732825</v>
+        <v>2.33404071968216</v>
       </c>
       <c r="H6">
-        <v>6.715720029732433</v>
+        <v>2.334040719684205</v>
       </c>
       <c r="I6">
-        <v>6.715720029732433</v>
+        <v>2.334040719684205</v>
       </c>
       <c r="J6">
-        <v>2.562834543345007</v>
+        <v>1.644197244747158</v>
       </c>
       <c r="K6">
-        <v>0.5900055710210591</v>
+        <v>1.020021313652614</v>
       </c>
       <c r="L6">
-        <v>2.212591745177018</v>
+        <v>3.084746753580567</v>
       </c>
       <c r="M6">
-        <v>0.4103099366559586</v>
+        <v>0.2713018020358522</v>
       </c>
       <c r="N6">
-        <v>6.715720029732433</v>
+        <v>2.334040719684205</v>
       </c>
       <c r="O6">
-        <v>3.127168259551774</v>
+        <v>20.28240204288069</v>
       </c>
       <c r="P6">
-        <v>2.037445260653058</v>
+        <v>10.50876735566036</v>
       </c>
       <c r="Q6">
-        <v>2.845001401448391</v>
+        <v>10.96329964381393</v>
       </c>
       <c r="R6">
-        <v>3.596870183679516</v>
+        <v>7.783858477001644</v>
       </c>
       <c r="S6">
-        <v>2.212575021550375</v>
+        <v>7.553910652022629</v>
       </c>
       <c r="T6">
-        <v>3.596870183679516</v>
+        <v>7.783858477001644</v>
       </c>
       <c r="U6">
-        <v>3.338361273595889</v>
+        <v>6.248943168938022</v>
       </c>
       <c r="V6">
-        <v>4.013833024823198</v>
+        <v>5.465962679087259</v>
       </c>
       <c r="W6">
-        <v>2.199289349866492</v>
+        <v>3.727274568411863</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.073127310326628</v>
+        <v>0.007699521143238588</v>
       </c>
       <c r="D7">
-        <v>1.012572244393734</v>
+        <v>0.0003097883558970228</v>
       </c>
       <c r="E7">
-        <v>1.137013115978419</v>
+        <v>8.438872816991195</v>
       </c>
       <c r="F7">
-        <v>1.073127310326628</v>
+        <v>0.007699521143238588</v>
       </c>
       <c r="G7">
-        <v>1.080837186518161</v>
+        <v>0.008918128386745895</v>
       </c>
       <c r="H7">
-        <v>1.080837186518791</v>
+        <v>0.0089181283808932</v>
       </c>
       <c r="I7">
-        <v>1.080837186518791</v>
+        <v>0.0089181283808932</v>
       </c>
       <c r="J7">
-        <v>1.049281055066483</v>
+        <v>-0.00519287069141925</v>
       </c>
       <c r="K7">
-        <v>1.01605632544314</v>
+        <v>0.01702256695107571</v>
       </c>
       <c r="L7">
-        <v>1.055877896386286</v>
+        <v>6.133704430693588</v>
       </c>
       <c r="M7">
-        <v>1.025303119728608</v>
+        <v>0.000156632825137534</v>
       </c>
       <c r="N7">
-        <v>1.080837186518791</v>
+        <v>0.0089181283808932</v>
       </c>
       <c r="O7">
-        <v>1.137013115978419</v>
+        <v>8.438872816991195</v>
       </c>
       <c r="P7">
-        <v>1.105070213152523</v>
+        <v>4.223286169067217</v>
       </c>
       <c r="Q7">
-        <v>1.093147085522451</v>
+        <v>4.216839973149888</v>
       </c>
       <c r="R7">
-        <v>1.096992537607946</v>
+        <v>2.818496822171776</v>
       </c>
       <c r="S7">
-        <v>1.086473827123843</v>
+        <v>2.813793155814338</v>
       </c>
       <c r="T7">
-        <v>1.096992537607946</v>
+        <v>2.818496822171776</v>
       </c>
       <c r="U7">
-        <v>1.08506466697258</v>
+        <v>2.112574398955977</v>
       </c>
       <c r="V7">
-        <v>1.084219170881822</v>
+        <v>1.69184314484096</v>
       </c>
       <c r="W7">
-        <v>1.056258531730261</v>
+        <v>1.825186376831201</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.076232207234717</v>
+        <v>0.007659193287652044</v>
       </c>
       <c r="D8">
-        <v>1.000586853858469</v>
+        <v>0.0003182831693346642</v>
       </c>
       <c r="E8">
-        <v>1.23542488510193</v>
+        <v>8.636255449739203</v>
       </c>
       <c r="F8">
-        <v>1.076232207234717</v>
+        <v>0.007659193287652044</v>
       </c>
       <c r="G8">
-        <v>1.093490359155039</v>
+        <v>0.008871920675299131</v>
       </c>
       <c r="H8">
-        <v>1.09349035915566</v>
+        <v>0.008871920669476169</v>
       </c>
       <c r="I8">
-        <v>1.09349035915566</v>
+        <v>0.008871920669476169</v>
       </c>
       <c r="J8">
-        <v>1.041117515094362</v>
+        <v>-0.005165540543838133</v>
       </c>
       <c r="K8">
-        <v>1.032836120848694</v>
+        <v>0.01704065766641739</v>
       </c>
       <c r="L8">
-        <v>1.085967077970077</v>
+        <v>6.209012747159654</v>
       </c>
       <c r="M8">
-        <v>1.028404716262462</v>
+        <v>0.0001432451162926034</v>
       </c>
       <c r="N8">
-        <v>1.09349035915566</v>
+        <v>0.008871920669476169</v>
       </c>
       <c r="O8">
-        <v>1.23542488510193</v>
+        <v>8.636255449739203</v>
       </c>
       <c r="P8">
-        <v>1.155828546168323</v>
+        <v>4.321957321513428</v>
       </c>
       <c r="Q8">
-        <v>1.138271200098146</v>
+        <v>4.315544954597682</v>
       </c>
       <c r="R8">
-        <v>1.135049150497436</v>
+        <v>2.884262187898777</v>
       </c>
       <c r="S8">
-        <v>1.117591535810336</v>
+        <v>2.879583034161005</v>
       </c>
       <c r="T8">
-        <v>1.135049150497436</v>
+        <v>2.884262187898777</v>
       </c>
       <c r="U8">
-        <v>1.111566241646667</v>
+        <v>2.161905255788123</v>
       </c>
       <c r="V8">
-        <v>1.107951065148466</v>
+        <v>1.731298588764394</v>
       </c>
       <c r="W8">
-        <v>1.074257466940796</v>
+        <v>1.859266994533024</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9516178581799319</v>
+        <v>0.007624719785181661</v>
       </c>
       <c r="D9">
-        <v>1.092901443416536</v>
+        <v>0.0003068732026775928</v>
       </c>
       <c r="E9">
-        <v>1.092080846198069</v>
+        <v>9.06263094199678</v>
       </c>
       <c r="F9">
-        <v>0.9516178581799319</v>
+        <v>0.007624719785181661</v>
       </c>
       <c r="G9">
-        <v>1.124437602665267</v>
+        <v>0.008867543098327805</v>
       </c>
       <c r="H9">
-        <v>1.124437602665828</v>
+        <v>0.008867543092521539</v>
       </c>
       <c r="I9">
-        <v>1.124437602665828</v>
+        <v>0.008867543092521539</v>
       </c>
       <c r="J9">
-        <v>1.047870713063783</v>
+        <v>-0.005157736476487597</v>
       </c>
       <c r="K9">
-        <v>0.9897645431886756</v>
+        <v>0.0170720756431549</v>
       </c>
       <c r="L9">
-        <v>1.206061509780795</v>
+        <v>6.195934852031783</v>
       </c>
       <c r="M9">
-        <v>0.9624714853840372</v>
+        <v>0.0001415476098715638</v>
       </c>
       <c r="N9">
-        <v>1.124437602665828</v>
+        <v>0.008867543092521539</v>
       </c>
       <c r="O9">
-        <v>1.092080846198069</v>
+        <v>9.06263094199678</v>
       </c>
       <c r="P9">
-        <v>1.021849352189</v>
+        <v>4.535127830890981</v>
       </c>
       <c r="Q9">
-        <v>1.069975779630926</v>
+        <v>4.528736602760146</v>
       </c>
       <c r="R9">
-        <v>1.056045435681276</v>
+        <v>3.026374401624828</v>
       </c>
       <c r="S9">
-        <v>1.030523139147261</v>
+        <v>3.021699308435158</v>
       </c>
       <c r="T9">
-        <v>1.056045435681276</v>
+        <v>3.026374401624828</v>
       </c>
       <c r="U9">
-        <v>1.054001755026903</v>
+        <v>2.268491367099499</v>
       </c>
       <c r="V9">
-        <v>1.068088924554688</v>
+        <v>1.816566602298103</v>
       </c>
       <c r="W9">
-        <v>1.058400750234707</v>
+        <v>1.910927602110685</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9814113664025892</v>
+        <v>0.007469440102290387</v>
       </c>
       <c r="D10">
-        <v>0.9696125769628766</v>
+        <v>0.0003356405983341662</v>
       </c>
       <c r="E10">
-        <v>1.524550038649736</v>
+        <v>9.838117707424761</v>
       </c>
       <c r="F10">
-        <v>0.9814113664025892</v>
+        <v>0.007469440102290387</v>
       </c>
       <c r="G10">
-        <v>1.489486920013063</v>
+        <v>0.008643291978030918</v>
       </c>
       <c r="H10">
-        <v>1.489486920013744</v>
+        <v>0.008643291972301329</v>
       </c>
       <c r="I10">
-        <v>1.489486920013744</v>
+        <v>0.008643291972301329</v>
       </c>
       <c r="J10">
-        <v>1.269339039741807</v>
+        <v>-0.005060586592586879</v>
       </c>
       <c r="K10">
-        <v>1.127306509973417</v>
+        <v>0.01698790175121582</v>
       </c>
       <c r="L10">
-        <v>1.374832016110116</v>
+        <v>6.643914819665274</v>
       </c>
       <c r="M10">
-        <v>1.230998440078814</v>
+        <v>5.807190853607802E-05</v>
       </c>
       <c r="N10">
-        <v>1.489486920013744</v>
+        <v>0.008643291972301329</v>
       </c>
       <c r="O10">
-        <v>1.524550038649736</v>
+        <v>9.838117707424761</v>
       </c>
       <c r="P10">
-        <v>1.252980702526163</v>
+        <v>4.922793573763526</v>
       </c>
       <c r="Q10">
-        <v>1.396944539195771</v>
+        <v>4.916528560416087</v>
       </c>
       <c r="R10">
-        <v>1.331816108355357</v>
+        <v>3.284743479833118</v>
       </c>
       <c r="S10">
-        <v>1.258433481598044</v>
+        <v>3.280175520311488</v>
       </c>
       <c r="T10">
-        <v>1.331816108355357</v>
+        <v>3.284743479833117</v>
       </c>
       <c r="U10">
-        <v>1.316196841201969</v>
+        <v>2.462292463226691</v>
       </c>
       <c r="V10">
-        <v>1.350854856964324</v>
+        <v>1.971562628975813</v>
       </c>
       <c r="W10">
-        <v>1.245942113491638</v>
+        <v>2.063808285853766</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.2052465750224286</v>
+        <v>1.328923842120323</v>
       </c>
       <c r="D11">
-        <v>0.97060009788047</v>
+        <v>0.9644027205501583</v>
       </c>
       <c r="E11">
-        <v>2.302742249943646</v>
+        <v>1.266467030223599</v>
       </c>
       <c r="F11">
-        <v>0.2052465750224286</v>
+        <v>1.328923842120323</v>
       </c>
       <c r="G11">
-        <v>0.7320982460134513</v>
+        <v>1.509157275242117</v>
       </c>
       <c r="H11">
-        <v>0.7320982460135993</v>
+        <v>1.509157275242676</v>
       </c>
       <c r="I11">
-        <v>0.7320982460135993</v>
+        <v>1.509157275242676</v>
       </c>
       <c r="J11">
-        <v>0.8702147614664912</v>
+        <v>1.170696996513813</v>
       </c>
       <c r="K11">
-        <v>0.901491717995856</v>
+        <v>1.120169431886548</v>
       </c>
       <c r="L11">
-        <v>1.749737855439947</v>
+        <v>1.17694883485914</v>
       </c>
       <c r="M11">
-        <v>1.004231651550592</v>
+        <v>1.143534403892436</v>
       </c>
       <c r="N11">
-        <v>0.7320982460135993</v>
+        <v>1.509157275242676</v>
       </c>
       <c r="O11">
-        <v>2.302742249943646</v>
+        <v>1.266467030223599</v>
       </c>
       <c r="P11">
-        <v>1.253994412483037</v>
+        <v>1.297695436171961</v>
       </c>
       <c r="Q11">
-        <v>1.586478505705069</v>
+        <v>1.218582013368706</v>
       </c>
       <c r="R11">
-        <v>1.080029023659891</v>
+        <v>1.3681827158622</v>
       </c>
       <c r="S11">
-        <v>1.126067862144189</v>
+        <v>1.255362622952578</v>
       </c>
       <c r="T11">
-        <v>1.080029023659891</v>
+        <v>1.368182715862199</v>
       </c>
       <c r="U11">
-        <v>1.027575458111541</v>
+        <v>1.318811286025102</v>
       </c>
       <c r="V11">
-        <v>0.9684800156919529</v>
+        <v>1.356880483868617</v>
       </c>
       <c r="W11">
-        <v>1.092045394414129</v>
+        <v>1.210037566911087</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>7.73658349294782</v>
+        <v>1.19770218266573</v>
       </c>
       <c r="D12">
-        <v>0.4716841930581974</v>
+        <v>0.9789067848232801</v>
       </c>
       <c r="E12">
-        <v>0.0001533346788089328</v>
+        <v>1.223695830604126</v>
       </c>
       <c r="F12">
-        <v>7.73658349294782</v>
+        <v>1.19770218266573</v>
       </c>
       <c r="G12">
-        <v>0.2402145757208905</v>
+        <v>1.292337790042646</v>
       </c>
       <c r="H12">
-        <v>0.2402145757208905</v>
+        <v>1.292337790043199</v>
       </c>
       <c r="I12">
-        <v>0.2402145757208905</v>
+        <v>1.292337790043199</v>
       </c>
       <c r="J12">
-        <v>1.031889489027874</v>
+        <v>1.099266058134073</v>
       </c>
       <c r="K12">
-        <v>0.149880501300373</v>
+        <v>1.066410868348195</v>
       </c>
       <c r="L12">
-        <v>1.12070183284987</v>
+        <v>1.104856899889852</v>
       </c>
       <c r="M12">
-        <v>0.4045366655406436</v>
+        <v>1.079069831654709</v>
       </c>
       <c r="N12">
-        <v>0.2402145757208905</v>
+        <v>1.292337790043199</v>
       </c>
       <c r="O12">
-        <v>0.0001533346788089328</v>
+        <v>1.223695830604126</v>
       </c>
       <c r="P12">
-        <v>3.868368413813315</v>
+        <v>1.210699006634928</v>
       </c>
       <c r="Q12">
-        <v>0.5160214118533413</v>
+        <v>1.1614809443691</v>
       </c>
       <c r="R12">
-        <v>2.65898380111584</v>
+        <v>1.237911934437685</v>
       </c>
       <c r="S12">
-        <v>2.922875438884834</v>
+        <v>1.173554690467977</v>
       </c>
       <c r="T12">
-        <v>2.65898380111584</v>
+        <v>1.237911934437685</v>
       </c>
       <c r="U12">
-        <v>2.252210223093848</v>
+        <v>1.203250465361782</v>
       </c>
       <c r="V12">
-        <v>1.849811093619257</v>
+        <v>1.221067930298065</v>
       </c>
       <c r="W12">
-        <v>1.394455510640559</v>
+        <v>1.130280780770396</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-6.495477200630874E-05</v>
+        <v>0.4257587043900164</v>
       </c>
       <c r="D13">
-        <v>0.4776134271255647</v>
+        <v>1.568933100568296</v>
       </c>
       <c r="E13">
-        <v>0.2407556825720928</v>
+        <v>1.934142675773471</v>
       </c>
       <c r="F13">
-        <v>-6.495477200630874E-05</v>
+        <v>0.4257587043900164</v>
       </c>
       <c r="G13">
-        <v>-0.0003113697009199246</v>
+        <v>3.260855386546318</v>
       </c>
       <c r="H13">
-        <v>-0.0003113697009666391</v>
+        <v>3.260855386547894</v>
       </c>
       <c r="I13">
-        <v>-0.0003113697009666391</v>
+        <v>3.260855386547894</v>
       </c>
       <c r="J13">
-        <v>1.717593411598698</v>
+        <v>1.6350075898527</v>
       </c>
       <c r="K13">
-        <v>0.9855229993493944</v>
+        <v>1.706330864145686</v>
       </c>
       <c r="L13">
-        <v>1.688939989499504</v>
+        <v>1.844063070746551</v>
       </c>
       <c r="M13">
-        <v>0.9607155705145068</v>
+        <v>1.317570904442045</v>
       </c>
       <c r="N13">
-        <v>-0.0003113697009666391</v>
+        <v>3.260855386547894</v>
       </c>
       <c r="O13">
-        <v>0.2407556825720928</v>
+        <v>1.934142675773471</v>
       </c>
       <c r="P13">
-        <v>0.1203453639000433</v>
+        <v>1.179950690081744</v>
       </c>
       <c r="Q13">
-        <v>0.9791745470853953</v>
+        <v>1.784575132813086</v>
       </c>
       <c r="R13">
-        <v>0.08012645269970663</v>
+        <v>1.873585588903794</v>
       </c>
       <c r="S13">
-        <v>0.6527613797995947</v>
+        <v>1.331636323338729</v>
       </c>
       <c r="T13">
-        <v>0.08012645269970663</v>
+        <v>1.873585588903794</v>
       </c>
       <c r="U13">
-        <v>0.4894931924244544</v>
+        <v>1.813941089141021</v>
       </c>
       <c r="V13">
-        <v>0.3915322799993702</v>
+        <v>2.103323948622395</v>
       </c>
       <c r="W13">
-        <v>0.7588455945233485</v>
+        <v>1.711582787058333</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0008902999245786065</v>
+        <v>2.017213340711205</v>
       </c>
       <c r="D14">
-        <v>1.618634134740093</v>
+        <v>0.7262959804314789</v>
       </c>
       <c r="E14">
-        <v>0.001759181932168311</v>
+        <v>3.4875648733263</v>
       </c>
       <c r="F14">
-        <v>-0.0008902999245786065</v>
+        <v>2.017213340711205</v>
       </c>
       <c r="G14">
-        <v>-0.0007078795867205206</v>
+        <v>3.94028915121396</v>
       </c>
       <c r="H14">
-        <v>-0.0007078795867205206</v>
+        <v>3.940289151213121</v>
       </c>
       <c r="I14">
-        <v>-0.0007078795867205206</v>
+        <v>3.940289151213121</v>
       </c>
       <c r="J14">
-        <v>0.02167873897790513</v>
+        <v>2.283860956782971</v>
       </c>
       <c r="K14">
-        <v>-0.001479546310663426</v>
+        <v>0.5300260787556669</v>
       </c>
       <c r="L14">
-        <v>4.048563920433525</v>
+        <v>3.183039930650906</v>
       </c>
       <c r="M14">
-        <v>2.089197074806371</v>
+        <v>0.7502389465417605</v>
       </c>
       <c r="N14">
-        <v>-0.0007078795867205206</v>
+        <v>3.940289151213121</v>
       </c>
       <c r="O14">
-        <v>0.001759181932168311</v>
+        <v>3.4875648733263</v>
       </c>
       <c r="P14">
-        <v>0.0004344410037948523</v>
+        <v>2.752389107018753</v>
       </c>
       <c r="Q14">
-        <v>0.01171896045503672</v>
+        <v>2.885712915054636</v>
       </c>
       <c r="R14">
-        <v>5.366747362306135E-05</v>
+        <v>3.148355788416875</v>
       </c>
       <c r="S14">
-        <v>0.007515873661831612</v>
+        <v>2.596213056940159</v>
       </c>
       <c r="T14">
-        <v>5.366747362306135E-05</v>
+        <v>3.148355788416875</v>
       </c>
       <c r="U14">
-        <v>0.005459935349693579</v>
+        <v>2.932232080508399</v>
       </c>
       <c r="V14">
-        <v>0.004226372362410758</v>
+        <v>3.133843494649343</v>
       </c>
       <c r="W14">
-        <v>0.9720944156335125</v>
+        <v>2.114816157301676</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>6.293782320883294</v>
+        <v>1.422661252425824</v>
       </c>
       <c r="D15">
-        <v>0.6547557923070556</v>
+        <v>0.9440892187165776</v>
       </c>
       <c r="E15">
-        <v>1.827441551796372</v>
+        <v>1.37029002550875</v>
       </c>
       <c r="F15">
-        <v>6.293782320883294</v>
+        <v>1.422661252425824</v>
       </c>
       <c r="G15">
-        <v>0.7542481882576328</v>
+        <v>1.527910351012994</v>
       </c>
       <c r="H15">
-        <v>0.7542481882576304</v>
+        <v>1.527910351013502</v>
       </c>
       <c r="I15">
-        <v>0.7542481882576304</v>
+        <v>1.527910351013502</v>
       </c>
       <c r="J15">
-        <v>0.1104950233091275</v>
+        <v>1.156516396342582</v>
       </c>
       <c r="K15">
-        <v>2.266937972922715</v>
+        <v>1.09658635125702</v>
       </c>
       <c r="L15">
-        <v>0.0006869477132776931</v>
+        <v>1.158516425277809</v>
       </c>
       <c r="M15">
-        <v>1.48290195909784</v>
+        <v>1.130976564992927</v>
       </c>
       <c r="N15">
-        <v>0.7542481882576304</v>
+        <v>1.527910351013502</v>
       </c>
       <c r="O15">
-        <v>1.827441551796372</v>
+        <v>1.37029002550875</v>
       </c>
       <c r="P15">
-        <v>4.060611936339833</v>
+        <v>1.396475638967287</v>
       </c>
       <c r="Q15">
-        <v>0.9689682875527498</v>
+        <v>1.263403210925666</v>
       </c>
       <c r="R15">
-        <v>2.958490686979099</v>
+        <v>1.440287209649358</v>
       </c>
       <c r="S15">
-        <v>2.743906298662931</v>
+        <v>1.316489224759052</v>
       </c>
       <c r="T15">
-        <v>2.958490686979099</v>
+        <v>1.440287209649358</v>
       </c>
       <c r="U15">
-        <v>2.246491771061606</v>
+        <v>1.369344506322664</v>
       </c>
       <c r="V15">
-        <v>1.948043054500811</v>
+        <v>1.401057675260832</v>
       </c>
       <c r="W15">
-        <v>1.673906219535914</v>
+        <v>1.225943323191874</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.887882296627901</v>
+        <v>1.563685135483127</v>
       </c>
       <c r="D16">
-        <v>0.2354369054151948</v>
+        <v>0.8798935545742522</v>
       </c>
       <c r="E16">
-        <v>3.972286963837162</v>
+        <v>1.437519589998957</v>
       </c>
       <c r="F16">
-        <v>5.887882296627901</v>
+        <v>1.563685135483127</v>
       </c>
       <c r="G16">
-        <v>8.718901519122554</v>
+        <v>2.398170418238369</v>
       </c>
       <c r="H16">
-        <v>8.718901519122266</v>
+        <v>2.398170418239275</v>
       </c>
       <c r="I16">
-        <v>8.718901519122266</v>
+        <v>2.398170418239275</v>
       </c>
       <c r="J16">
-        <v>3.052663480476966</v>
+        <v>1.425712245827338</v>
       </c>
       <c r="K16">
-        <v>2.881285049141006</v>
+        <v>1.36195913335645</v>
       </c>
       <c r="L16">
-        <v>3.064276872841281</v>
+        <v>1.310389589932087</v>
       </c>
       <c r="M16">
-        <v>2.986913289990894</v>
+        <v>1.35446842580663</v>
       </c>
       <c r="N16">
-        <v>8.718901519122266</v>
+        <v>2.398170418239275</v>
       </c>
       <c r="O16">
-        <v>3.972286963837162</v>
+        <v>1.437519589998957</v>
       </c>
       <c r="P16">
-        <v>4.930084630232532</v>
+        <v>1.500602362741042</v>
       </c>
       <c r="Q16">
-        <v>3.512475222157064</v>
+        <v>1.431615917913148</v>
       </c>
       <c r="R16">
-        <v>6.193023593195776</v>
+        <v>1.799791714573787</v>
       </c>
       <c r="S16">
-        <v>4.30427758031401</v>
+        <v>1.475638990436474</v>
       </c>
       <c r="T16">
-        <v>6.193023593195775</v>
+        <v>1.799791714573787</v>
       </c>
       <c r="U16">
-        <v>5.407933565016073</v>
+        <v>1.706271847387174</v>
       </c>
       <c r="V16">
-        <v>6.070127155837311</v>
+        <v>1.844651561557594</v>
       </c>
       <c r="W16">
-        <v>3.849955797181583</v>
+        <v>1.466474761652264</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.222431283822477</v>
+        <v>0.7689901981840218</v>
       </c>
       <c r="D17">
-        <v>0.4718511218366936</v>
+        <v>0.6325400855383384</v>
       </c>
       <c r="E17">
-        <v>4.235551124199104</v>
+        <v>1.882022256273875</v>
       </c>
       <c r="F17">
-        <v>4.222431283822477</v>
+        <v>0.7689901981840218</v>
       </c>
       <c r="G17">
-        <v>6.135647745414686</v>
+        <v>5.735588947634778</v>
       </c>
       <c r="H17">
-        <v>6.135647745414616</v>
+        <v>5.735588947634973</v>
       </c>
       <c r="I17">
-        <v>6.135647745414616</v>
+        <v>5.735588947634973</v>
       </c>
       <c r="J17">
-        <v>2.336894133246836</v>
+        <v>2.318758879323132</v>
       </c>
       <c r="K17">
-        <v>2.281019118613665</v>
+        <v>1.826229911306863</v>
       </c>
       <c r="L17">
-        <v>2.373453675080025</v>
+        <v>2.661312642370365</v>
       </c>
       <c r="M17">
-        <v>2.280689111113246</v>
+        <v>2.424283577873369</v>
       </c>
       <c r="N17">
-        <v>6.135647745414616</v>
+        <v>5.735588947634973</v>
       </c>
       <c r="O17">
-        <v>4.235551124199104</v>
+        <v>1.882022256273875</v>
       </c>
       <c r="P17">
-        <v>4.228991204010791</v>
+        <v>1.325506227228948</v>
       </c>
       <c r="Q17">
-        <v>3.28622262872297</v>
+        <v>2.100390567798503</v>
       </c>
       <c r="R17">
-        <v>4.864543384478733</v>
+        <v>2.795533800697623</v>
       </c>
       <c r="S17">
-        <v>3.598292180422806</v>
+        <v>1.656590444593676</v>
       </c>
       <c r="T17">
-        <v>4.864543384478733</v>
+        <v>2.795533800697623</v>
       </c>
       <c r="U17">
-        <v>4.232631071670759</v>
+        <v>2.676340070354001</v>
       </c>
       <c r="V17">
-        <v>4.61323440641953</v>
+        <v>3.288189845810195</v>
       </c>
       <c r="W17">
-        <v>3.042192164165833</v>
+        <v>2.281215812313117</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.4848198303291671</v>
+        <v>0.9477222617543412</v>
       </c>
       <c r="D18">
-        <v>0.8374866791152914</v>
+        <v>1.02796245169435</v>
       </c>
       <c r="E18">
-        <v>4.801275224234304</v>
+        <v>3.127168259551774</v>
       </c>
       <c r="F18">
-        <v>0.4848198303291671</v>
+        <v>0.9477222617543412</v>
       </c>
       <c r="G18">
-        <v>1.223987864361009</v>
+        <v>6.715720029732825</v>
       </c>
       <c r="H18">
-        <v>1.223987864361251</v>
+        <v>6.715720029732433</v>
       </c>
       <c r="I18">
-        <v>1.223987864361251</v>
+        <v>6.715720029732433</v>
       </c>
       <c r="J18">
-        <v>0.8070556033615144</v>
+        <v>2.562834543345007</v>
       </c>
       <c r="K18">
-        <v>1.335768121824824</v>
+        <v>0.5900055710210591</v>
       </c>
       <c r="L18">
-        <v>1.245683681511106</v>
+        <v>2.212591745177018</v>
       </c>
       <c r="M18">
-        <v>0.8946606680724258</v>
+        <v>0.4103099366559586</v>
       </c>
       <c r="N18">
-        <v>1.223987864361251</v>
+        <v>6.715720029732433</v>
       </c>
       <c r="O18">
-        <v>4.801275224234304</v>
+        <v>3.127168259551774</v>
       </c>
       <c r="P18">
-        <v>2.643047527281736</v>
+        <v>2.037445260653058</v>
       </c>
       <c r="Q18">
-        <v>2.80416541379791</v>
+        <v>2.845001401448391</v>
       </c>
       <c r="R18">
-        <v>2.170027639641574</v>
+        <v>3.596870183679516</v>
       </c>
       <c r="S18">
-        <v>2.031050219308329</v>
+        <v>2.212575021550375</v>
       </c>
       <c r="T18">
-        <v>2.170027639641574</v>
+        <v>3.596870183679516</v>
       </c>
       <c r="U18">
-        <v>1.829284630571559</v>
+        <v>3.338361273595889</v>
       </c>
       <c r="V18">
-        <v>1.708225277329497</v>
+        <v>4.013833024823198</v>
       </c>
       <c r="W18">
-        <v>1.453842209101236</v>
+        <v>2.199289349866492</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.4137942044506255</v>
+        <v>1.073127310326628</v>
       </c>
       <c r="D19">
-        <v>1.052118943478877</v>
+        <v>1.012572244393734</v>
       </c>
       <c r="E19">
-        <v>7.018564716869493</v>
+        <v>1.137013115978419</v>
       </c>
       <c r="F19">
-        <v>0.4137942044506255</v>
+        <v>1.073127310326628</v>
       </c>
       <c r="G19">
-        <v>0.5486931741750724</v>
+        <v>1.080837186518161</v>
       </c>
       <c r="H19">
-        <v>0.5486931741743863</v>
+        <v>1.080837186518791</v>
       </c>
       <c r="I19">
-        <v>0.5486931741743863</v>
+        <v>1.080837186518791</v>
       </c>
       <c r="J19">
-        <v>0.7150354663470115</v>
+        <v>1.049281055066483</v>
       </c>
       <c r="K19">
-        <v>1.21908453635959</v>
+        <v>1.01605632544314</v>
       </c>
       <c r="L19">
-        <v>0.8207120590007432</v>
+        <v>1.055877896386286</v>
       </c>
       <c r="M19">
-        <v>0.7853200193861009</v>
+        <v>1.025303119728608</v>
       </c>
       <c r="N19">
-        <v>0.5486931741743863</v>
+        <v>1.080837186518791</v>
       </c>
       <c r="O19">
-        <v>7.018564716869493</v>
+        <v>1.137013115978419</v>
       </c>
       <c r="P19">
-        <v>3.716179460660059</v>
+        <v>1.105070213152523</v>
       </c>
       <c r="Q19">
-        <v>3.866800091608252</v>
+        <v>1.093147085522451</v>
       </c>
       <c r="R19">
-        <v>2.660350698498168</v>
+        <v>1.096992537607946</v>
       </c>
       <c r="S19">
-        <v>2.715798129222377</v>
+        <v>1.086473827123843</v>
       </c>
       <c r="T19">
-        <v>2.660350698498168</v>
+        <v>1.096992537607946</v>
       </c>
       <c r="U19">
-        <v>2.174021890460379</v>
+        <v>1.08506466697258</v>
       </c>
       <c r="V19">
-        <v>1.848956147203181</v>
+        <v>1.084219170881822</v>
       </c>
       <c r="W19">
-        <v>1.571665390008353</v>
+        <v>1.056258531730261</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.156020288630276</v>
+        <v>1.076232207234717</v>
       </c>
       <c r="D20">
-        <v>1.010999416481301</v>
+        <v>1.000586853858469</v>
       </c>
       <c r="E20">
-        <v>1.1024281192521</v>
+        <v>1.23542488510193</v>
       </c>
       <c r="F20">
-        <v>1.156020288630276</v>
+        <v>1.076232207234717</v>
       </c>
       <c r="G20">
-        <v>1.10075972371014</v>
+        <v>1.093490359155039</v>
       </c>
       <c r="H20">
-        <v>1.100759723710771</v>
+        <v>1.09349035915566</v>
       </c>
       <c r="I20">
-        <v>1.100759723710771</v>
+        <v>1.09349035915566</v>
       </c>
       <c r="J20">
-        <v>1.017354810249393</v>
+        <v>1.041117515094362</v>
       </c>
       <c r="K20">
-        <v>1.000854441214142</v>
+        <v>1.032836120848694</v>
       </c>
       <c r="L20">
-        <v>1.021881115656392</v>
+        <v>1.085967077970077</v>
       </c>
       <c r="M20">
-        <v>1.009788987700918</v>
+        <v>1.028404716262462</v>
       </c>
       <c r="N20">
-        <v>1.100759723710771</v>
+        <v>1.09349035915566</v>
       </c>
       <c r="O20">
-        <v>1.1024281192521</v>
+        <v>1.23542488510193</v>
       </c>
       <c r="P20">
-        <v>1.129224203941188</v>
+        <v>1.155828546168323</v>
       </c>
       <c r="Q20">
-        <v>1.059891464750747</v>
+        <v>1.138271200098146</v>
       </c>
       <c r="R20">
-        <v>1.119736043864383</v>
+        <v>1.135049150497436</v>
       </c>
       <c r="S20">
-        <v>1.091934406043923</v>
+        <v>1.117591535810336</v>
       </c>
       <c r="T20">
-        <v>1.119736043864383</v>
+        <v>1.135049150497436</v>
       </c>
       <c r="U20">
-        <v>1.094140735460635</v>
+        <v>1.111566241646667</v>
       </c>
       <c r="V20">
-        <v>1.095464533110662</v>
+        <v>1.107951065148466</v>
       </c>
       <c r="W20">
-        <v>1.052510862861912</v>
+        <v>1.074257466940796</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9242915791941786</v>
+        <v>0.9516178581799319</v>
       </c>
       <c r="D21">
-        <v>1.00659858926279</v>
+        <v>1.092901443416536</v>
       </c>
       <c r="E21">
-        <v>1.138681694095622</v>
+        <v>1.092080846198069</v>
       </c>
       <c r="F21">
-        <v>0.9242915791941786</v>
+        <v>0.9516178581799319</v>
       </c>
       <c r="G21">
-        <v>0.9676775840454893</v>
+        <v>1.124437602665267</v>
       </c>
       <c r="H21">
-        <v>0.9676775840462181</v>
+        <v>1.124437602665828</v>
       </c>
       <c r="I21">
-        <v>0.9676775840462181</v>
+        <v>1.124437602665828</v>
       </c>
       <c r="J21">
-        <v>1.053555294891265</v>
+        <v>1.047870713063783</v>
       </c>
       <c r="K21">
-        <v>1.029575373058367</v>
+        <v>0.9897645431886756</v>
       </c>
       <c r="L21">
-        <v>1.082419007774111</v>
+        <v>1.206061509780795</v>
       </c>
       <c r="M21">
-        <v>1.029224598203457</v>
+        <v>0.9624714853840372</v>
       </c>
       <c r="N21">
-        <v>0.9676775840462181</v>
+        <v>1.124437602665828</v>
       </c>
       <c r="O21">
-        <v>1.138681694095622</v>
+        <v>1.092080846198069</v>
       </c>
       <c r="P21">
-        <v>1.0314866366449</v>
+        <v>1.021849352189</v>
       </c>
       <c r="Q21">
-        <v>1.096118494493444</v>
+        <v>1.069975779630926</v>
       </c>
       <c r="R21">
-        <v>1.01021695244534</v>
+        <v>1.056045435681276</v>
       </c>
       <c r="S21">
-        <v>1.038842856060355</v>
+        <v>1.030523139147261</v>
       </c>
       <c r="T21">
-        <v>1.01021695244534</v>
+        <v>1.056045435681276</v>
       </c>
       <c r="U21">
-        <v>1.021051538056821</v>
+        <v>1.054001755026903</v>
       </c>
       <c r="V21">
-        <v>1.0103767472547</v>
+        <v>1.068088924554688</v>
       </c>
       <c r="W21">
-        <v>1.029002965065751</v>
+        <v>1.058400750234707</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.842701292079458</v>
+        <v>0.9814113664025892</v>
       </c>
       <c r="D22">
-        <v>1.044604518135091</v>
+        <v>0.9696125769628766</v>
       </c>
       <c r="E22">
-        <v>1.556058851878036</v>
+        <v>1.524550038649736</v>
       </c>
       <c r="F22">
-        <v>0.842701292079458</v>
+        <v>0.9814113664025892</v>
       </c>
       <c r="G22">
-        <v>1.49156796377664</v>
+        <v>1.489486920013063</v>
       </c>
       <c r="H22">
-        <v>1.491567963776999</v>
+        <v>1.489486920013744</v>
       </c>
       <c r="I22">
-        <v>1.491567963776999</v>
+        <v>1.489486920013744</v>
       </c>
       <c r="J22">
-        <v>1.789969616954987</v>
+        <v>1.269339039741807</v>
       </c>
       <c r="K22">
-        <v>1.25357891747546</v>
+        <v>1.127306509973417</v>
       </c>
       <c r="L22">
-        <v>1.637720466302097</v>
+        <v>1.374832016110116</v>
       </c>
       <c r="M22">
-        <v>1.359222632943781</v>
+        <v>1.230998440078814</v>
       </c>
       <c r="N22">
-        <v>1.491567963776999</v>
+        <v>1.489486920013744</v>
       </c>
       <c r="O22">
-        <v>1.556058851878036</v>
+        <v>1.524550038649736</v>
       </c>
       <c r="P22">
-        <v>1.199380071978747</v>
+        <v>1.252980702526163</v>
       </c>
       <c r="Q22">
-        <v>1.673014234416511</v>
+        <v>1.396944539195771</v>
       </c>
       <c r="R22">
-        <v>1.296776035911497</v>
+        <v>1.331816108355357</v>
       </c>
       <c r="S22">
-        <v>1.396243253637494</v>
+        <v>1.258433481598044</v>
       </c>
       <c r="T22">
-        <v>1.296776035911497</v>
+        <v>1.331816108355357</v>
       </c>
       <c r="U22">
-        <v>1.42007443117237</v>
+        <v>1.316196841201969</v>
       </c>
       <c r="V22">
-        <v>1.434373137693296</v>
+        <v>1.350854856964324</v>
       </c>
       <c r="W22">
-        <v>1.371928032443239</v>
+        <v>1.245942113491638</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.2052465750224286</v>
+      </c>
+      <c r="D23">
+        <v>0.97060009788047</v>
+      </c>
+      <c r="E23">
+        <v>2.302742249943646</v>
+      </c>
+      <c r="F23">
+        <v>0.2052465750224286</v>
+      </c>
+      <c r="G23">
+        <v>0.7320982460134513</v>
+      </c>
+      <c r="H23">
+        <v>0.7320982460135993</v>
+      </c>
+      <c r="I23">
+        <v>0.7320982460135993</v>
+      </c>
+      <c r="J23">
+        <v>0.8702147614664912</v>
+      </c>
+      <c r="K23">
+        <v>0.901491717995856</v>
+      </c>
+      <c r="L23">
+        <v>1.749737855439947</v>
+      </c>
+      <c r="M23">
+        <v>1.004231651550592</v>
+      </c>
+      <c r="N23">
+        <v>0.7320982460135993</v>
+      </c>
+      <c r="O23">
+        <v>2.302742249943646</v>
+      </c>
+      <c r="P23">
+        <v>1.253994412483037</v>
+      </c>
+      <c r="Q23">
+        <v>1.586478505705069</v>
+      </c>
+      <c r="R23">
+        <v>1.080029023659891</v>
+      </c>
+      <c r="S23">
+        <v>1.126067862144189</v>
+      </c>
+      <c r="T23">
+        <v>1.080029023659891</v>
+      </c>
+      <c r="U23">
+        <v>1.027575458111541</v>
+      </c>
+      <c r="V23">
+        <v>0.9684800156919529</v>
+      </c>
+      <c r="W23">
+        <v>1.092045394414129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>7.73658349294782</v>
+      </c>
+      <c r="D24">
+        <v>0.4716841930581974</v>
+      </c>
+      <c r="E24">
+        <v>0.0001533346788089328</v>
+      </c>
+      <c r="F24">
+        <v>7.73658349294782</v>
+      </c>
+      <c r="G24">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="H24">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="I24">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="J24">
+        <v>1.031889489027874</v>
+      </c>
+      <c r="K24">
+        <v>0.149880501300373</v>
+      </c>
+      <c r="L24">
+        <v>1.12070183284987</v>
+      </c>
+      <c r="M24">
+        <v>0.4045366655406436</v>
+      </c>
+      <c r="N24">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="O24">
+        <v>0.0001533346788089328</v>
+      </c>
+      <c r="P24">
+        <v>3.868368413813315</v>
+      </c>
+      <c r="Q24">
+        <v>0.5160214118533413</v>
+      </c>
+      <c r="R24">
+        <v>2.65898380111584</v>
+      </c>
+      <c r="S24">
+        <v>2.922875438884834</v>
+      </c>
+      <c r="T24">
+        <v>2.65898380111584</v>
+      </c>
+      <c r="U24">
+        <v>2.252210223093848</v>
+      </c>
+      <c r="V24">
+        <v>1.849811093619257</v>
+      </c>
+      <c r="W24">
+        <v>1.394455510640559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>-6.495477200630874E-05</v>
+      </c>
+      <c r="D25">
+        <v>0.4776134271255647</v>
+      </c>
+      <c r="E25">
+        <v>0.2407556825720928</v>
+      </c>
+      <c r="F25">
+        <v>-6.495477200630874E-05</v>
+      </c>
+      <c r="G25">
+        <v>-0.0003113697009199246</v>
+      </c>
+      <c r="H25">
+        <v>-0.0003113697009666391</v>
+      </c>
+      <c r="I25">
+        <v>-0.0003113697009666391</v>
+      </c>
+      <c r="J25">
+        <v>1.717593411598698</v>
+      </c>
+      <c r="K25">
+        <v>0.9855229993493944</v>
+      </c>
+      <c r="L25">
+        <v>1.688939989499504</v>
+      </c>
+      <c r="M25">
+        <v>0.9607155705145068</v>
+      </c>
+      <c r="N25">
+        <v>-0.0003113697009666391</v>
+      </c>
+      <c r="O25">
+        <v>0.2407556825720928</v>
+      </c>
+      <c r="P25">
+        <v>0.1203453639000433</v>
+      </c>
+      <c r="Q25">
+        <v>0.9791745470853953</v>
+      </c>
+      <c r="R25">
+        <v>0.08012645269970663</v>
+      </c>
+      <c r="S25">
+        <v>0.6527613797995947</v>
+      </c>
+      <c r="T25">
+        <v>0.08012645269970663</v>
+      </c>
+      <c r="U25">
+        <v>0.4894931924244544</v>
+      </c>
+      <c r="V25">
+        <v>0.3915322799993702</v>
+      </c>
+      <c r="W25">
+        <v>0.7588455945233485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-0.0008902999245786065</v>
+      </c>
+      <c r="D26">
+        <v>1.618634134740093</v>
+      </c>
+      <c r="E26">
+        <v>0.001759181932168311</v>
+      </c>
+      <c r="F26">
+        <v>-0.0008902999245786065</v>
+      </c>
+      <c r="G26">
+        <v>-0.0007078795867205206</v>
+      </c>
+      <c r="H26">
+        <v>-0.0007078795867205206</v>
+      </c>
+      <c r="I26">
+        <v>-0.0007078795867205206</v>
+      </c>
+      <c r="J26">
+        <v>0.02167873897790513</v>
+      </c>
+      <c r="K26">
+        <v>-0.001479546310663426</v>
+      </c>
+      <c r="L26">
+        <v>4.048563920433525</v>
+      </c>
+      <c r="M26">
+        <v>2.089197074806371</v>
+      </c>
+      <c r="N26">
+        <v>-0.0007078795867205206</v>
+      </c>
+      <c r="O26">
+        <v>0.001759181932168311</v>
+      </c>
+      <c r="P26">
+        <v>0.0004344410037948523</v>
+      </c>
+      <c r="Q26">
+        <v>0.01171896045503672</v>
+      </c>
+      <c r="R26">
+        <v>5.366747362306135E-05</v>
+      </c>
+      <c r="S26">
+        <v>0.007515873661831612</v>
+      </c>
+      <c r="T26">
+        <v>5.366747362306135E-05</v>
+      </c>
+      <c r="U26">
+        <v>0.005459935349693579</v>
+      </c>
+      <c r="V26">
+        <v>0.004226372362410758</v>
+      </c>
+      <c r="W26">
+        <v>0.9720944156335125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>6.293782320883294</v>
+      </c>
+      <c r="D27">
+        <v>0.6547557923070556</v>
+      </c>
+      <c r="E27">
+        <v>1.827441551796372</v>
+      </c>
+      <c r="F27">
+        <v>6.293782320883294</v>
+      </c>
+      <c r="G27">
+        <v>0.7542481882576328</v>
+      </c>
+      <c r="H27">
+        <v>0.7542481882576304</v>
+      </c>
+      <c r="I27">
+        <v>0.7542481882576304</v>
+      </c>
+      <c r="J27">
+        <v>0.1104950233091275</v>
+      </c>
+      <c r="K27">
+        <v>2.266937972922715</v>
+      </c>
+      <c r="L27">
+        <v>0.0006869477132776931</v>
+      </c>
+      <c r="M27">
+        <v>1.48290195909784</v>
+      </c>
+      <c r="N27">
+        <v>0.7542481882576304</v>
+      </c>
+      <c r="O27">
+        <v>1.827441551796372</v>
+      </c>
+      <c r="P27">
+        <v>4.060611936339833</v>
+      </c>
+      <c r="Q27">
+        <v>0.9689682875527498</v>
+      </c>
+      <c r="R27">
+        <v>2.958490686979099</v>
+      </c>
+      <c r="S27">
+        <v>2.743906298662931</v>
+      </c>
+      <c r="T27">
+        <v>2.958490686979099</v>
+      </c>
+      <c r="U27">
+        <v>2.246491771061606</v>
+      </c>
+      <c r="V27">
+        <v>1.948043054500811</v>
+      </c>
+      <c r="W27">
+        <v>1.673906219535914</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>5.887882296627901</v>
+      </c>
+      <c r="D28">
+        <v>0.2354369054151948</v>
+      </c>
+      <c r="E28">
+        <v>3.972286963837162</v>
+      </c>
+      <c r="F28">
+        <v>5.887882296627901</v>
+      </c>
+      <c r="G28">
+        <v>8.718901519122554</v>
+      </c>
+      <c r="H28">
+        <v>8.718901519122266</v>
+      </c>
+      <c r="I28">
+        <v>8.718901519122266</v>
+      </c>
+      <c r="J28">
+        <v>3.052663480476966</v>
+      </c>
+      <c r="K28">
+        <v>2.881285049141006</v>
+      </c>
+      <c r="L28">
+        <v>3.064276872841281</v>
+      </c>
+      <c r="M28">
+        <v>2.986913289990894</v>
+      </c>
+      <c r="N28">
+        <v>8.718901519122266</v>
+      </c>
+      <c r="O28">
+        <v>3.972286963837162</v>
+      </c>
+      <c r="P28">
+        <v>4.930084630232532</v>
+      </c>
+      <c r="Q28">
+        <v>3.512475222157064</v>
+      </c>
+      <c r="R28">
+        <v>6.193023593195776</v>
+      </c>
+      <c r="S28">
+        <v>4.30427758031401</v>
+      </c>
+      <c r="T28">
+        <v>6.193023593195775</v>
+      </c>
+      <c r="U28">
+        <v>5.407933565016073</v>
+      </c>
+      <c r="V28">
+        <v>6.070127155837311</v>
+      </c>
+      <c r="W28">
+        <v>3.849955797181583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>4.222431283822477</v>
+      </c>
+      <c r="D29">
+        <v>0.4718511218366936</v>
+      </c>
+      <c r="E29">
+        <v>4.235551124199104</v>
+      </c>
+      <c r="F29">
+        <v>4.222431283822477</v>
+      </c>
+      <c r="G29">
+        <v>6.135647745414686</v>
+      </c>
+      <c r="H29">
+        <v>6.135647745414616</v>
+      </c>
+      <c r="I29">
+        <v>6.135647745414616</v>
+      </c>
+      <c r="J29">
+        <v>2.336894133246836</v>
+      </c>
+      <c r="K29">
+        <v>2.281019118613665</v>
+      </c>
+      <c r="L29">
+        <v>2.373453675080025</v>
+      </c>
+      <c r="M29">
+        <v>2.280689111113246</v>
+      </c>
+      <c r="N29">
+        <v>6.135647745414616</v>
+      </c>
+      <c r="O29">
+        <v>4.235551124199104</v>
+      </c>
+      <c r="P29">
+        <v>4.228991204010791</v>
+      </c>
+      <c r="Q29">
+        <v>3.28622262872297</v>
+      </c>
+      <c r="R29">
+        <v>4.864543384478733</v>
+      </c>
+      <c r="S29">
+        <v>3.598292180422806</v>
+      </c>
+      <c r="T29">
+        <v>4.864543384478733</v>
+      </c>
+      <c r="U29">
+        <v>4.232631071670759</v>
+      </c>
+      <c r="V29">
+        <v>4.61323440641953</v>
+      </c>
+      <c r="W29">
+        <v>3.042192164165833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.4848198303291671</v>
+      </c>
+      <c r="D30">
+        <v>0.8374866791152914</v>
+      </c>
+      <c r="E30">
+        <v>4.801275224234304</v>
+      </c>
+      <c r="F30">
+        <v>0.4848198303291671</v>
+      </c>
+      <c r="G30">
+        <v>1.223987864361009</v>
+      </c>
+      <c r="H30">
+        <v>1.223987864361251</v>
+      </c>
+      <c r="I30">
+        <v>1.223987864361251</v>
+      </c>
+      <c r="J30">
+        <v>0.8070556033615144</v>
+      </c>
+      <c r="K30">
+        <v>1.335768121824824</v>
+      </c>
+      <c r="L30">
+        <v>1.245683681511106</v>
+      </c>
+      <c r="M30">
+        <v>0.8946606680724258</v>
+      </c>
+      <c r="N30">
+        <v>1.223987864361251</v>
+      </c>
+      <c r="O30">
+        <v>4.801275224234304</v>
+      </c>
+      <c r="P30">
+        <v>2.643047527281736</v>
+      </c>
+      <c r="Q30">
+        <v>2.80416541379791</v>
+      </c>
+      <c r="R30">
+        <v>2.170027639641574</v>
+      </c>
+      <c r="S30">
+        <v>2.031050219308329</v>
+      </c>
+      <c r="T30">
+        <v>2.170027639641574</v>
+      </c>
+      <c r="U30">
+        <v>1.829284630571559</v>
+      </c>
+      <c r="V30">
+        <v>1.708225277329497</v>
+      </c>
+      <c r="W30">
+        <v>1.453842209101236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.4137942044506255</v>
+      </c>
+      <c r="D31">
+        <v>1.052118943478877</v>
+      </c>
+      <c r="E31">
+        <v>7.018564716869493</v>
+      </c>
+      <c r="F31">
+        <v>0.4137942044506255</v>
+      </c>
+      <c r="G31">
+        <v>0.5486931741750724</v>
+      </c>
+      <c r="H31">
+        <v>0.5486931741743863</v>
+      </c>
+      <c r="I31">
+        <v>0.5486931741743863</v>
+      </c>
+      <c r="J31">
+        <v>0.7150354663470115</v>
+      </c>
+      <c r="K31">
+        <v>1.21908453635959</v>
+      </c>
+      <c r="L31">
+        <v>0.8207120590007432</v>
+      </c>
+      <c r="M31">
+        <v>0.7853200193861009</v>
+      </c>
+      <c r="N31">
+        <v>0.5486931741743863</v>
+      </c>
+      <c r="O31">
+        <v>7.018564716869493</v>
+      </c>
+      <c r="P31">
+        <v>3.716179460660059</v>
+      </c>
+      <c r="Q31">
+        <v>3.866800091608252</v>
+      </c>
+      <c r="R31">
+        <v>2.660350698498168</v>
+      </c>
+      <c r="S31">
+        <v>2.715798129222377</v>
+      </c>
+      <c r="T31">
+        <v>2.660350698498168</v>
+      </c>
+      <c r="U31">
+        <v>2.174021890460379</v>
+      </c>
+      <c r="V31">
+        <v>1.848956147203181</v>
+      </c>
+      <c r="W31">
+        <v>1.571665390008353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>7.44790377932507</v>
+      </c>
+      <c r="D32">
+        <v>-0.001431498169041096</v>
+      </c>
+      <c r="E32">
+        <v>3.723887617591233</v>
+      </c>
+      <c r="F32">
+        <v>7.44790377932507</v>
+      </c>
+      <c r="G32">
+        <v>11.14439964266685</v>
+      </c>
+      <c r="H32">
+        <v>11.1443996426663</v>
+      </c>
+      <c r="I32">
+        <v>11.1443996426663</v>
+      </c>
+      <c r="J32">
+        <v>3.715633884749862</v>
+      </c>
+      <c r="K32">
+        <v>3.432719162305481</v>
+      </c>
+      <c r="L32">
+        <v>4.543554270116712</v>
+      </c>
+      <c r="M32">
+        <v>3.641202638158905</v>
+      </c>
+      <c r="N32">
+        <v>11.1443996426663</v>
+      </c>
+      <c r="O32">
+        <v>3.723887617591233</v>
+      </c>
+      <c r="P32">
+        <v>5.585895698458152</v>
+      </c>
+      <c r="Q32">
+        <v>3.719760751170548</v>
+      </c>
+      <c r="R32">
+        <v>7.438730346527534</v>
+      </c>
+      <c r="S32">
+        <v>4.962475093888721</v>
+      </c>
+      <c r="T32">
+        <v>7.438730346527534</v>
+      </c>
+      <c r="U32">
+        <v>6.507956231083116</v>
+      </c>
+      <c r="V32">
+        <v>7.435244913399752</v>
+      </c>
+      <c r="W32">
+        <v>4.705983687093065</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.000392871033052631</v>
+      </c>
+      <c r="D33">
+        <v>3.505247886911578</v>
+      </c>
+      <c r="E33">
+        <v>6.779364075842111</v>
+      </c>
+      <c r="F33">
+        <v>0.000392871033052631</v>
+      </c>
+      <c r="G33">
+        <v>10.16303285720053</v>
+      </c>
+      <c r="H33">
+        <v>10.16303285720053</v>
+      </c>
+      <c r="I33">
+        <v>10.16303285720053</v>
+      </c>
+      <c r="J33">
+        <v>3.34494036104579</v>
+      </c>
+      <c r="K33">
+        <v>-0.001239729908157892</v>
+      </c>
+      <c r="L33">
+        <v>0.001688891236842106</v>
+      </c>
+      <c r="M33">
+        <v>0.002659866528947368</v>
+      </c>
+      <c r="N33">
+        <v>10.16303285720053</v>
+      </c>
+      <c r="O33">
+        <v>6.779364075842111</v>
+      </c>
+      <c r="P33">
+        <v>3.389878473437582</v>
+      </c>
+      <c r="Q33">
+        <v>5.06215221844395</v>
+      </c>
+      <c r="R33">
+        <v>5.647596601358562</v>
+      </c>
+      <c r="S33">
+        <v>3.374899102640318</v>
+      </c>
+      <c r="T33">
+        <v>5.647596601358564</v>
+      </c>
+      <c r="U33">
+        <v>5.07193254128037</v>
+      </c>
+      <c r="V33">
+        <v>6.090152604464402</v>
+      </c>
+      <c r="W33">
+        <v>2.974510884986336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.007059826627368421</v>
+      </c>
+      <c r="D34">
+        <v>0.0002176366999999996</v>
+      </c>
+      <c r="E34">
+        <v>13.95229603842106</v>
+      </c>
+      <c r="F34">
+        <v>0.007059826627368421</v>
+      </c>
+      <c r="G34">
+        <v>0.008372614447368422</v>
+      </c>
+      <c r="H34">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="I34">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="J34">
+        <v>-0.004860329194736841</v>
+      </c>
+      <c r="K34">
+        <v>0.01755527272105263</v>
+      </c>
+      <c r="L34">
+        <v>6.9789763701</v>
+      </c>
+      <c r="M34">
+        <v>-9.935083421052625E-05</v>
+      </c>
+      <c r="N34">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="O34">
+        <v>13.95229603842106</v>
+      </c>
+      <c r="P34">
+        <v>6.979677932524214</v>
+      </c>
+      <c r="Q34">
+        <v>6.973717854613161</v>
+      </c>
+      <c r="R34">
+        <v>4.655909493163511</v>
+      </c>
+      <c r="S34">
+        <v>4.651498511951231</v>
+      </c>
+      <c r="T34">
+        <v>4.65590949316351</v>
+      </c>
+      <c r="U34">
+        <v>3.490717037573949</v>
+      </c>
+      <c r="V34">
+        <v>2.79424815294758</v>
+      </c>
+      <c r="W34">
+        <v>2.61993975987283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.3521262617713204</v>
+      </c>
+      <c r="D35">
+        <v>0.4689412272420151</v>
+      </c>
+      <c r="E35">
+        <v>62.78066649011653</v>
+      </c>
+      <c r="F35">
+        <v>0.3521262617713204</v>
+      </c>
+      <c r="G35">
+        <v>0.490990722645736</v>
+      </c>
+      <c r="H35">
+        <v>0.4909907226459228</v>
+      </c>
+      <c r="I35">
+        <v>0.4909907226459228</v>
+      </c>
+      <c r="J35">
+        <v>0.4963378220151918</v>
+      </c>
+      <c r="K35">
+        <v>0.5334541768537414</v>
+      </c>
+      <c r="L35">
+        <v>0.4388592171430989</v>
+      </c>
+      <c r="M35">
+        <v>0.4238151340756698</v>
+      </c>
+      <c r="N35">
+        <v>0.4909907226459228</v>
+      </c>
+      <c r="O35">
+        <v>62.78066649011653</v>
+      </c>
+      <c r="P35">
+        <v>31.56639637594392</v>
+      </c>
+      <c r="Q35">
+        <v>31.63850215606586</v>
+      </c>
+      <c r="R35">
+        <v>21.20792782484459</v>
+      </c>
+      <c r="S35">
+        <v>21.20971019130101</v>
+      </c>
+      <c r="T35">
+        <v>21.20792782484459</v>
+      </c>
+      <c r="U35">
+        <v>16.03003032413724</v>
+      </c>
+      <c r="V35">
+        <v>12.92222240383898</v>
+      </c>
+      <c r="W35">
+        <v>8.248148881482937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.156020288630276</v>
+      </c>
+      <c r="D36">
+        <v>1.010999416481301</v>
+      </c>
+      <c r="E36">
+        <v>1.1024281192521</v>
+      </c>
+      <c r="F36">
+        <v>1.156020288630276</v>
+      </c>
+      <c r="G36">
+        <v>1.10075972371014</v>
+      </c>
+      <c r="H36">
+        <v>1.100759723710771</v>
+      </c>
+      <c r="I36">
+        <v>1.100759723710771</v>
+      </c>
+      <c r="J36">
+        <v>1.017354810249393</v>
+      </c>
+      <c r="K36">
+        <v>1.000854441214142</v>
+      </c>
+      <c r="L36">
+        <v>1.021881115656392</v>
+      </c>
+      <c r="M36">
+        <v>1.009788987700918</v>
+      </c>
+      <c r="N36">
+        <v>1.100759723710771</v>
+      </c>
+      <c r="O36">
+        <v>1.1024281192521</v>
+      </c>
+      <c r="P36">
+        <v>1.129224203941188</v>
+      </c>
+      <c r="Q36">
+        <v>1.059891464750747</v>
+      </c>
+      <c r="R36">
+        <v>1.119736043864383</v>
+      </c>
+      <c r="S36">
+        <v>1.091934406043923</v>
+      </c>
+      <c r="T36">
+        <v>1.119736043864383</v>
+      </c>
+      <c r="U36">
+        <v>1.094140735460635</v>
+      </c>
+      <c r="V36">
+        <v>1.095464533110662</v>
+      </c>
+      <c r="W36">
+        <v>1.052510862861912</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9242915791941786</v>
+      </c>
+      <c r="D37">
+        <v>1.00659858926279</v>
+      </c>
+      <c r="E37">
+        <v>1.138681694095622</v>
+      </c>
+      <c r="F37">
+        <v>0.9242915791941786</v>
+      </c>
+      <c r="G37">
+        <v>0.9676775840454893</v>
+      </c>
+      <c r="H37">
+        <v>0.9676775840462181</v>
+      </c>
+      <c r="I37">
+        <v>0.9676775840462181</v>
+      </c>
+      <c r="J37">
+        <v>1.053555294891265</v>
+      </c>
+      <c r="K37">
+        <v>1.029575373058367</v>
+      </c>
+      <c r="L37">
+        <v>1.082419007774111</v>
+      </c>
+      <c r="M37">
+        <v>1.029224598203457</v>
+      </c>
+      <c r="N37">
+        <v>0.9676775840462181</v>
+      </c>
+      <c r="O37">
+        <v>1.138681694095622</v>
+      </c>
+      <c r="P37">
+        <v>1.0314866366449</v>
+      </c>
+      <c r="Q37">
+        <v>1.096118494493444</v>
+      </c>
+      <c r="R37">
+        <v>1.01021695244534</v>
+      </c>
+      <c r="S37">
+        <v>1.038842856060355</v>
+      </c>
+      <c r="T37">
+        <v>1.01021695244534</v>
+      </c>
+      <c r="U37">
+        <v>1.021051538056821</v>
+      </c>
+      <c r="V37">
+        <v>1.0103767472547</v>
+      </c>
+      <c r="W37">
+        <v>1.029002965065751</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.842701292079458</v>
+      </c>
+      <c r="D38">
+        <v>1.044604518135091</v>
+      </c>
+      <c r="E38">
+        <v>1.556058851878036</v>
+      </c>
+      <c r="F38">
+        <v>0.842701292079458</v>
+      </c>
+      <c r="G38">
+        <v>1.49156796377664</v>
+      </c>
+      <c r="H38">
+        <v>1.491567963776999</v>
+      </c>
+      <c r="I38">
+        <v>1.491567963776999</v>
+      </c>
+      <c r="J38">
+        <v>1.789969616954987</v>
+      </c>
+      <c r="K38">
+        <v>1.25357891747546</v>
+      </c>
+      <c r="L38">
+        <v>1.637720466302097</v>
+      </c>
+      <c r="M38">
+        <v>1.359222632943781</v>
+      </c>
+      <c r="N38">
+        <v>1.491567963776999</v>
+      </c>
+      <c r="O38">
+        <v>1.556058851878036</v>
+      </c>
+      <c r="P38">
+        <v>1.199380071978747</v>
+      </c>
+      <c r="Q38">
+        <v>1.673014234416511</v>
+      </c>
+      <c r="R38">
+        <v>1.296776035911497</v>
+      </c>
+      <c r="S38">
+        <v>1.396243253637494</v>
+      </c>
+      <c r="T38">
+        <v>1.296776035911497</v>
+      </c>
+      <c r="U38">
+        <v>1.42007443117237</v>
+      </c>
+      <c r="V38">
+        <v>1.434373137693296</v>
+      </c>
+      <c r="W38">
+        <v>1.371928032443239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9432897633598424</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.8105831061660465</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>2.279114321940964</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9432897633598424</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>2.293671858345638</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>2.293671858345335</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>2.293671858345335</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.4888290514499138</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.302731461326176</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.407095258519091</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9860791330480219</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>2.293671858345335</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>2.279114321940964</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.611202042650403</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.383971686695439</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.838691981215381</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.23707771225024</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.838691981215381</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.501226248774014</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.659715370688278</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.313924244269424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8085310869635153</v>
+      </c>
+      <c r="D40">
+        <v>0.8850125133171022</v>
+      </c>
+      <c r="E40">
+        <v>1.039230107325232</v>
+      </c>
+      <c r="F40">
+        <v>0.8085310869635153</v>
+      </c>
+      <c r="G40">
+        <v>3.041361183394688</v>
+      </c>
+      <c r="H40">
+        <v>3.041361183396234</v>
+      </c>
+      <c r="I40">
+        <v>3.041361183396234</v>
+      </c>
+      <c r="J40">
+        <v>0.9157117210128545</v>
+      </c>
+      <c r="K40">
+        <v>0.9411169404031274</v>
+      </c>
+      <c r="L40">
+        <v>1.035967342217978</v>
+      </c>
+      <c r="M40">
+        <v>0.8047825115758784</v>
+      </c>
+      <c r="N40">
+        <v>3.041361183396234</v>
+      </c>
+      <c r="O40">
+        <v>1.039230107325232</v>
+      </c>
+      <c r="P40">
+        <v>0.9238805971443735</v>
+      </c>
+      <c r="Q40">
+        <v>0.9774709141690432</v>
+      </c>
+      <c r="R40">
+        <v>1.629707459228327</v>
+      </c>
+      <c r="S40">
+        <v>0.9211576384338672</v>
+      </c>
+      <c r="T40">
+        <v>1.629707459228327</v>
+      </c>
+      <c r="U40">
+        <v>1.451208524674459</v>
+      </c>
+      <c r="V40">
+        <v>1.769239056418814</v>
+      </c>
+      <c r="W40">
+        <v>1.18396417577649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.189988749058725</v>
+      </c>
+      <c r="D41">
+        <v>1.003507278909251</v>
+      </c>
+      <c r="E41">
+        <v>1.186261850908996</v>
+      </c>
+      <c r="F41">
+        <v>1.189988749058725</v>
+      </c>
+      <c r="G41">
+        <v>1.002872511170424</v>
+      </c>
+      <c r="H41">
+        <v>1.002872511171217</v>
+      </c>
+      <c r="I41">
+        <v>1.002872511171217</v>
+      </c>
+      <c r="J41">
+        <v>1.085847496878279</v>
+      </c>
+      <c r="K41">
+        <v>1.005772328730064</v>
+      </c>
+      <c r="L41">
+        <v>1.091739126063843</v>
+      </c>
+      <c r="M41">
+        <v>1.070746370791582</v>
+      </c>
+      <c r="N41">
+        <v>1.002872511171217</v>
+      </c>
+      <c r="O41">
+        <v>1.186261850908996</v>
+      </c>
+      <c r="P41">
+        <v>1.18812529998386</v>
+      </c>
+      <c r="Q41">
+        <v>1.136054673893638</v>
+      </c>
+      <c r="R41">
+        <v>1.126374370379646</v>
+      </c>
+      <c r="S41">
+        <v>1.154032698948667</v>
+      </c>
+      <c r="T41">
+        <v>1.126374370379646</v>
+      </c>
+      <c r="U41">
+        <v>1.116242652004304</v>
+      </c>
+      <c r="V41">
+        <v>1.093568623837687</v>
+      </c>
+      <c r="W41">
+        <v>1.079591964063995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.778706787795922</v>
+      </c>
+      <c r="D42">
+        <v>0.8892499412216385</v>
+      </c>
+      <c r="E42">
+        <v>1.09635743037991</v>
+      </c>
+      <c r="F42">
+        <v>0.778706787795922</v>
+      </c>
+      <c r="G42">
+        <v>3.078528565619196</v>
+      </c>
+      <c r="H42">
+        <v>3.078528565620335</v>
+      </c>
+      <c r="I42">
+        <v>3.078528565620335</v>
+      </c>
+      <c r="J42">
+        <v>0.9997979966525085</v>
+      </c>
+      <c r="K42">
+        <v>0.9037382362696774</v>
+      </c>
+      <c r="L42">
+        <v>0.9952597272352426</v>
+      </c>
+      <c r="M42">
+        <v>0.8344021596780218</v>
+      </c>
+      <c r="N42">
+        <v>3.078528565620335</v>
+      </c>
+      <c r="O42">
+        <v>1.09635743037991</v>
+      </c>
+      <c r="P42">
+        <v>0.9375321090879161</v>
+      </c>
+      <c r="Q42">
+        <v>1.048077713516209</v>
+      </c>
+      <c r="R42">
+        <v>1.651197594598722</v>
+      </c>
+      <c r="S42">
+        <v>0.9582874049427802</v>
+      </c>
+      <c r="T42">
+        <v>1.651197594598722</v>
+      </c>
+      <c r="U42">
+        <v>1.488347695112169</v>
+      </c>
+      <c r="V42">
+        <v>1.806383869213802</v>
+      </c>
+      <c r="W42">
+        <v>1.197005105606657</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.527910351013502</v>
+        <v>1.076232207234717</v>
       </c>
       <c r="D3">
-        <v>1.422661252425824</v>
+        <v>1.000586853858469</v>
       </c>
       <c r="E3">
-        <v>1.37029002550875</v>
+        <v>1.23542488510193</v>
       </c>
       <c r="F3">
-        <v>1.527910351013502</v>
+        <v>1.076232207234717</v>
       </c>
       <c r="G3">
-        <v>1.156516396342582</v>
+        <v>1.093490359155039</v>
       </c>
       <c r="H3">
-        <v>1.09658635125702</v>
+        <v>1.09349035915566</v>
       </c>
       <c r="I3">
-        <v>1.527910351012994</v>
+        <v>1.09349035915566</v>
       </c>
       <c r="J3">
-        <v>1.422661252425824</v>
+        <v>1.041117515094362</v>
       </c>
       <c r="K3">
-        <v>0.9440892187165776</v>
+        <v>1.032836120848694</v>
       </c>
       <c r="L3">
-        <v>1.158516425277809</v>
+        <v>1.085967077970077</v>
       </c>
       <c r="M3">
-        <v>1.130976564992927</v>
+        <v>1.028404716262462</v>
       </c>
       <c r="N3">
-        <v>1.527910351013502</v>
+        <v>1.09349035915566</v>
       </c>
       <c r="O3">
-        <v>1.37029002550875</v>
+        <v>1.23542488510193</v>
       </c>
       <c r="P3">
-        <v>1.396475638967287</v>
+        <v>1.155828546168323</v>
       </c>
       <c r="Q3">
-        <v>1.263403210925666</v>
+        <v>1.138271200098146</v>
       </c>
       <c r="R3">
-        <v>1.440287209649358</v>
+        <v>1.135049150497436</v>
       </c>
       <c r="S3">
-        <v>1.316489224759052</v>
+        <v>1.117591535810336</v>
       </c>
       <c r="T3">
-        <v>1.440287209649358</v>
+        <v>1.135049150497436</v>
       </c>
       <c r="U3">
-        <v>1.369344506322664</v>
+        <v>1.111566241646667</v>
       </c>
       <c r="V3">
-        <v>1.401057675260832</v>
+        <v>1.107951065148466</v>
       </c>
       <c r="W3">
-        <v>1.225943323191874</v>
+        <v>1.074257466940796</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.398170418239275</v>
+        <v>0.8085310869635153</v>
       </c>
       <c r="D4">
-        <v>1.563685135483127</v>
+        <v>0.8850125133171022</v>
       </c>
       <c r="E4">
-        <v>1.437519589998957</v>
+        <v>1.039230107325232</v>
       </c>
       <c r="F4">
-        <v>2.398170418239275</v>
+        <v>0.8085310869635153</v>
       </c>
       <c r="G4">
-        <v>1.425712245827338</v>
+        <v>3.041361183394688</v>
       </c>
       <c r="H4">
-        <v>1.36195913335645</v>
+        <v>3.041361183396234</v>
       </c>
       <c r="I4">
-        <v>2.398170418238369</v>
+        <v>3.041361183396234</v>
       </c>
       <c r="J4">
-        <v>1.563685135483127</v>
+        <v>0.9157117210128545</v>
       </c>
       <c r="K4">
-        <v>0.8798935545742522</v>
+        <v>0.9411169404031274</v>
       </c>
       <c r="L4">
-        <v>1.310389589932087</v>
+        <v>1.035967342217978</v>
       </c>
       <c r="M4">
-        <v>1.354468425806629</v>
+        <v>0.8047825115758784</v>
       </c>
       <c r="N4">
-        <v>2.398170418239275</v>
+        <v>3.041361183396234</v>
       </c>
       <c r="O4">
-        <v>1.437519589998957</v>
+        <v>1.039230107325232</v>
       </c>
       <c r="P4">
-        <v>1.500602362741042</v>
+        <v>0.9238805971443735</v>
       </c>
       <c r="Q4">
-        <v>1.431615917913148</v>
+        <v>0.9774709141690432</v>
       </c>
       <c r="R4">
-        <v>1.799791714573787</v>
+        <v>1.629707459228327</v>
       </c>
       <c r="S4">
-        <v>1.475638990436474</v>
+        <v>0.9211576384338672</v>
       </c>
       <c r="T4">
-        <v>1.799791714573787</v>
+        <v>1.629707459228327</v>
       </c>
       <c r="U4">
-        <v>1.706271847387174</v>
+        <v>1.451208524674459</v>
       </c>
       <c r="V4">
-        <v>1.844651561557594</v>
+        <v>1.769239056418814</v>
       </c>
       <c r="W4">
-        <v>1.466474761652264</v>
+        <v>1.18396417577649</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.735588947634973</v>
+        <v>1.009299393873708</v>
       </c>
       <c r="D5">
-        <v>0.7689901981840218</v>
+        <v>0.8884880414063108</v>
       </c>
       <c r="E5">
-        <v>1.882022256273875</v>
+        <v>7.655469779151606</v>
       </c>
       <c r="F5">
-        <v>5.735588947634973</v>
+        <v>1.009299393873708</v>
       </c>
       <c r="G5">
-        <v>2.318758879323132</v>
+        <v>1.167293839124023</v>
       </c>
       <c r="H5">
-        <v>1.826229911306863</v>
+        <v>1.167293839124324</v>
       </c>
       <c r="I5">
-        <v>5.735588947634778</v>
+        <v>1.167293839124324</v>
       </c>
       <c r="J5">
-        <v>0.7689901981840218</v>
+        <v>0.9368101695575413</v>
       </c>
       <c r="K5">
-        <v>0.6325400855383384</v>
+        <v>1.095708006156033</v>
       </c>
       <c r="L5">
-        <v>2.661312642370365</v>
+        <v>1.058581009847352</v>
       </c>
       <c r="M5">
-        <v>2.424283577873369</v>
+        <v>0.9001364229259686</v>
       </c>
       <c r="N5">
-        <v>5.735588947634973</v>
+        <v>1.167293839124324</v>
       </c>
       <c r="O5">
-        <v>1.882022256273875</v>
+        <v>7.655469779151606</v>
       </c>
       <c r="P5">
-        <v>1.325506227228948</v>
+        <v>4.332384586512657</v>
       </c>
       <c r="Q5">
-        <v>2.100390567798503</v>
+        <v>4.296139974354574</v>
       </c>
       <c r="R5">
-        <v>2.795533800697623</v>
+        <v>3.277354337383213</v>
       </c>
       <c r="S5">
-        <v>1.656590444593676</v>
+        <v>3.200526447527619</v>
       </c>
       <c r="T5">
-        <v>2.795533800697623</v>
+        <v>3.277354337383213</v>
       </c>
       <c r="U5">
-        <v>2.676340070354001</v>
+        <v>2.692218295426795</v>
       </c>
       <c r="V5">
-        <v>3.288189845810195</v>
+        <v>2.387233404166301</v>
       </c>
       <c r="W5">
-        <v>2.281215812313117</v>
+        <v>1.838973332755355</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.715720029732433</v>
+        <v>0.3521262617713204</v>
       </c>
       <c r="D6">
-        <v>0.9477222617543412</v>
+        <v>0.4689412272420151</v>
       </c>
       <c r="E6">
-        <v>3.127168259551774</v>
+        <v>62.78066649011653</v>
       </c>
       <c r="F6">
-        <v>6.715720029732433</v>
+        <v>0.3521262617713204</v>
       </c>
       <c r="G6">
-        <v>2.562834543345008</v>
+        <v>0.490990722645736</v>
       </c>
       <c r="H6">
-        <v>0.5900055710210589</v>
+        <v>0.4909907226459228</v>
       </c>
       <c r="I6">
-        <v>6.715720029732825</v>
+        <v>0.4909907226459228</v>
       </c>
       <c r="J6">
-        <v>0.9477222617543412</v>
+        <v>0.4963378220151918</v>
       </c>
       <c r="K6">
-        <v>1.02796245169435</v>
+        <v>0.5334541768537414</v>
       </c>
       <c r="L6">
-        <v>2.212591745177018</v>
+        <v>0.4388592171430989</v>
       </c>
       <c r="M6">
-        <v>0.4103099366559586</v>
+        <v>0.4238151340756698</v>
       </c>
       <c r="N6">
-        <v>6.715720029732433</v>
+        <v>0.4909907226459228</v>
       </c>
       <c r="O6">
-        <v>3.127168259551774</v>
+        <v>62.78066649011653</v>
       </c>
       <c r="P6">
-        <v>2.037445260653058</v>
+        <v>31.56639637594392</v>
       </c>
       <c r="Q6">
-        <v>2.845001401448391</v>
+        <v>31.63850215606586</v>
       </c>
       <c r="R6">
-        <v>3.596870183679516</v>
+        <v>21.20792782484459</v>
       </c>
       <c r="S6">
-        <v>2.212575021550375</v>
+        <v>21.20971019130101</v>
       </c>
       <c r="T6">
-        <v>3.596870183679516</v>
+        <v>21.20792782484459</v>
       </c>
       <c r="U6">
-        <v>3.338361273595889</v>
+        <v>16.03003032413724</v>
       </c>
       <c r="V6">
-        <v>4.013833024823198</v>
+        <v>12.92222240383898</v>
       </c>
       <c r="W6">
-        <v>2.199289349866492</v>
+        <v>8.248148881482937</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.080837186518792</v>
+        <v>1.328923842120323</v>
       </c>
       <c r="D7">
-        <v>1.073127310326625</v>
+        <v>0.9644027205501583</v>
       </c>
       <c r="E7">
-        <v>1.137013115978418</v>
+        <v>1.266467030223599</v>
       </c>
       <c r="F7">
-        <v>1.080837186518792</v>
+        <v>1.328923842120323</v>
       </c>
       <c r="G7">
-        <v>1.049281055066483</v>
+        <v>1.509157275242117</v>
       </c>
       <c r="H7">
-        <v>1.016056325443138</v>
+        <v>1.509157275242676</v>
       </c>
       <c r="I7">
-        <v>1.080837186518162</v>
+        <v>1.509157275242676</v>
       </c>
       <c r="J7">
-        <v>1.073127310326625</v>
+        <v>1.170696996513813</v>
       </c>
       <c r="K7">
-        <v>1.012572244393732</v>
+        <v>1.120169431886548</v>
       </c>
       <c r="L7">
-        <v>1.055877896386287</v>
+        <v>1.17694883485914</v>
       </c>
       <c r="M7">
-        <v>1.025303119728608</v>
+        <v>1.143534403892436</v>
       </c>
       <c r="N7">
-        <v>1.080837186518792</v>
+        <v>1.509157275242676</v>
       </c>
       <c r="O7">
-        <v>1.137013115978418</v>
+        <v>1.266467030223599</v>
       </c>
       <c r="P7">
-        <v>1.105070213152522</v>
+        <v>1.297695436171961</v>
       </c>
       <c r="Q7">
-        <v>1.093147085522451</v>
+        <v>1.218582013368706</v>
       </c>
       <c r="R7">
-        <v>1.096992537607945</v>
+        <v>1.3681827158622</v>
       </c>
       <c r="S7">
-        <v>1.086473827123842</v>
+        <v>1.255362622952578</v>
       </c>
       <c r="T7">
-        <v>1.096992537607945</v>
+        <v>1.368182715862199</v>
       </c>
       <c r="U7">
-        <v>1.08506466697258</v>
+        <v>1.318811286025102</v>
       </c>
       <c r="V7">
-        <v>1.084219170881822</v>
+        <v>1.356880483868617</v>
       </c>
       <c r="W7">
-        <v>1.05625853173026</v>
+        <v>1.210037566911087</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.093490359155654</v>
+        <v>0.9242915791941786</v>
       </c>
       <c r="D8">
-        <v>1.076232207234717</v>
+        <v>1.00659858926279</v>
       </c>
       <c r="E8">
-        <v>1.235424885101909</v>
+        <v>1.138681694095622</v>
       </c>
       <c r="F8">
-        <v>1.093490359155654</v>
+        <v>0.9242915791941786</v>
       </c>
       <c r="G8">
-        <v>1.041117515094364</v>
+        <v>0.9676775840454893</v>
       </c>
       <c r="H8">
-        <v>1.032836120848694</v>
+        <v>0.9676775840462181</v>
       </c>
       <c r="I8">
-        <v>1.093490359155034</v>
+        <v>0.9676775840462181</v>
       </c>
       <c r="J8">
-        <v>1.076232207234717</v>
+        <v>1.053555294891265</v>
       </c>
       <c r="K8">
-        <v>1.000586853858471</v>
+        <v>1.029575373058367</v>
       </c>
       <c r="L8">
-        <v>1.085967077970076</v>
+        <v>1.082419007774111</v>
       </c>
       <c r="M8">
-        <v>1.028404716262461</v>
+        <v>1.029224598203457</v>
       </c>
       <c r="N8">
-        <v>1.093490359155654</v>
+        <v>0.9676775840462181</v>
       </c>
       <c r="O8">
-        <v>1.235424885101909</v>
+        <v>1.138681694095622</v>
       </c>
       <c r="P8">
-        <v>1.155828546168313</v>
+        <v>1.0314866366449</v>
       </c>
       <c r="Q8">
-        <v>1.138271200098136</v>
+        <v>1.096118494493444</v>
       </c>
       <c r="R8">
-        <v>1.135049150497427</v>
+        <v>1.01021695244534</v>
       </c>
       <c r="S8">
-        <v>1.11759153581033</v>
+        <v>1.038842856060355</v>
       </c>
       <c r="T8">
-        <v>1.135049150497427</v>
+        <v>1.01021695244534</v>
       </c>
       <c r="U8">
-        <v>1.111566241646661</v>
+        <v>1.021051538056821</v>
       </c>
       <c r="V8">
-        <v>1.10795106514846</v>
+        <v>1.0103767472547</v>
       </c>
       <c r="W8">
-        <v>1.074257466940793</v>
+        <v>1.029002965065751</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.124437602665828</v>
+        <v>1.563685135483127</v>
       </c>
       <c r="D9">
-        <v>0.9516178581799317</v>
+        <v>0.8798935545742522</v>
       </c>
       <c r="E9">
-        <v>1.092080846198069</v>
+        <v>1.437519589998957</v>
       </c>
       <c r="F9">
-        <v>1.124437602665828</v>
+        <v>1.563685135483127</v>
       </c>
       <c r="G9">
-        <v>1.047870713063784</v>
+        <v>2.398170418238369</v>
       </c>
       <c r="H9">
-        <v>0.9897645431886759</v>
+        <v>2.398170418239275</v>
       </c>
       <c r="I9">
-        <v>1.124437602665267</v>
+        <v>2.398170418239275</v>
       </c>
       <c r="J9">
-        <v>0.9516178581799317</v>
+        <v>1.425712245827338</v>
       </c>
       <c r="K9">
-        <v>1.092901443416536</v>
+        <v>1.36195913335645</v>
       </c>
       <c r="L9">
-        <v>1.206061509780795</v>
+        <v>1.310389589932087</v>
       </c>
       <c r="M9">
-        <v>0.9624714853840372</v>
+        <v>1.35446842580663</v>
       </c>
       <c r="N9">
-        <v>1.124437602665828</v>
+        <v>2.398170418239275</v>
       </c>
       <c r="O9">
-        <v>1.092080846198069</v>
+        <v>1.437519589998957</v>
       </c>
       <c r="P9">
-        <v>1.021849352189</v>
+        <v>1.500602362741042</v>
       </c>
       <c r="Q9">
-        <v>1.069975779630926</v>
+        <v>1.431615917913148</v>
       </c>
       <c r="R9">
-        <v>1.056045435681276</v>
+        <v>1.799791714573787</v>
       </c>
       <c r="S9">
-        <v>1.030523139147261</v>
+        <v>1.475638990436474</v>
       </c>
       <c r="T9">
-        <v>1.056045435681276</v>
+        <v>1.799791714573787</v>
       </c>
       <c r="U9">
-        <v>1.054001755026903</v>
+        <v>1.706271847387174</v>
       </c>
       <c r="V9">
-        <v>1.068088924554688</v>
+        <v>1.844651561557594</v>
       </c>
       <c r="W9">
-        <v>1.058400750234707</v>
+        <v>1.466474761652264</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.489486920013744</v>
+        <v>0.468100623476049</v>
       </c>
       <c r="D10">
-        <v>0.9814113664025887</v>
+        <v>0.4401361379569607</v>
       </c>
       <c r="E10">
-        <v>1.524550038649736</v>
+        <v>63.61837216381119</v>
       </c>
       <c r="F10">
-        <v>1.489486920013744</v>
+        <v>0.468100623476049</v>
       </c>
       <c r="G10">
-        <v>1.269339039741807</v>
+        <v>0.4246522629605041</v>
       </c>
       <c r="H10">
-        <v>1.127306509973417</v>
+        <v>0.4246522629605559</v>
       </c>
       <c r="I10">
-        <v>1.489486920013063</v>
+        <v>0.4246522629605559</v>
       </c>
       <c r="J10">
-        <v>0.9814113664025887</v>
+        <v>0.3141138916996404</v>
       </c>
       <c r="K10">
-        <v>0.9696125769628766</v>
+        <v>0.5698796013897535</v>
       </c>
       <c r="L10">
-        <v>1.374832016110116</v>
+        <v>0.4292289664009916</v>
       </c>
       <c r="M10">
-        <v>1.230998440078814</v>
+        <v>0.4238184480201554</v>
       </c>
       <c r="N10">
-        <v>1.489486920013744</v>
+        <v>0.4246522629605559</v>
       </c>
       <c r="O10">
-        <v>1.524550038649736</v>
+        <v>63.61837216381119</v>
       </c>
       <c r="P10">
-        <v>1.252980702526163</v>
+        <v>32.04323639364362</v>
       </c>
       <c r="Q10">
-        <v>1.396944539195771</v>
+        <v>31.96624302775542</v>
       </c>
       <c r="R10">
-        <v>1.331816108355357</v>
+        <v>21.5037083500826</v>
       </c>
       <c r="S10">
-        <v>1.258433481598044</v>
+        <v>21.46686222632896</v>
       </c>
       <c r="T10">
-        <v>1.331816108355357</v>
+        <v>21.5037083500826</v>
       </c>
       <c r="U10">
-        <v>1.316196841201969</v>
+        <v>16.20630973548686</v>
       </c>
       <c r="V10">
-        <v>1.350854856964324</v>
+        <v>13.0499782409816</v>
       </c>
       <c r="W10">
-        <v>1.245942113491638</v>
+        <v>8.336037761964414</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7320982460135993</v>
+        <v>0.9284619058983132</v>
       </c>
       <c r="D11">
-        <v>0.2052465750224289</v>
+        <v>0.8304103341332331</v>
       </c>
       <c r="E11">
-        <v>2.302742249943646</v>
+        <v>1.042761286012519</v>
       </c>
       <c r="F11">
-        <v>0.7320982460135993</v>
+        <v>0.9284619058983132</v>
       </c>
       <c r="G11">
-        <v>0.8702147614664912</v>
+        <v>3.10305059908364</v>
       </c>
       <c r="H11">
-        <v>0.9014917179958545</v>
+        <v>3.103050599085706</v>
       </c>
       <c r="I11">
-        <v>0.7320982460134512</v>
+        <v>3.103050599085706</v>
       </c>
       <c r="J11">
-        <v>0.2052465750224289</v>
+        <v>0.9362183094047446</v>
       </c>
       <c r="K11">
-        <v>0.9706000978804709</v>
+        <v>0.9832238117828218</v>
       </c>
       <c r="L11">
-        <v>1.749737855439948</v>
+        <v>1.094202156390468</v>
       </c>
       <c r="M11">
-        <v>1.004231651550592</v>
+        <v>0.8616998150063543</v>
       </c>
       <c r="N11">
-        <v>0.7320982460135993</v>
+        <v>3.103050599085706</v>
       </c>
       <c r="O11">
-        <v>2.302742249943646</v>
+        <v>1.042761286012519</v>
       </c>
       <c r="P11">
-        <v>1.253994412483038</v>
+        <v>0.9856115959554159</v>
       </c>
       <c r="Q11">
-        <v>1.586478505705069</v>
+        <v>0.9894897977086317</v>
       </c>
       <c r="R11">
-        <v>1.080029023659892</v>
+        <v>1.691424596998846</v>
       </c>
       <c r="S11">
-        <v>1.126067862144189</v>
+        <v>0.9691471671051922</v>
       </c>
       <c r="T11">
-        <v>1.080029023659892</v>
+        <v>1.691424596998846</v>
       </c>
       <c r="U11">
-        <v>1.027575458111541</v>
+        <v>1.502623025100321</v>
       </c>
       <c r="V11">
-        <v>0.9684800156919531</v>
+        <v>1.822708539897398</v>
       </c>
       <c r="W11">
-        <v>1.092045394414129</v>
+        <v>1.22250352721427</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.2402145757208906</v>
+        <v>0.8665669973894918</v>
       </c>
       <c r="D12">
-        <v>7.736583492947816</v>
+        <v>0.8353854837408206</v>
       </c>
       <c r="E12">
-        <v>0.0001533346788089347</v>
+        <v>10.83378331919245</v>
       </c>
       <c r="F12">
-        <v>0.2402145757208906</v>
+        <v>0.8665669973894918</v>
       </c>
       <c r="G12">
-        <v>1.031889489027873</v>
+        <v>0.7959610593592031</v>
       </c>
       <c r="H12">
-        <v>0.149880501300373</v>
+        <v>0.7959610593588868</v>
       </c>
       <c r="I12">
-        <v>0.2402145757208906</v>
+        <v>0.7959610593588868</v>
       </c>
       <c r="J12">
-        <v>7.736583492947816</v>
+        <v>0.5873590428804621</v>
       </c>
       <c r="K12">
-        <v>0.4716841930582009</v>
+        <v>1.015212095815772</v>
       </c>
       <c r="L12">
-        <v>1.120701832849869</v>
+        <v>0.8726025331702975</v>
       </c>
       <c r="M12">
-        <v>0.4045366655406437</v>
+        <v>0.8563747371495902</v>
       </c>
       <c r="N12">
-        <v>0.2402145757208906</v>
+        <v>0.7959610593588868</v>
       </c>
       <c r="O12">
-        <v>0.0001533346788089347</v>
+        <v>10.83378331919245</v>
       </c>
       <c r="P12">
-        <v>3.868368413813313</v>
+        <v>5.85017515829097</v>
       </c>
       <c r="Q12">
-        <v>0.516021411853341</v>
+        <v>5.710571181036455</v>
       </c>
       <c r="R12">
-        <v>2.658983801115839</v>
+        <v>4.165437125313609</v>
       </c>
       <c r="S12">
-        <v>2.922875438884833</v>
+        <v>4.095903119820801</v>
       </c>
       <c r="T12">
-        <v>2.658983801115839</v>
+        <v>4.165437125313608</v>
       </c>
       <c r="U12">
-        <v>2.252210223093847</v>
+        <v>3.270917604705322</v>
       </c>
       <c r="V12">
-        <v>1.849811093619256</v>
+        <v>2.775926295636035</v>
       </c>
       <c r="W12">
-        <v>1.394455510640559</v>
+        <v>2.082905658587221</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-0.0003113697009666464</v>
+        <v>1.400394642708776</v>
       </c>
       <c r="D13">
-        <v>-6.49547720063096E-05</v>
+        <v>1.019541233374654</v>
       </c>
       <c r="E13">
-        <v>0.2407556825720927</v>
+        <v>1.016124352053473</v>
       </c>
       <c r="F13">
-        <v>-0.0003113697009666464</v>
+        <v>1.400394642708776</v>
       </c>
       <c r="G13">
-        <v>1.717593411598699</v>
+        <v>1.013494153556973</v>
       </c>
       <c r="H13">
-        <v>0.9855229993493922</v>
+        <v>1.013494153556818</v>
       </c>
       <c r="I13">
-        <v>-0.0003113697009199315</v>
+        <v>1.013494153556818</v>
       </c>
       <c r="J13">
-        <v>-6.49547720063096E-05</v>
+        <v>0.6915793223098651</v>
       </c>
       <c r="K13">
-        <v>0.4776134271255662</v>
+        <v>1.033340364114128</v>
       </c>
       <c r="L13">
-        <v>1.688939989499504</v>
+        <v>1.087953925785121</v>
       </c>
       <c r="M13">
-        <v>0.960715570514507</v>
+        <v>1.19397876663804</v>
       </c>
       <c r="N13">
-        <v>-0.0003113697009666464</v>
+        <v>1.013494153556818</v>
       </c>
       <c r="O13">
-        <v>0.2407556825720927</v>
+        <v>1.016124352053473</v>
       </c>
       <c r="P13">
-        <v>0.1203453639000432</v>
+        <v>1.208259497381124</v>
       </c>
       <c r="Q13">
-        <v>0.9791745470853958</v>
+        <v>0.853851837181669</v>
       </c>
       <c r="R13">
-        <v>0.08012645269970659</v>
+        <v>1.143337716106355</v>
       </c>
       <c r="S13">
-        <v>0.6527613797995951</v>
+        <v>1.036032772357371</v>
       </c>
       <c r="T13">
-        <v>0.08012645269970659</v>
+        <v>1.143337716106356</v>
       </c>
       <c r="U13">
-        <v>0.4894931924244547</v>
+        <v>1.030398117657233</v>
       </c>
       <c r="V13">
-        <v>0.3915322799993704</v>
+        <v>1.02701732483715</v>
       </c>
       <c r="W13">
-        <v>0.7588455945233485</v>
+        <v>1.057050845067609</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0007078795867205128</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="D14">
-        <v>-0.0008902999245786144</v>
+        <v>-0.004903900600000006</v>
       </c>
       <c r="E14">
-        <v>0.001759181932168311</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="F14">
-        <v>-0.0007078795867205128</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="G14">
-        <v>0.02167873897790511</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="H14">
-        <v>-0.001479546310663429</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="I14">
-        <v>-0.0007078795867205128</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="J14">
-        <v>-0.0008902999245786144</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="K14">
-        <v>1.618634134740095</v>
+        <v>0.02555648000000004</v>
       </c>
       <c r="L14">
-        <v>4.048563920433525</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="M14">
-        <v>2.089197074806369</v>
+        <v>-0.0009139994799999984</v>
       </c>
       <c r="N14">
-        <v>-0.0007078795867205128</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="O14">
-        <v>0.001759181932168311</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="P14">
-        <v>0.0004344410037948482</v>
+        <v>60.57110950421506</v>
       </c>
       <c r="Q14">
-        <v>0.01171896045503671</v>
+        <v>60.56829094960006</v>
       </c>
       <c r="R14">
-        <v>5.366747362306117E-05</v>
+        <v>40.38416722681004</v>
       </c>
       <c r="S14">
-        <v>0.007515873661831604</v>
+        <v>40.37909696921004</v>
       </c>
       <c r="T14">
-        <v>5.366747362306121E-05</v>
+        <v>40.38416722681004</v>
       </c>
       <c r="U14">
-        <v>0.005459935349693574</v>
+        <v>30.28689339490753</v>
       </c>
       <c r="V14">
-        <v>0.004226372362410757</v>
+        <v>24.23157125032602</v>
       </c>
       <c r="W14">
-        <v>0.9720944156335125</v>
+        <v>15.14438390044377</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7542481882576301</v>
+        <v>-0.0009807710899999999</v>
       </c>
       <c r="D15">
-        <v>6.293782320883295</v>
+        <v>0.0053520281</v>
       </c>
       <c r="E15">
-        <v>1.827441551796372</v>
+        <v>-0.012241339</v>
       </c>
       <c r="F15">
-        <v>0.7542481882576301</v>
+        <v>-0.0009807710899999999</v>
       </c>
       <c r="G15">
-        <v>0.1104950233091276</v>
+        <v>-0.016129659</v>
       </c>
       <c r="H15">
-        <v>2.266937972922715</v>
+        <v>-0.016129659</v>
       </c>
       <c r="I15">
-        <v>0.7542481882576324</v>
+        <v>-0.016129659</v>
       </c>
       <c r="J15">
-        <v>6.293782320883295</v>
+        <v>0.0044579726</v>
       </c>
       <c r="K15">
-        <v>0.6547557923070556</v>
+        <v>0.0070900043</v>
       </c>
       <c r="L15">
-        <v>0.0006869477132776929</v>
+        <v>60.5637</v>
       </c>
       <c r="M15">
-        <v>1.48290195909784</v>
+        <v>-0.01021144</v>
       </c>
       <c r="N15">
-        <v>0.7542481882576301</v>
+        <v>-0.016129659</v>
       </c>
       <c r="O15">
-        <v>1.827441551796372</v>
+        <v>-0.012241339</v>
       </c>
       <c r="P15">
-        <v>4.060611936339834</v>
+        <v>-0.006611055045</v>
       </c>
       <c r="Q15">
-        <v>0.9689682875527498</v>
+        <v>-0.0038916832</v>
       </c>
       <c r="R15">
-        <v>2.958490686979099</v>
+        <v>-0.009783923030000001</v>
       </c>
       <c r="S15">
-        <v>2.743906298662932</v>
+        <v>-0.002921379163333333</v>
       </c>
       <c r="T15">
-        <v>2.958490686979099</v>
+        <v>-0.009783923030000001</v>
       </c>
       <c r="U15">
-        <v>2.246491771061606</v>
+        <v>-0.0062234491225</v>
       </c>
       <c r="V15">
-        <v>1.948043054500811</v>
+        <v>-0.008204691098000001</v>
       </c>
       <c r="W15">
-        <v>1.673906219535914</v>
+        <v>7.56762959948875</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.100759723710767</v>
+        <v>0.011910204</v>
       </c>
       <c r="D16">
-        <v>1.156020288630273</v>
+        <v>0.012393713</v>
       </c>
       <c r="E16">
-        <v>1.102428119252099</v>
+        <v>0.010282671</v>
       </c>
       <c r="F16">
-        <v>1.100759723710767</v>
+        <v>0.011910204</v>
       </c>
       <c r="G16">
-        <v>1.017354810249393</v>
+        <v>181.71412</v>
       </c>
       <c r="H16">
-        <v>1.000854441214142</v>
+        <v>181.71412</v>
       </c>
       <c r="I16">
-        <v>1.100759723710136</v>
+        <v>181.71412</v>
       </c>
       <c r="J16">
-        <v>1.156020288630273</v>
+        <v>0.00062515737</v>
       </c>
       <c r="K16">
-        <v>1.010999416481303</v>
+        <v>0.0061919611</v>
       </c>
       <c r="L16">
-        <v>1.021881115656392</v>
+        <v>-0.016138361</v>
       </c>
       <c r="M16">
-        <v>1.009788987700916</v>
+        <v>0.004912388</v>
       </c>
       <c r="N16">
-        <v>1.100759723710767</v>
+        <v>181.71412</v>
       </c>
       <c r="O16">
-        <v>1.102428119252099</v>
+        <v>0.010282671</v>
       </c>
       <c r="P16">
-        <v>1.129224203941186</v>
+        <v>0.0110964375</v>
       </c>
       <c r="Q16">
-        <v>1.059891464750746</v>
+        <v>0.005453914185</v>
       </c>
       <c r="R16">
-        <v>1.11973604386438</v>
+        <v>60.57877095833334</v>
       </c>
       <c r="S16">
-        <v>1.091934406043922</v>
+        <v>0.00760601079</v>
       </c>
       <c r="T16">
-        <v>1.11973604386438</v>
+        <v>60.57877095833334</v>
       </c>
       <c r="U16">
-        <v>1.094140735460633</v>
+        <v>45.4342345080925</v>
       </c>
       <c r="V16">
-        <v>1.09546453311066</v>
+        <v>72.69021160647401</v>
       </c>
       <c r="W16">
-        <v>1.052510862861911</v>
+        <v>22.71803721668375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9676775840462136</v>
+        <v>0.0046969105</v>
       </c>
       <c r="D17">
-        <v>0.9242915791941753</v>
+        <v>0.01430689</v>
       </c>
       <c r="E17">
-        <v>1.138681694095622</v>
+        <v>0.02125732</v>
       </c>
       <c r="F17">
-        <v>0.9676775840462136</v>
+        <v>0.0046969105</v>
       </c>
       <c r="G17">
-        <v>1.053555294891267</v>
+        <v>-0.019704316</v>
       </c>
       <c r="H17">
-        <v>1.029575373058365</v>
+        <v>-0.019704316</v>
       </c>
       <c r="I17">
-        <v>0.9676775840454848</v>
+        <v>-0.019704316</v>
       </c>
       <c r="J17">
-        <v>0.9242915791941753</v>
+        <v>-0.0053795541</v>
       </c>
       <c r="K17">
-        <v>1.006598589262788</v>
+        <v>-0.012287886</v>
       </c>
       <c r="L17">
-        <v>1.08241900777411</v>
+        <v>0.0029315895</v>
       </c>
       <c r="M17">
-        <v>1.029224598203456</v>
+        <v>-0.0070499457</v>
       </c>
       <c r="N17">
-        <v>0.9676775840462136</v>
+        <v>-0.019704316</v>
       </c>
       <c r="O17">
-        <v>1.138681694095622</v>
+        <v>0.02125732</v>
       </c>
       <c r="P17">
-        <v>1.031486636644899</v>
+        <v>0.01297711525</v>
       </c>
       <c r="Q17">
-        <v>1.096118494493444</v>
+        <v>0.007938882950000002</v>
       </c>
       <c r="R17">
-        <v>1.010216952445337</v>
+        <v>0.002083304833333334</v>
       </c>
       <c r="S17">
-        <v>1.038842856060355</v>
+        <v>0.006858225466666667</v>
       </c>
       <c r="T17">
-        <v>1.010216952445337</v>
+        <v>0.002083304833333334</v>
       </c>
       <c r="U17">
-        <v>1.021051538056819</v>
+        <v>0.0002175901000000008</v>
       </c>
       <c r="V17">
-        <v>1.010376747254698</v>
+        <v>-0.003766791119999999</v>
       </c>
       <c r="W17">
-        <v>1.02900296506575</v>
+        <v>-0.0001536239749999995</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.491567963776982</v>
+        <v>7.44790377932507</v>
       </c>
       <c r="D18">
-        <v>0.8427012920794497</v>
+        <v>-0.001431498169041096</v>
       </c>
       <c r="E18">
-        <v>1.556058851878036</v>
+        <v>3.723887617591233</v>
       </c>
       <c r="F18">
-        <v>1.491567963776982</v>
+        <v>7.44790377932507</v>
       </c>
       <c r="G18">
-        <v>1.789969616954987</v>
+        <v>11.14439964266685</v>
       </c>
       <c r="H18">
-        <v>1.253578917475459</v>
+        <v>11.1443996426663</v>
       </c>
       <c r="I18">
-        <v>1.491567963776624</v>
+        <v>11.1443996426663</v>
       </c>
       <c r="J18">
-        <v>0.8427012920794497</v>
+        <v>3.715633884749862</v>
       </c>
       <c r="K18">
-        <v>1.04460451813509</v>
+        <v>3.432719162305481</v>
       </c>
       <c r="L18">
-        <v>1.637720466302097</v>
+        <v>4.543554270116712</v>
       </c>
       <c r="M18">
-        <v>1.35922263294378</v>
+        <v>3.641202638158905</v>
       </c>
       <c r="N18">
-        <v>1.491567963776982</v>
+        <v>11.1443996426663</v>
       </c>
       <c r="O18">
-        <v>1.556058851878036</v>
+        <v>3.723887617591233</v>
       </c>
       <c r="P18">
-        <v>1.199380071978743</v>
+        <v>5.585895698458152</v>
       </c>
       <c r="Q18">
-        <v>1.673014234416512</v>
+        <v>3.719760751170548</v>
       </c>
       <c r="R18">
-        <v>1.296776035911489</v>
+        <v>7.438730346527534</v>
       </c>
       <c r="S18">
-        <v>1.396243253637491</v>
+        <v>4.962475093888721</v>
       </c>
       <c r="T18">
-        <v>1.296776035911489</v>
+        <v>7.438730346527534</v>
       </c>
       <c r="U18">
-        <v>1.420074431172364</v>
+        <v>6.507956231083116</v>
       </c>
       <c r="V18">
-        <v>1.434373137693288</v>
+        <v>7.435244913399752</v>
       </c>
       <c r="W18">
-        <v>1.371928032443235</v>
+        <v>4.705983687093065</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.293671858345335</v>
+        <v>0.000392871033052631</v>
       </c>
       <c r="D19">
-        <v>0.9432897633598423</v>
+        <v>3.505247886911578</v>
       </c>
       <c r="E19">
-        <v>2.279114321940964</v>
+        <v>6.779364075842111</v>
       </c>
       <c r="F19">
-        <v>2.293671858345335</v>
+        <v>0.000392871033052631</v>
       </c>
       <c r="G19">
-        <v>0.4888290514499138</v>
+        <v>10.16303285720053</v>
       </c>
       <c r="H19">
-        <v>1.302731461326176</v>
+        <v>10.16303285720053</v>
       </c>
       <c r="I19">
-        <v>2.293671858345638</v>
+        <v>10.16303285720053</v>
       </c>
       <c r="J19">
-        <v>0.9432897633598423</v>
+        <v>3.34494036104579</v>
       </c>
       <c r="K19">
-        <v>0.8105831061660465</v>
+        <v>-0.001239729908157892</v>
       </c>
       <c r="L19">
-        <v>1.407095258519091</v>
+        <v>0.001688891236842106</v>
       </c>
       <c r="M19">
-        <v>0.9860791330480219</v>
+        <v>0.002659866528947368</v>
       </c>
       <c r="N19">
-        <v>2.293671858345335</v>
+        <v>10.16303285720053</v>
       </c>
       <c r="O19">
-        <v>2.279114321940964</v>
+        <v>6.779364075842111</v>
       </c>
       <c r="P19">
-        <v>1.611202042650403</v>
+        <v>3.389878473437582</v>
       </c>
       <c r="Q19">
-        <v>1.383971686695439</v>
+        <v>5.06215221844395</v>
       </c>
       <c r="R19">
-        <v>1.838691981215381</v>
+        <v>5.647596601358562</v>
       </c>
       <c r="S19">
-        <v>1.23707771225024</v>
+        <v>3.374899102640318</v>
       </c>
       <c r="T19">
-        <v>1.838691981215381</v>
+        <v>5.647596601358564</v>
       </c>
       <c r="U19">
-        <v>1.501226248774014</v>
+        <v>5.07193254128037</v>
       </c>
       <c r="V19">
-        <v>1.659715370688278</v>
+        <v>6.090152604464402</v>
       </c>
       <c r="W19">
-        <v>1.313924244269424</v>
+        <v>2.974510884986336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.007059826627368421</v>
+      </c>
+      <c r="D20">
+        <v>0.0002176366999999996</v>
+      </c>
+      <c r="E20">
+        <v>13.95229603842106</v>
+      </c>
+      <c r="F20">
+        <v>0.007059826627368421</v>
+      </c>
+      <c r="G20">
+        <v>0.008372614447368422</v>
+      </c>
+      <c r="H20">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="I20">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="J20">
+        <v>-0.004860329194736841</v>
+      </c>
+      <c r="K20">
+        <v>0.01755527272105263</v>
+      </c>
+      <c r="L20">
+        <v>6.9789763701</v>
+      </c>
+      <c r="M20">
+        <v>-9.935083421052625E-05</v>
+      </c>
+      <c r="N20">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="O20">
+        <v>13.95229603842106</v>
+      </c>
+      <c r="P20">
+        <v>6.979677932524214</v>
+      </c>
+      <c r="Q20">
+        <v>6.973717854613161</v>
+      </c>
+      <c r="R20">
+        <v>4.655909493163511</v>
+      </c>
+      <c r="S20">
+        <v>4.651498511951231</v>
+      </c>
+      <c r="T20">
+        <v>4.65590949316351</v>
+      </c>
+      <c r="U20">
+        <v>3.490717037573949</v>
+      </c>
+      <c r="V20">
+        <v>2.79424815294758</v>
+      </c>
+      <c r="W20">
+        <v>2.61993975987283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>-0.0008902999245786065</v>
+      </c>
+      <c r="D21">
+        <v>1.618634134740093</v>
+      </c>
+      <c r="E21">
+        <v>0.001759181932168311</v>
+      </c>
+      <c r="F21">
+        <v>-0.0008902999245786065</v>
+      </c>
+      <c r="G21">
+        <v>-0.0007078795867205206</v>
+      </c>
+      <c r="H21">
+        <v>-0.0007078795867205206</v>
+      </c>
+      <c r="I21">
+        <v>-0.0007078795867205206</v>
+      </c>
+      <c r="J21">
+        <v>0.02167873897790513</v>
+      </c>
+      <c r="K21">
+        <v>-0.001479546310663426</v>
+      </c>
+      <c r="L21">
+        <v>4.048563920433525</v>
+      </c>
+      <c r="M21">
+        <v>2.089197074806371</v>
+      </c>
+      <c r="N21">
+        <v>-0.0007078795867205206</v>
+      </c>
+      <c r="O21">
+        <v>0.001759181932168311</v>
+      </c>
+      <c r="P21">
+        <v>0.0004344410037948523</v>
+      </c>
+      <c r="Q21">
+        <v>0.01171896045503672</v>
+      </c>
+      <c r="R21">
+        <v>5.366747362306135E-05</v>
+      </c>
+      <c r="S21">
+        <v>0.007515873661831612</v>
+      </c>
+      <c r="T21">
+        <v>5.366747362306135E-05</v>
+      </c>
+      <c r="U21">
+        <v>0.005459935349693579</v>
+      </c>
+      <c r="V21">
+        <v>0.004226372362410758</v>
+      </c>
+      <c r="W21">
+        <v>0.9720944156335125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>6.293782320883294</v>
+      </c>
+      <c r="D22">
+        <v>0.6547557923070556</v>
+      </c>
+      <c r="E22">
+        <v>1.827441551796372</v>
+      </c>
+      <c r="F22">
+        <v>6.293782320883294</v>
+      </c>
+      <c r="G22">
+        <v>0.7542481882576328</v>
+      </c>
+      <c r="H22">
+        <v>0.7542481882576304</v>
+      </c>
+      <c r="I22">
+        <v>0.7542481882576304</v>
+      </c>
+      <c r="J22">
+        <v>0.1104950233091275</v>
+      </c>
+      <c r="K22">
+        <v>2.266937972922715</v>
+      </c>
+      <c r="L22">
+        <v>0.0006869477132776931</v>
+      </c>
+      <c r="M22">
+        <v>1.48290195909784</v>
+      </c>
+      <c r="N22">
+        <v>0.7542481882576304</v>
+      </c>
+      <c r="O22">
+        <v>1.827441551796372</v>
+      </c>
+      <c r="P22">
+        <v>4.060611936339833</v>
+      </c>
+      <c r="Q22">
+        <v>0.9689682875527498</v>
+      </c>
+      <c r="R22">
+        <v>2.958490686979099</v>
+      </c>
+      <c r="S22">
+        <v>2.743906298662931</v>
+      </c>
+      <c r="T22">
+        <v>2.958490686979099</v>
+      </c>
+      <c r="U22">
+        <v>2.246491771061606</v>
+      </c>
+      <c r="V22">
+        <v>1.948043054500811</v>
+      </c>
+      <c r="W22">
+        <v>1.673906219535914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>7.73658349294782</v>
+      </c>
+      <c r="D23">
+        <v>0.4716841930581974</v>
+      </c>
+      <c r="E23">
+        <v>0.0001533346788089328</v>
+      </c>
+      <c r="F23">
+        <v>7.73658349294782</v>
+      </c>
+      <c r="G23">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="H23">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="I23">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="J23">
+        <v>1.031889489027874</v>
+      </c>
+      <c r="K23">
+        <v>0.149880501300373</v>
+      </c>
+      <c r="L23">
+        <v>1.12070183284987</v>
+      </c>
+      <c r="M23">
+        <v>0.4045366655406436</v>
+      </c>
+      <c r="N23">
+        <v>0.2402145757208905</v>
+      </c>
+      <c r="O23">
+        <v>0.0001533346788089328</v>
+      </c>
+      <c r="P23">
+        <v>3.868368413813315</v>
+      </c>
+      <c r="Q23">
+        <v>0.5160214118533413</v>
+      </c>
+      <c r="R23">
+        <v>2.65898380111584</v>
+      </c>
+      <c r="S23">
+        <v>2.922875438884834</v>
+      </c>
+      <c r="T23">
+        <v>2.65898380111584</v>
+      </c>
+      <c r="U23">
+        <v>2.252210223093848</v>
+      </c>
+      <c r="V23">
+        <v>1.849811093619257</v>
+      </c>
+      <c r="W23">
+        <v>1.394455510640559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>-6.495477200630874E-05</v>
+      </c>
+      <c r="D24">
+        <v>0.4776134271255647</v>
+      </c>
+      <c r="E24">
+        <v>0.2407556825720928</v>
+      </c>
+      <c r="F24">
+        <v>-6.495477200630874E-05</v>
+      </c>
+      <c r="G24">
+        <v>-0.0003113697009199246</v>
+      </c>
+      <c r="H24">
+        <v>-0.0003113697009666391</v>
+      </c>
+      <c r="I24">
+        <v>-0.0003113697009666391</v>
+      </c>
+      <c r="J24">
+        <v>1.717593411598698</v>
+      </c>
+      <c r="K24">
+        <v>0.9855229993493944</v>
+      </c>
+      <c r="L24">
+        <v>1.688939989499504</v>
+      </c>
+      <c r="M24">
+        <v>0.9607155705145068</v>
+      </c>
+      <c r="N24">
+        <v>-0.0003113697009666391</v>
+      </c>
+      <c r="O24">
+        <v>0.2407556825720928</v>
+      </c>
+      <c r="P24">
+        <v>0.1203453639000433</v>
+      </c>
+      <c r="Q24">
+        <v>0.9791745470853953</v>
+      </c>
+      <c r="R24">
+        <v>0.08012645269970663</v>
+      </c>
+      <c r="S24">
+        <v>0.6527613797995947</v>
+      </c>
+      <c r="T24">
+        <v>0.08012645269970663</v>
+      </c>
+      <c r="U24">
+        <v>0.4894931924244544</v>
+      </c>
+      <c r="V24">
+        <v>0.3915322799993702</v>
+      </c>
+      <c r="W24">
+        <v>0.7588455945233485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.0005104511313434171</v>
+      </c>
+      <c r="D25">
+        <v>0.01837021655258742</v>
+      </c>
+      <c r="E25">
+        <v>0.0008468420349343653</v>
+      </c>
+      <c r="F25">
+        <v>0.0005104511313434171</v>
+      </c>
+      <c r="G25">
+        <v>0.06556308987453784</v>
+      </c>
+      <c r="H25">
+        <v>0.06556308987453784</v>
+      </c>
+      <c r="I25">
+        <v>0.06556308987453784</v>
+      </c>
+      <c r="J25">
+        <v>3.773439065028473</v>
+      </c>
+      <c r="K25">
+        <v>0.8704000970102159</v>
+      </c>
+      <c r="L25">
+        <v>0.1466211963899108</v>
+      </c>
+      <c r="M25">
+        <v>0.02061018035849509</v>
+      </c>
+      <c r="N25">
+        <v>0.06556308987453784</v>
+      </c>
+      <c r="O25">
+        <v>0.0008468420349343653</v>
+      </c>
+      <c r="P25">
+        <v>0.0006786465831388912</v>
+      </c>
+      <c r="Q25">
+        <v>1.887142953531704</v>
+      </c>
+      <c r="R25">
+        <v>0.02230679434693854</v>
+      </c>
+      <c r="S25">
+        <v>1.258265452731584</v>
+      </c>
+      <c r="T25">
+        <v>0.02230679434693854</v>
+      </c>
+      <c r="U25">
+        <v>0.9600898620173223</v>
+      </c>
+      <c r="V25">
+        <v>0.7811845075887653</v>
+      </c>
+      <c r="W25">
+        <v>0.6120451422975624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-0.000204237385315702</v>
+      </c>
+      <c r="D26">
+        <v>1.31839019444241</v>
+      </c>
+      <c r="E26">
+        <v>3.704724255056352</v>
+      </c>
+      <c r="F26">
+        <v>-0.000204237385315702</v>
+      </c>
+      <c r="G26">
+        <v>0.4244749908493259</v>
+      </c>
+      <c r="H26">
+        <v>0.424474990845241</v>
+      </c>
+      <c r="I26">
+        <v>0.424474990845241</v>
+      </c>
+      <c r="J26">
+        <v>-0.0006577877870660543</v>
+      </c>
+      <c r="K26">
+        <v>1.522941917692442</v>
+      </c>
+      <c r="L26">
+        <v>0.1863433773981615</v>
+      </c>
+      <c r="M26">
+        <v>0.1427239604622257</v>
+      </c>
+      <c r="N26">
+        <v>0.424474990845241</v>
+      </c>
+      <c r="O26">
+        <v>3.704724255056352</v>
+      </c>
+      <c r="P26">
+        <v>1.852260008835518</v>
+      </c>
+      <c r="Q26">
+        <v>1.852033233634643</v>
+      </c>
+      <c r="R26">
+        <v>1.376331669505426</v>
+      </c>
+      <c r="S26">
+        <v>1.234620743294657</v>
+      </c>
+      <c r="T26">
+        <v>1.376331669505426</v>
+      </c>
+      <c r="U26">
+        <v>1.032084305182303</v>
+      </c>
+      <c r="V26">
+        <v>0.9105624423148905</v>
+      </c>
+      <c r="W26">
+        <v>0.9123420838405563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.004119490844798204</v>
+      </c>
+      <c r="D27">
+        <v>0.005673294833611329</v>
+      </c>
+      <c r="E27">
+        <v>7.124285368149723</v>
+      </c>
+      <c r="F27">
+        <v>-0.004119490844798204</v>
+      </c>
+      <c r="G27">
+        <v>0.1107240767835515</v>
+      </c>
+      <c r="H27">
+        <v>0.1107240767835515</v>
+      </c>
+      <c r="I27">
+        <v>0.1107240767835515</v>
+      </c>
+      <c r="J27">
+        <v>5.178547965478611</v>
+      </c>
+      <c r="K27">
+        <v>0.01042179611449516</v>
+      </c>
+      <c r="L27">
+        <v>6.387585543967804</v>
+      </c>
+      <c r="M27">
+        <v>0.04013106952668354</v>
+      </c>
+      <c r="N27">
+        <v>0.1107240767835515</v>
+      </c>
+      <c r="O27">
+        <v>7.124285368149723</v>
+      </c>
+      <c r="P27">
+        <v>3.560082938652462</v>
+      </c>
+      <c r="Q27">
+        <v>6.151416666814167</v>
+      </c>
+      <c r="R27">
+        <v>2.410296651362825</v>
+      </c>
+      <c r="S27">
+        <v>4.099571280927845</v>
+      </c>
+      <c r="T27">
+        <v>2.410296651362825</v>
+      </c>
+      <c r="U27">
+        <v>3.102359479891772</v>
+      </c>
+      <c r="V27">
+        <v>2.504032399270128</v>
+      </c>
+      <c r="W27">
+        <v>2.35665620300121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.5199092148503732</v>
+      </c>
+      <c r="D28">
+        <v>2.078656330855167</v>
+      </c>
+      <c r="E28">
+        <v>5.515755973877438</v>
+      </c>
+      <c r="F28">
+        <v>0.5199092148503732</v>
+      </c>
+      <c r="G28">
+        <v>4.656508162372781</v>
+      </c>
+      <c r="H28">
+        <v>4.656508162372675</v>
+      </c>
+      <c r="I28">
+        <v>4.656508162372675</v>
+      </c>
+      <c r="J28">
+        <v>0.02361430168291688</v>
+      </c>
+      <c r="K28">
+        <v>1.3210072764911</v>
+      </c>
+      <c r="L28">
+        <v>6.81341118760848</v>
+      </c>
+      <c r="M28">
+        <v>1.560890325498799</v>
+      </c>
+      <c r="N28">
+        <v>4.656508162372675</v>
+      </c>
+      <c r="O28">
+        <v>5.515755973877438</v>
+      </c>
+      <c r="P28">
+        <v>3.017832594363905</v>
+      </c>
+      <c r="Q28">
+        <v>2.769685137780177</v>
+      </c>
+      <c r="R28">
+        <v>3.564057783700162</v>
+      </c>
+      <c r="S28">
+        <v>2.01975983013691</v>
+      </c>
+      <c r="T28">
+        <v>3.564057783700162</v>
+      </c>
+      <c r="U28">
+        <v>2.678946913195851</v>
+      </c>
+      <c r="V28">
+        <v>3.074459163031216</v>
+      </c>
+      <c r="W28">
+        <v>2.811219096654619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.003379252784832453</v>
+      </c>
+      <c r="D29">
+        <v>4.674382796872621</v>
+      </c>
+      <c r="E29">
+        <v>-0.002083163816132063</v>
+      </c>
+      <c r="F29">
+        <v>0.003379252784832453</v>
+      </c>
+      <c r="G29">
+        <v>-0.002345040550205253</v>
+      </c>
+      <c r="H29">
+        <v>-0.002345040550205253</v>
+      </c>
+      <c r="I29">
+        <v>-0.002345040550205253</v>
+      </c>
+      <c r="J29">
+        <v>0.001599019385675633</v>
+      </c>
+      <c r="K29">
+        <v>-0.001584942924229441</v>
+      </c>
+      <c r="L29">
+        <v>15.24851381898139</v>
+      </c>
+      <c r="M29">
+        <v>0.002688977794970565</v>
+      </c>
+      <c r="N29">
+        <v>-0.002345040550205253</v>
+      </c>
+      <c r="O29">
+        <v>-0.002083163816132063</v>
+      </c>
+      <c r="P29">
+        <v>0.0006480444843501947</v>
+      </c>
+      <c r="Q29">
+        <v>-0.0002420722152282151</v>
+      </c>
+      <c r="R29">
+        <v>-0.0003496505271682877</v>
+      </c>
+      <c r="S29">
+        <v>0.0009650361181253408</v>
+      </c>
+      <c r="T29">
+        <v>-0.0003496505271682877</v>
+      </c>
+      <c r="U29">
+        <v>0.0001375169510426925</v>
+      </c>
+      <c r="V29">
+        <v>-0.0003589945492068965</v>
+      </c>
+      <c r="W29">
+        <v>2.490568839816115</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8085310869635153</v>
+        <v>0.9093510259049155</v>
       </c>
       <c r="D4">
-        <v>0.8850125133171022</v>
+        <v>0.9495839667346566</v>
       </c>
       <c r="E4">
-        <v>1.039230107325232</v>
+        <v>4.723003757067402</v>
       </c>
       <c r="F4">
-        <v>0.8085310869635153</v>
+        <v>0.9093510259049155</v>
       </c>
       <c r="G4">
-        <v>3.041361183394688</v>
+        <v>0.9786026978445388</v>
       </c>
       <c r="H4">
-        <v>3.041361183396234</v>
+        <v>0.9786026978449501</v>
       </c>
       <c r="I4">
-        <v>3.041361183396234</v>
+        <v>0.9786026978449501</v>
       </c>
       <c r="J4">
-        <v>0.9157117210128545</v>
+        <v>0.8638926426540284</v>
       </c>
       <c r="K4">
-        <v>0.9411169404031274</v>
+        <v>1.092173049518241</v>
       </c>
       <c r="L4">
-        <v>1.035967342217978</v>
+        <v>0.892168158156574</v>
       </c>
       <c r="M4">
-        <v>0.8047825115758784</v>
+        <v>0.8741072723050891</v>
       </c>
       <c r="N4">
-        <v>3.041361183396234</v>
+        <v>0.9786026978449501</v>
       </c>
       <c r="O4">
-        <v>1.039230107325232</v>
+        <v>4.723003757067402</v>
       </c>
       <c r="P4">
-        <v>0.9238805971443735</v>
+        <v>2.816177391486159</v>
       </c>
       <c r="Q4">
-        <v>0.9774709141690432</v>
+        <v>2.793448199860715</v>
       </c>
       <c r="R4">
-        <v>1.629707459228327</v>
+        <v>2.203652493605756</v>
       </c>
       <c r="S4">
-        <v>0.9211576384338672</v>
+        <v>2.165415808542115</v>
       </c>
       <c r="T4">
-        <v>1.629707459228327</v>
+        <v>2.203652493605756</v>
       </c>
       <c r="U4">
-        <v>1.451208524674459</v>
+        <v>1.868712530867824</v>
       </c>
       <c r="V4">
-        <v>1.769239056418814</v>
+        <v>1.690690564263249</v>
       </c>
       <c r="W4">
-        <v>1.18396417577649</v>
+        <v>1.410360321273232</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.009299393873708</v>
+        <v>0.007659193287652044</v>
       </c>
       <c r="D5">
-        <v>0.8884880414063108</v>
+        <v>0.0003182831693346642</v>
       </c>
       <c r="E5">
-        <v>7.655469779151606</v>
+        <v>8.636255449739203</v>
       </c>
       <c r="F5">
-        <v>1.009299393873708</v>
+        <v>0.007659193287652044</v>
       </c>
       <c r="G5">
-        <v>1.167293839124023</v>
+        <v>0.008871920675299131</v>
       </c>
       <c r="H5">
-        <v>1.167293839124324</v>
+        <v>0.008871920669476169</v>
       </c>
       <c r="I5">
-        <v>1.167293839124324</v>
+        <v>0.008871920669476169</v>
       </c>
       <c r="J5">
-        <v>0.9368101695575413</v>
+        <v>-0.005165540543838133</v>
       </c>
       <c r="K5">
-        <v>1.095708006156033</v>
+        <v>0.01704065766641739</v>
       </c>
       <c r="L5">
-        <v>1.058581009847352</v>
+        <v>6.209012747159654</v>
       </c>
       <c r="M5">
-        <v>0.9001364229259686</v>
+        <v>0.0001432451162926034</v>
       </c>
       <c r="N5">
-        <v>1.167293839124324</v>
+        <v>0.008871920669476169</v>
       </c>
       <c r="O5">
-        <v>7.655469779151606</v>
+        <v>8.636255449739203</v>
       </c>
       <c r="P5">
-        <v>4.332384586512657</v>
+        <v>4.321957321513428</v>
       </c>
       <c r="Q5">
-        <v>4.296139974354574</v>
+        <v>4.315544954597682</v>
       </c>
       <c r="R5">
-        <v>3.277354337383213</v>
+        <v>2.884262187898777</v>
       </c>
       <c r="S5">
-        <v>3.200526447527619</v>
+        <v>2.879583034161005</v>
       </c>
       <c r="T5">
-        <v>3.277354337383213</v>
+        <v>2.884262187898777</v>
       </c>
       <c r="U5">
-        <v>2.692218295426795</v>
+        <v>2.161905255788123</v>
       </c>
       <c r="V5">
-        <v>2.387233404166301</v>
+        <v>1.731298588764394</v>
       </c>
       <c r="W5">
-        <v>1.838973332755355</v>
+        <v>1.859266994533024</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.3521262617713204</v>
+        <v>0.8085310869635153</v>
       </c>
       <c r="D6">
-        <v>0.4689412272420151</v>
+        <v>0.8850125133171022</v>
       </c>
       <c r="E6">
-        <v>62.78066649011653</v>
+        <v>1.039230107325232</v>
       </c>
       <c r="F6">
-        <v>0.3521262617713204</v>
+        <v>0.8085310869635153</v>
       </c>
       <c r="G6">
-        <v>0.490990722645736</v>
+        <v>3.041361183394688</v>
       </c>
       <c r="H6">
-        <v>0.4909907226459228</v>
+        <v>3.041361183396234</v>
       </c>
       <c r="I6">
-        <v>0.4909907226459228</v>
+        <v>3.041361183396234</v>
       </c>
       <c r="J6">
-        <v>0.4963378220151918</v>
+        <v>0.9157117210128545</v>
       </c>
       <c r="K6">
-        <v>0.5334541768537414</v>
+        <v>0.9411169404031274</v>
       </c>
       <c r="L6">
-        <v>0.4388592171430989</v>
+        <v>1.035967342217978</v>
       </c>
       <c r="M6">
-        <v>0.4238151340756698</v>
+        <v>0.8047825115758784</v>
       </c>
       <c r="N6">
-        <v>0.4909907226459228</v>
+        <v>3.041361183396234</v>
       </c>
       <c r="O6">
-        <v>62.78066649011653</v>
+        <v>1.039230107325232</v>
       </c>
       <c r="P6">
-        <v>31.56639637594392</v>
+        <v>0.9238805971443735</v>
       </c>
       <c r="Q6">
-        <v>31.63850215606586</v>
+        <v>0.9774709141690432</v>
       </c>
       <c r="R6">
-        <v>21.20792782484459</v>
+        <v>1.629707459228327</v>
       </c>
       <c r="S6">
-        <v>21.20971019130101</v>
+        <v>0.9211576384338672</v>
       </c>
       <c r="T6">
-        <v>21.20792782484459</v>
+        <v>1.629707459228327</v>
       </c>
       <c r="U6">
-        <v>16.03003032413724</v>
+        <v>1.451208524674459</v>
       </c>
       <c r="V6">
-        <v>12.92222240383898</v>
+        <v>1.769239056418814</v>
       </c>
       <c r="W6">
-        <v>8.248148881482937</v>
+        <v>1.18396417577649</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.328923842120323</v>
+        <v>1.009299393873708</v>
       </c>
       <c r="D7">
-        <v>0.9644027205501583</v>
+        <v>0.8884880414063108</v>
       </c>
       <c r="E7">
-        <v>1.266467030223599</v>
+        <v>7.655469779151606</v>
       </c>
       <c r="F7">
-        <v>1.328923842120323</v>
+        <v>1.009299393873708</v>
       </c>
       <c r="G7">
-        <v>1.509157275242117</v>
+        <v>1.167293839124023</v>
       </c>
       <c r="H7">
-        <v>1.509157275242676</v>
+        <v>1.167293839124324</v>
       </c>
       <c r="I7">
-        <v>1.509157275242676</v>
+        <v>1.167293839124324</v>
       </c>
       <c r="J7">
-        <v>1.170696996513813</v>
+        <v>0.9368101695575413</v>
       </c>
       <c r="K7">
-        <v>1.120169431886548</v>
+        <v>1.095708006156033</v>
       </c>
       <c r="L7">
-        <v>1.17694883485914</v>
+        <v>1.058581009847352</v>
       </c>
       <c r="M7">
-        <v>1.143534403892436</v>
+        <v>0.9001364229259686</v>
       </c>
       <c r="N7">
-        <v>1.509157275242676</v>
+        <v>1.167293839124324</v>
       </c>
       <c r="O7">
-        <v>1.266467030223599</v>
+        <v>7.655469779151606</v>
       </c>
       <c r="P7">
-        <v>1.297695436171961</v>
+        <v>4.332384586512657</v>
       </c>
       <c r="Q7">
-        <v>1.218582013368706</v>
+        <v>4.296139974354574</v>
       </c>
       <c r="R7">
-        <v>1.3681827158622</v>
+        <v>3.277354337383213</v>
       </c>
       <c r="S7">
-        <v>1.255362622952578</v>
+        <v>3.200526447527619</v>
       </c>
       <c r="T7">
-        <v>1.368182715862199</v>
+        <v>3.277354337383213</v>
       </c>
       <c r="U7">
-        <v>1.318811286025102</v>
+        <v>2.692218295426795</v>
       </c>
       <c r="V7">
-        <v>1.356880483868617</v>
+        <v>2.387233404166301</v>
       </c>
       <c r="W7">
-        <v>1.210037566911087</v>
+        <v>1.838973332755355</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9242915791941786</v>
+        <v>0.3521262617713204</v>
       </c>
       <c r="D8">
-        <v>1.00659858926279</v>
+        <v>0.4689412272420151</v>
       </c>
       <c r="E8">
-        <v>1.138681694095622</v>
+        <v>62.78066649011653</v>
       </c>
       <c r="F8">
-        <v>0.9242915791941786</v>
+        <v>0.3521262617713204</v>
       </c>
       <c r="G8">
-        <v>0.9676775840454893</v>
+        <v>0.490990722645736</v>
       </c>
       <c r="H8">
-        <v>0.9676775840462181</v>
+        <v>0.4909907226459228</v>
       </c>
       <c r="I8">
-        <v>0.9676775840462181</v>
+        <v>0.4909907226459228</v>
       </c>
       <c r="J8">
-        <v>1.053555294891265</v>
+        <v>0.4963378220151918</v>
       </c>
       <c r="K8">
-        <v>1.029575373058367</v>
+        <v>0.5334541768537414</v>
       </c>
       <c r="L8">
-        <v>1.082419007774111</v>
+        <v>0.4388592171430989</v>
       </c>
       <c r="M8">
-        <v>1.029224598203457</v>
+        <v>0.4238151340756698</v>
       </c>
       <c r="N8">
-        <v>0.9676775840462181</v>
+        <v>0.4909907226459228</v>
       </c>
       <c r="O8">
-        <v>1.138681694095622</v>
+        <v>62.78066649011653</v>
       </c>
       <c r="P8">
-        <v>1.0314866366449</v>
+        <v>31.56639637594392</v>
       </c>
       <c r="Q8">
-        <v>1.096118494493444</v>
+        <v>31.63850215606586</v>
       </c>
       <c r="R8">
-        <v>1.01021695244534</v>
+        <v>21.20792782484459</v>
       </c>
       <c r="S8">
-        <v>1.038842856060355</v>
+        <v>21.20971019130101</v>
       </c>
       <c r="T8">
-        <v>1.01021695244534</v>
+        <v>21.20792782484459</v>
       </c>
       <c r="U8">
-        <v>1.021051538056821</v>
+        <v>16.03003032413724</v>
       </c>
       <c r="V8">
-        <v>1.0103767472547</v>
+        <v>12.92222240383898</v>
       </c>
       <c r="W8">
-        <v>1.029002965065751</v>
+        <v>8.248148881482937</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.563685135483127</v>
+        <v>1.328923842120323</v>
       </c>
       <c r="D9">
-        <v>0.8798935545742522</v>
+        <v>0.9644027205501583</v>
       </c>
       <c r="E9">
-        <v>1.437519589998957</v>
+        <v>1.266467030223599</v>
       </c>
       <c r="F9">
-        <v>1.563685135483127</v>
+        <v>1.328923842120323</v>
       </c>
       <c r="G9">
-        <v>2.398170418238369</v>
+        <v>1.509157275242117</v>
       </c>
       <c r="H9">
-        <v>2.398170418239275</v>
+        <v>1.509157275242676</v>
       </c>
       <c r="I9">
-        <v>2.398170418239275</v>
+        <v>1.509157275242676</v>
       </c>
       <c r="J9">
-        <v>1.425712245827338</v>
+        <v>1.170696996513813</v>
       </c>
       <c r="K9">
-        <v>1.36195913335645</v>
+        <v>1.120169431886548</v>
       </c>
       <c r="L9">
-        <v>1.310389589932087</v>
+        <v>1.17694883485914</v>
       </c>
       <c r="M9">
-        <v>1.35446842580663</v>
+        <v>1.143534403892436</v>
       </c>
       <c r="N9">
-        <v>2.398170418239275</v>
+        <v>1.509157275242676</v>
       </c>
       <c r="O9">
-        <v>1.437519589998957</v>
+        <v>1.266467030223599</v>
       </c>
       <c r="P9">
-        <v>1.500602362741042</v>
+        <v>1.297695436171961</v>
       </c>
       <c r="Q9">
-        <v>1.431615917913148</v>
+        <v>1.218582013368706</v>
       </c>
       <c r="R9">
-        <v>1.799791714573787</v>
+        <v>1.3681827158622</v>
       </c>
       <c r="S9">
-        <v>1.475638990436474</v>
+        <v>1.255362622952578</v>
       </c>
       <c r="T9">
-        <v>1.799791714573787</v>
+        <v>1.368182715862199</v>
       </c>
       <c r="U9">
-        <v>1.706271847387174</v>
+        <v>1.318811286025102</v>
       </c>
       <c r="V9">
-        <v>1.844651561557594</v>
+        <v>1.356880483868617</v>
       </c>
       <c r="W9">
-        <v>1.466474761652264</v>
+        <v>1.210037566911087</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.468100623476049</v>
+        <v>0.9242915791941786</v>
       </c>
       <c r="D10">
-        <v>0.4401361379569607</v>
+        <v>1.00659858926279</v>
       </c>
       <c r="E10">
-        <v>63.61837216381119</v>
+        <v>1.138681694095622</v>
       </c>
       <c r="F10">
-        <v>0.468100623476049</v>
+        <v>0.9242915791941786</v>
       </c>
       <c r="G10">
-        <v>0.4246522629605041</v>
+        <v>0.9676775840454893</v>
       </c>
       <c r="H10">
-        <v>0.4246522629605559</v>
+        <v>0.9676775840462181</v>
       </c>
       <c r="I10">
-        <v>0.4246522629605559</v>
+        <v>0.9676775840462181</v>
       </c>
       <c r="J10">
-        <v>0.3141138916996404</v>
+        <v>1.053555294891265</v>
       </c>
       <c r="K10">
-        <v>0.5698796013897535</v>
+        <v>1.029575373058367</v>
       </c>
       <c r="L10">
-        <v>0.4292289664009916</v>
+        <v>1.082419007774111</v>
       </c>
       <c r="M10">
-        <v>0.4238184480201554</v>
+        <v>1.029224598203457</v>
       </c>
       <c r="N10">
-        <v>0.4246522629605559</v>
+        <v>0.9676775840462181</v>
       </c>
       <c r="O10">
-        <v>63.61837216381119</v>
+        <v>1.138681694095622</v>
       </c>
       <c r="P10">
-        <v>32.04323639364362</v>
+        <v>1.0314866366449</v>
       </c>
       <c r="Q10">
-        <v>31.96624302775542</v>
+        <v>1.096118494493444</v>
       </c>
       <c r="R10">
-        <v>21.5037083500826</v>
+        <v>1.01021695244534</v>
       </c>
       <c r="S10">
-        <v>21.46686222632896</v>
+        <v>1.038842856060355</v>
       </c>
       <c r="T10">
-        <v>21.5037083500826</v>
+        <v>1.01021695244534</v>
       </c>
       <c r="U10">
-        <v>16.20630973548686</v>
+        <v>1.021051538056821</v>
       </c>
       <c r="V10">
-        <v>13.0499782409816</v>
+        <v>1.0103767472547</v>
       </c>
       <c r="W10">
-        <v>8.336037761964414</v>
+        <v>1.029002965065751</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9284619058983132</v>
+        <v>1.563685135483127</v>
       </c>
       <c r="D11">
-        <v>0.8304103341332331</v>
+        <v>0.8798935545742522</v>
       </c>
       <c r="E11">
-        <v>1.042761286012519</v>
+        <v>1.437519589998957</v>
       </c>
       <c r="F11">
-        <v>0.9284619058983132</v>
+        <v>1.563685135483127</v>
       </c>
       <c r="G11">
-        <v>3.10305059908364</v>
+        <v>2.398170418238369</v>
       </c>
       <c r="H11">
-        <v>3.103050599085706</v>
+        <v>2.398170418239275</v>
       </c>
       <c r="I11">
-        <v>3.103050599085706</v>
+        <v>2.398170418239275</v>
       </c>
       <c r="J11">
-        <v>0.9362183094047446</v>
+        <v>1.425712245827338</v>
       </c>
       <c r="K11">
-        <v>0.9832238117828218</v>
+        <v>1.36195913335645</v>
       </c>
       <c r="L11">
-        <v>1.094202156390468</v>
+        <v>1.310389589932087</v>
       </c>
       <c r="M11">
-        <v>0.8616998150063543</v>
+        <v>1.35446842580663</v>
       </c>
       <c r="N11">
-        <v>3.103050599085706</v>
+        <v>2.398170418239275</v>
       </c>
       <c r="O11">
-        <v>1.042761286012519</v>
+        <v>1.437519589998957</v>
       </c>
       <c r="P11">
-        <v>0.9856115959554159</v>
+        <v>1.500602362741042</v>
       </c>
       <c r="Q11">
-        <v>0.9894897977086317</v>
+        <v>1.431615917913148</v>
       </c>
       <c r="R11">
-        <v>1.691424596998846</v>
+        <v>1.799791714573787</v>
       </c>
       <c r="S11">
-        <v>0.9691471671051922</v>
+        <v>1.475638990436474</v>
       </c>
       <c r="T11">
-        <v>1.691424596998846</v>
+        <v>1.799791714573787</v>
       </c>
       <c r="U11">
-        <v>1.502623025100321</v>
+        <v>1.706271847387174</v>
       </c>
       <c r="V11">
-        <v>1.822708539897398</v>
+        <v>1.844651561557594</v>
       </c>
       <c r="W11">
-        <v>1.22250352721427</v>
+        <v>1.466474761652264</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8665669973894918</v>
+        <v>0.468100623476049</v>
       </c>
       <c r="D12">
-        <v>0.8353854837408206</v>
+        <v>0.4401361379569607</v>
       </c>
       <c r="E12">
-        <v>10.83378331919245</v>
+        <v>63.61837216381119</v>
       </c>
       <c r="F12">
-        <v>0.8665669973894918</v>
+        <v>0.468100623476049</v>
       </c>
       <c r="G12">
-        <v>0.7959610593592031</v>
+        <v>0.4246522629605041</v>
       </c>
       <c r="H12">
-        <v>0.7959610593588868</v>
+        <v>0.4246522629605559</v>
       </c>
       <c r="I12">
-        <v>0.7959610593588868</v>
+        <v>0.4246522629605559</v>
       </c>
       <c r="J12">
-        <v>0.5873590428804621</v>
+        <v>0.3141138916996404</v>
       </c>
       <c r="K12">
-        <v>1.015212095815772</v>
+        <v>0.5698796013897535</v>
       </c>
       <c r="L12">
-        <v>0.8726025331702975</v>
+        <v>0.4292289664009916</v>
       </c>
       <c r="M12">
-        <v>0.8563747371495902</v>
+        <v>0.4238184480201554</v>
       </c>
       <c r="N12">
-        <v>0.7959610593588868</v>
+        <v>0.4246522629605559</v>
       </c>
       <c r="O12">
-        <v>10.83378331919245</v>
+        <v>63.61837216381119</v>
       </c>
       <c r="P12">
-        <v>5.85017515829097</v>
+        <v>32.04323639364362</v>
       </c>
       <c r="Q12">
-        <v>5.710571181036455</v>
+        <v>31.96624302775542</v>
       </c>
       <c r="R12">
-        <v>4.165437125313609</v>
+        <v>21.5037083500826</v>
       </c>
       <c r="S12">
-        <v>4.095903119820801</v>
+        <v>21.46686222632896</v>
       </c>
       <c r="T12">
-        <v>4.165437125313608</v>
+        <v>21.5037083500826</v>
       </c>
       <c r="U12">
-        <v>3.270917604705322</v>
+        <v>16.20630973548686</v>
       </c>
       <c r="V12">
-        <v>2.775926295636035</v>
+        <v>13.0499782409816</v>
       </c>
       <c r="W12">
-        <v>2.082905658587221</v>
+        <v>8.336037761964414</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.400394642708776</v>
+        <v>0.9284619058983132</v>
       </c>
       <c r="D13">
-        <v>1.019541233374654</v>
+        <v>0.8304103341332331</v>
       </c>
       <c r="E13">
-        <v>1.016124352053473</v>
+        <v>1.042761286012519</v>
       </c>
       <c r="F13">
-        <v>1.400394642708776</v>
+        <v>0.9284619058983132</v>
       </c>
       <c r="G13">
-        <v>1.013494153556973</v>
+        <v>3.10305059908364</v>
       </c>
       <c r="H13">
-        <v>1.013494153556818</v>
+        <v>3.103050599085706</v>
       </c>
       <c r="I13">
-        <v>1.013494153556818</v>
+        <v>3.103050599085706</v>
       </c>
       <c r="J13">
-        <v>0.6915793223098651</v>
+        <v>0.9362183094047446</v>
       </c>
       <c r="K13">
-        <v>1.033340364114128</v>
+        <v>0.9832238117828218</v>
       </c>
       <c r="L13">
-        <v>1.087953925785121</v>
+        <v>1.094202156390468</v>
       </c>
       <c r="M13">
-        <v>1.19397876663804</v>
+        <v>0.8616998150063543</v>
       </c>
       <c r="N13">
-        <v>1.013494153556818</v>
+        <v>3.103050599085706</v>
       </c>
       <c r="O13">
-        <v>1.016124352053473</v>
+        <v>1.042761286012519</v>
       </c>
       <c r="P13">
-        <v>1.208259497381124</v>
+        <v>0.9856115959554159</v>
       </c>
       <c r="Q13">
-        <v>0.853851837181669</v>
+        <v>0.9894897977086317</v>
       </c>
       <c r="R13">
-        <v>1.143337716106355</v>
+        <v>1.691424596998846</v>
       </c>
       <c r="S13">
-        <v>1.036032772357371</v>
+        <v>0.9691471671051922</v>
       </c>
       <c r="T13">
-        <v>1.143337716106356</v>
+        <v>1.691424596998846</v>
       </c>
       <c r="U13">
-        <v>1.030398117657233</v>
+        <v>1.502623025100321</v>
       </c>
       <c r="V13">
-        <v>1.02701732483715</v>
+        <v>1.822708539897398</v>
       </c>
       <c r="W13">
-        <v>1.057050845067609</v>
+        <v>1.22250352721427</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0007090084299999996</v>
+        <v>0.8665669973894918</v>
       </c>
       <c r="D14">
-        <v>-0.004903900600000006</v>
+        <v>0.8353854837408206</v>
       </c>
       <c r="E14">
-        <v>121.1415100000001</v>
+        <v>10.83378331919245</v>
       </c>
       <c r="F14">
-        <v>0.0007090084299999996</v>
+        <v>0.8665669973894918</v>
       </c>
       <c r="G14">
-        <v>0.01028267199999999</v>
+        <v>0.7959610593592031</v>
       </c>
       <c r="H14">
-        <v>0.01028267199999999</v>
+        <v>0.7959610593588868</v>
       </c>
       <c r="I14">
-        <v>0.01028267199999999</v>
+        <v>0.7959610593588868</v>
       </c>
       <c r="J14">
-        <v>-0.004928100800000001</v>
+        <v>0.5873590428804621</v>
       </c>
       <c r="K14">
-        <v>0.02555648000000004</v>
+        <v>1.015212095815772</v>
       </c>
       <c r="L14">
-        <v>-0.01224095599999999</v>
+        <v>0.8726025331702975</v>
       </c>
       <c r="M14">
-        <v>-0.0009139994799999984</v>
+        <v>0.8563747371495902</v>
       </c>
       <c r="N14">
-        <v>0.01028267199999999</v>
+        <v>0.7959610593588868</v>
       </c>
       <c r="O14">
-        <v>121.1415100000001</v>
+        <v>10.83378331919245</v>
       </c>
       <c r="P14">
-        <v>60.57110950421506</v>
+        <v>5.85017515829097</v>
       </c>
       <c r="Q14">
-        <v>60.56829094960006</v>
+        <v>5.710571181036455</v>
       </c>
       <c r="R14">
-        <v>40.38416722681004</v>
+        <v>4.165437125313609</v>
       </c>
       <c r="S14">
-        <v>40.37909696921004</v>
+        <v>4.095903119820801</v>
       </c>
       <c r="T14">
-        <v>40.38416722681004</v>
+        <v>4.165437125313608</v>
       </c>
       <c r="U14">
-        <v>30.28689339490753</v>
+        <v>3.270917604705322</v>
       </c>
       <c r="V14">
-        <v>24.23157125032602</v>
+        <v>2.775926295636035</v>
       </c>
       <c r="W14">
-        <v>15.14438390044377</v>
+        <v>2.082905658587221</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0009807710899999999</v>
+        <v>1.400394642708776</v>
       </c>
       <c r="D15">
-        <v>0.0053520281</v>
+        <v>1.019541233374654</v>
       </c>
       <c r="E15">
-        <v>-0.012241339</v>
+        <v>1.016124352053473</v>
       </c>
       <c r="F15">
-        <v>-0.0009807710899999999</v>
+        <v>1.400394642708776</v>
       </c>
       <c r="G15">
-        <v>-0.016129659</v>
+        <v>1.013494153556973</v>
       </c>
       <c r="H15">
-        <v>-0.016129659</v>
+        <v>1.013494153556818</v>
       </c>
       <c r="I15">
-        <v>-0.016129659</v>
+        <v>1.013494153556818</v>
       </c>
       <c r="J15">
-        <v>0.0044579726</v>
+        <v>0.6915793223098651</v>
       </c>
       <c r="K15">
-        <v>0.0070900043</v>
+        <v>1.033340364114128</v>
       </c>
       <c r="L15">
-        <v>60.5637</v>
+        <v>1.087953925785121</v>
       </c>
       <c r="M15">
-        <v>-0.01021144</v>
+        <v>1.19397876663804</v>
       </c>
       <c r="N15">
-        <v>-0.016129659</v>
+        <v>1.013494153556818</v>
       </c>
       <c r="O15">
-        <v>-0.012241339</v>
+        <v>1.016124352053473</v>
       </c>
       <c r="P15">
-        <v>-0.006611055045</v>
+        <v>1.208259497381124</v>
       </c>
       <c r="Q15">
-        <v>-0.0038916832</v>
+        <v>0.853851837181669</v>
       </c>
       <c r="R15">
-        <v>-0.009783923030000001</v>
+        <v>1.143337716106355</v>
       </c>
       <c r="S15">
-        <v>-0.002921379163333333</v>
+        <v>1.036032772357371</v>
       </c>
       <c r="T15">
-        <v>-0.009783923030000001</v>
+        <v>1.143337716106356</v>
       </c>
       <c r="U15">
-        <v>-0.0062234491225</v>
+        <v>1.030398117657233</v>
       </c>
       <c r="V15">
-        <v>-0.008204691098000001</v>
+        <v>1.02701732483715</v>
       </c>
       <c r="W15">
-        <v>7.56762959948875</v>
+        <v>1.057050845067609</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.011910204</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="D16">
-        <v>0.012393713</v>
+        <v>-0.004903900600000006</v>
       </c>
       <c r="E16">
-        <v>0.010282671</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="F16">
-        <v>0.011910204</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="G16">
-        <v>181.71412</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="H16">
-        <v>181.71412</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="I16">
-        <v>181.71412</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="J16">
-        <v>0.00062515737</v>
+        <v>-0.004928100800000001</v>
       </c>
       <c r="K16">
-        <v>0.0061919611</v>
+        <v>0.02555648000000004</v>
       </c>
       <c r="L16">
-        <v>-0.016138361</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="M16">
-        <v>0.004912388</v>
+        <v>-0.0009139994799999984</v>
       </c>
       <c r="N16">
-        <v>181.71412</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="O16">
-        <v>0.010282671</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="P16">
-        <v>0.0110964375</v>
+        <v>60.57110950421506</v>
       </c>
       <c r="Q16">
-        <v>0.005453914185</v>
+        <v>60.56829094960006</v>
       </c>
       <c r="R16">
-        <v>60.57877095833334</v>
+        <v>40.38416722681004</v>
       </c>
       <c r="S16">
-        <v>0.00760601079</v>
+        <v>40.37909696921004</v>
       </c>
       <c r="T16">
-        <v>60.57877095833334</v>
+        <v>40.38416722681004</v>
       </c>
       <c r="U16">
-        <v>45.4342345080925</v>
+        <v>30.28689339490753</v>
       </c>
       <c r="V16">
-        <v>72.69021160647401</v>
+        <v>24.23157125032602</v>
       </c>
       <c r="W16">
-        <v>22.71803721668375</v>
+        <v>15.14438390044377</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.0046969105</v>
+        <v>-0.0009807710899999999</v>
       </c>
       <c r="D17">
-        <v>0.01430689</v>
+        <v>0.0053520281</v>
       </c>
       <c r="E17">
-        <v>0.02125732</v>
+        <v>-0.012241339</v>
       </c>
       <c r="F17">
-        <v>0.0046969105</v>
+        <v>-0.0009807710899999999</v>
       </c>
       <c r="G17">
-        <v>-0.019704316</v>
+        <v>-0.016129659</v>
       </c>
       <c r="H17">
-        <v>-0.019704316</v>
+        <v>-0.016129659</v>
       </c>
       <c r="I17">
-        <v>-0.019704316</v>
+        <v>-0.016129659</v>
       </c>
       <c r="J17">
-        <v>-0.0053795541</v>
+        <v>0.0044579726</v>
       </c>
       <c r="K17">
-        <v>-0.012287886</v>
+        <v>0.0070900043</v>
       </c>
       <c r="L17">
-        <v>0.0029315895</v>
+        <v>60.5637</v>
       </c>
       <c r="M17">
-        <v>-0.0070499457</v>
+        <v>-0.01021144</v>
       </c>
       <c r="N17">
-        <v>-0.019704316</v>
+        <v>-0.016129659</v>
       </c>
       <c r="O17">
-        <v>0.02125732</v>
+        <v>-0.012241339</v>
       </c>
       <c r="P17">
-        <v>0.01297711525</v>
+        <v>-0.006611055045</v>
       </c>
       <c r="Q17">
-        <v>0.007938882950000002</v>
+        <v>-0.0038916832</v>
       </c>
       <c r="R17">
-        <v>0.002083304833333334</v>
+        <v>-0.009783923030000001</v>
       </c>
       <c r="S17">
-        <v>0.006858225466666667</v>
+        <v>-0.002921379163333333</v>
       </c>
       <c r="T17">
-        <v>0.002083304833333334</v>
+        <v>-0.009783923030000001</v>
       </c>
       <c r="U17">
-        <v>0.0002175901000000008</v>
+        <v>-0.0062234491225</v>
       </c>
       <c r="V17">
-        <v>-0.003766791119999999</v>
+        <v>-0.008204691098000001</v>
       </c>
       <c r="W17">
-        <v>-0.0001536239749999995</v>
+        <v>7.56762959948875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.44790377932507</v>
+        <v>0.011910204</v>
       </c>
       <c r="D18">
-        <v>-0.001431498169041096</v>
+        <v>0.012393713</v>
       </c>
       <c r="E18">
-        <v>3.723887617591233</v>
+        <v>0.010282671</v>
       </c>
       <c r="F18">
-        <v>7.44790377932507</v>
+        <v>0.011910204</v>
       </c>
       <c r="G18">
-        <v>11.14439964266685</v>
+        <v>181.71412</v>
       </c>
       <c r="H18">
-        <v>11.1443996426663</v>
+        <v>181.71412</v>
       </c>
       <c r="I18">
-        <v>11.1443996426663</v>
+        <v>181.71412</v>
       </c>
       <c r="J18">
-        <v>3.715633884749862</v>
+        <v>0.00062515737</v>
       </c>
       <c r="K18">
-        <v>3.432719162305481</v>
+        <v>0.0061919611</v>
       </c>
       <c r="L18">
-        <v>4.543554270116712</v>
+        <v>-0.016138361</v>
       </c>
       <c r="M18">
-        <v>3.641202638158905</v>
+        <v>0.004912388</v>
       </c>
       <c r="N18">
-        <v>11.1443996426663</v>
+        <v>181.71412</v>
       </c>
       <c r="O18">
-        <v>3.723887617591233</v>
+        <v>0.010282671</v>
       </c>
       <c r="P18">
-        <v>5.585895698458152</v>
+        <v>0.0110964375</v>
       </c>
       <c r="Q18">
-        <v>3.719760751170548</v>
+        <v>0.005453914185</v>
       </c>
       <c r="R18">
-        <v>7.438730346527534</v>
+        <v>60.57877095833334</v>
       </c>
       <c r="S18">
-        <v>4.962475093888721</v>
+        <v>0.00760601079</v>
       </c>
       <c r="T18">
-        <v>7.438730346527534</v>
+        <v>60.57877095833334</v>
       </c>
       <c r="U18">
-        <v>6.507956231083116</v>
+        <v>45.4342345080925</v>
       </c>
       <c r="V18">
-        <v>7.435244913399752</v>
+        <v>72.69021160647401</v>
       </c>
       <c r="W18">
-        <v>4.705983687093065</v>
+        <v>22.71803721668375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.000392871033052631</v>
+        <v>0.0046969105</v>
       </c>
       <c r="D19">
-        <v>3.505247886911578</v>
+        <v>0.01430689</v>
       </c>
       <c r="E19">
-        <v>6.779364075842111</v>
+        <v>0.02125732</v>
       </c>
       <c r="F19">
-        <v>0.000392871033052631</v>
+        <v>0.0046969105</v>
       </c>
       <c r="G19">
-        <v>10.16303285720053</v>
+        <v>-0.019704316</v>
       </c>
       <c r="H19">
-        <v>10.16303285720053</v>
+        <v>-0.019704316</v>
       </c>
       <c r="I19">
-        <v>10.16303285720053</v>
+        <v>-0.019704316</v>
       </c>
       <c r="J19">
-        <v>3.34494036104579</v>
+        <v>-0.0053795541</v>
       </c>
       <c r="K19">
-        <v>-0.001239729908157892</v>
+        <v>-0.012287886</v>
       </c>
       <c r="L19">
-        <v>0.001688891236842106</v>
+        <v>0.0029315895</v>
       </c>
       <c r="M19">
-        <v>0.002659866528947368</v>
+        <v>-0.0070499457</v>
       </c>
       <c r="N19">
-        <v>10.16303285720053</v>
+        <v>-0.019704316</v>
       </c>
       <c r="O19">
-        <v>6.779364075842111</v>
+        <v>0.02125732</v>
       </c>
       <c r="P19">
-        <v>3.389878473437582</v>
+        <v>0.01297711525</v>
       </c>
       <c r="Q19">
-        <v>5.06215221844395</v>
+        <v>0.007938882950000002</v>
       </c>
       <c r="R19">
-        <v>5.647596601358562</v>
+        <v>0.002083304833333334</v>
       </c>
       <c r="S19">
-        <v>3.374899102640318</v>
+        <v>0.006858225466666667</v>
       </c>
       <c r="T19">
-        <v>5.647596601358564</v>
+        <v>0.002083304833333334</v>
       </c>
       <c r="U19">
-        <v>5.07193254128037</v>
+        <v>0.0002175901000000008</v>
       </c>
       <c r="V19">
-        <v>6.090152604464402</v>
+        <v>-0.003766791119999999</v>
       </c>
       <c r="W19">
-        <v>2.974510884986336</v>
+        <v>-0.0001536239749999995</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.007059826627368421</v>
+        <v>7.44790377932507</v>
       </c>
       <c r="D20">
-        <v>0.0002176366999999996</v>
+        <v>-0.001431498169041096</v>
       </c>
       <c r="E20">
-        <v>13.95229603842106</v>
+        <v>3.723887617591233</v>
       </c>
       <c r="F20">
-        <v>0.007059826627368421</v>
+        <v>7.44790377932507</v>
       </c>
       <c r="G20">
-        <v>0.008372614447368422</v>
+        <v>11.14439964266685</v>
       </c>
       <c r="H20">
-        <v>0.008372614442105264</v>
+        <v>11.1443996426663</v>
       </c>
       <c r="I20">
-        <v>0.008372614442105264</v>
+        <v>11.1443996426663</v>
       </c>
       <c r="J20">
-        <v>-0.004860329194736841</v>
+        <v>3.715633884749862</v>
       </c>
       <c r="K20">
-        <v>0.01755527272105263</v>
+        <v>3.432719162305481</v>
       </c>
       <c r="L20">
-        <v>6.9789763701</v>
+        <v>4.543554270116712</v>
       </c>
       <c r="M20">
-        <v>-9.935083421052625E-05</v>
+        <v>3.641202638158905</v>
       </c>
       <c r="N20">
-        <v>0.008372614442105264</v>
+        <v>11.1443996426663</v>
       </c>
       <c r="O20">
-        <v>13.95229603842106</v>
+        <v>3.723887617591233</v>
       </c>
       <c r="P20">
-        <v>6.979677932524214</v>
+        <v>5.585895698458152</v>
       </c>
       <c r="Q20">
-        <v>6.973717854613161</v>
+        <v>3.719760751170548</v>
       </c>
       <c r="R20">
-        <v>4.655909493163511</v>
+        <v>7.438730346527534</v>
       </c>
       <c r="S20">
-        <v>4.651498511951231</v>
+        <v>4.962475093888721</v>
       </c>
       <c r="T20">
-        <v>4.65590949316351</v>
+        <v>7.438730346527534</v>
       </c>
       <c r="U20">
-        <v>3.490717037573949</v>
+        <v>6.507956231083116</v>
       </c>
       <c r="V20">
-        <v>2.79424815294758</v>
+        <v>7.435244913399752</v>
       </c>
       <c r="W20">
-        <v>2.61993975987283</v>
+        <v>4.705983687093065</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.0008902999245786065</v>
+        <v>0.000392871033052631</v>
       </c>
       <c r="D21">
-        <v>1.618634134740093</v>
+        <v>3.505247886911578</v>
       </c>
       <c r="E21">
-        <v>0.001759181932168311</v>
+        <v>6.779364075842111</v>
       </c>
       <c r="F21">
-        <v>-0.0008902999245786065</v>
+        <v>0.000392871033052631</v>
       </c>
       <c r="G21">
-        <v>-0.0007078795867205206</v>
+        <v>10.16303285720053</v>
       </c>
       <c r="H21">
-        <v>-0.0007078795867205206</v>
+        <v>10.16303285720053</v>
       </c>
       <c r="I21">
-        <v>-0.0007078795867205206</v>
+        <v>10.16303285720053</v>
       </c>
       <c r="J21">
-        <v>0.02167873897790513</v>
+        <v>3.34494036104579</v>
       </c>
       <c r="K21">
-        <v>-0.001479546310663426</v>
+        <v>-0.001239729908157892</v>
       </c>
       <c r="L21">
-        <v>4.048563920433525</v>
+        <v>0.001688891236842106</v>
       </c>
       <c r="M21">
-        <v>2.089197074806371</v>
+        <v>0.002659866528947368</v>
       </c>
       <c r="N21">
-        <v>-0.0007078795867205206</v>
+        <v>10.16303285720053</v>
       </c>
       <c r="O21">
-        <v>0.001759181932168311</v>
+        <v>6.779364075842111</v>
       </c>
       <c r="P21">
-        <v>0.0004344410037948523</v>
+        <v>3.389878473437582</v>
       </c>
       <c r="Q21">
-        <v>0.01171896045503672</v>
+        <v>5.06215221844395</v>
       </c>
       <c r="R21">
-        <v>5.366747362306135E-05</v>
+        <v>5.647596601358562</v>
       </c>
       <c r="S21">
-        <v>0.007515873661831612</v>
+        <v>3.374899102640318</v>
       </c>
       <c r="T21">
-        <v>5.366747362306135E-05</v>
+        <v>5.647596601358564</v>
       </c>
       <c r="U21">
-        <v>0.005459935349693579</v>
+        <v>5.07193254128037</v>
       </c>
       <c r="V21">
-        <v>0.004226372362410758</v>
+        <v>6.090152604464402</v>
       </c>
       <c r="W21">
-        <v>0.9720944156335125</v>
+        <v>2.974510884986336</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6.293782320883294</v>
+        <v>0.007059826627368421</v>
       </c>
       <c r="D22">
-        <v>0.6547557923070556</v>
+        <v>0.0002176366999999996</v>
       </c>
       <c r="E22">
-        <v>1.827441551796372</v>
+        <v>13.95229603842106</v>
       </c>
       <c r="F22">
-        <v>6.293782320883294</v>
+        <v>0.007059826627368421</v>
       </c>
       <c r="G22">
-        <v>0.7542481882576328</v>
+        <v>0.008372614447368422</v>
       </c>
       <c r="H22">
-        <v>0.7542481882576304</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="I22">
-        <v>0.7542481882576304</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="J22">
-        <v>0.1104950233091275</v>
+        <v>-0.004860329194736841</v>
       </c>
       <c r="K22">
-        <v>2.266937972922715</v>
+        <v>0.01755527272105263</v>
       </c>
       <c r="L22">
-        <v>0.0006869477132776931</v>
+        <v>6.9789763701</v>
       </c>
       <c r="M22">
-        <v>1.48290195909784</v>
+        <v>-9.935083421052625E-05</v>
       </c>
       <c r="N22">
-        <v>0.7542481882576304</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="O22">
-        <v>1.827441551796372</v>
+        <v>13.95229603842106</v>
       </c>
       <c r="P22">
-        <v>4.060611936339833</v>
+        <v>6.979677932524214</v>
       </c>
       <c r="Q22">
-        <v>0.9689682875527498</v>
+        <v>6.973717854613161</v>
       </c>
       <c r="R22">
-        <v>2.958490686979099</v>
+        <v>4.655909493163511</v>
       </c>
       <c r="S22">
-        <v>2.743906298662931</v>
+        <v>4.651498511951231</v>
       </c>
       <c r="T22">
-        <v>2.958490686979099</v>
+        <v>4.65590949316351</v>
       </c>
       <c r="U22">
-        <v>2.246491771061606</v>
+        <v>3.490717037573949</v>
       </c>
       <c r="V22">
-        <v>1.948043054500811</v>
+        <v>2.79424815294758</v>
       </c>
       <c r="W22">
-        <v>1.673906219535914</v>
+        <v>2.61993975987283</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>7.73658349294782</v>
+        <v>-0.0008902999245786065</v>
       </c>
       <c r="D23">
-        <v>0.4716841930581974</v>
+        <v>1.618634134740093</v>
       </c>
       <c r="E23">
-        <v>0.0001533346788089328</v>
+        <v>0.001759181932168311</v>
       </c>
       <c r="F23">
-        <v>7.73658349294782</v>
+        <v>-0.0008902999245786065</v>
       </c>
       <c r="G23">
-        <v>0.2402145757208905</v>
+        <v>-0.0007078795867205206</v>
       </c>
       <c r="H23">
-        <v>0.2402145757208905</v>
+        <v>-0.0007078795867205206</v>
       </c>
       <c r="I23">
-        <v>0.2402145757208905</v>
+        <v>-0.0007078795867205206</v>
       </c>
       <c r="J23">
-        <v>1.031889489027874</v>
+        <v>0.02167873897790513</v>
       </c>
       <c r="K23">
-        <v>0.149880501300373</v>
+        <v>-0.001479546310663426</v>
       </c>
       <c r="L23">
-        <v>1.12070183284987</v>
+        <v>4.048563920433525</v>
       </c>
       <c r="M23">
-        <v>0.4045366655406436</v>
+        <v>2.089197074806371</v>
       </c>
       <c r="N23">
-        <v>0.2402145757208905</v>
+        <v>-0.0007078795867205206</v>
       </c>
       <c r="O23">
-        <v>0.0001533346788089328</v>
+        <v>0.001759181932168311</v>
       </c>
       <c r="P23">
-        <v>3.868368413813315</v>
+        <v>0.0004344410037948523</v>
       </c>
       <c r="Q23">
-        <v>0.5160214118533413</v>
+        <v>0.01171896045503672</v>
       </c>
       <c r="R23">
-        <v>2.65898380111584</v>
+        <v>5.366747362306135E-05</v>
       </c>
       <c r="S23">
-        <v>2.922875438884834</v>
+        <v>0.007515873661831612</v>
       </c>
       <c r="T23">
-        <v>2.65898380111584</v>
+        <v>5.366747362306135E-05</v>
       </c>
       <c r="U23">
-        <v>2.252210223093848</v>
+        <v>0.005459935349693579</v>
       </c>
       <c r="V23">
-        <v>1.849811093619257</v>
+        <v>0.004226372362410758</v>
       </c>
       <c r="W23">
-        <v>1.394455510640559</v>
+        <v>0.9720944156335125</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>-6.495477200630874E-05</v>
+        <v>6.293782320883294</v>
       </c>
       <c r="D24">
-        <v>0.4776134271255647</v>
+        <v>0.6547557923070556</v>
       </c>
       <c r="E24">
-        <v>0.2407556825720928</v>
+        <v>1.827441551796372</v>
       </c>
       <c r="F24">
-        <v>-6.495477200630874E-05</v>
+        <v>6.293782320883294</v>
       </c>
       <c r="G24">
-        <v>-0.0003113697009199246</v>
+        <v>0.7542481882576328</v>
       </c>
       <c r="H24">
-        <v>-0.0003113697009666391</v>
+        <v>0.7542481882576304</v>
       </c>
       <c r="I24">
-        <v>-0.0003113697009666391</v>
+        <v>0.7542481882576304</v>
       </c>
       <c r="J24">
-        <v>1.717593411598698</v>
+        <v>0.1104950233091275</v>
       </c>
       <c r="K24">
-        <v>0.9855229993493944</v>
+        <v>2.266937972922715</v>
       </c>
       <c r="L24">
-        <v>1.688939989499504</v>
+        <v>0.0006869477132776931</v>
       </c>
       <c r="M24">
-        <v>0.9607155705145068</v>
+        <v>1.48290195909784</v>
       </c>
       <c r="N24">
-        <v>-0.0003113697009666391</v>
+        <v>0.7542481882576304</v>
       </c>
       <c r="O24">
-        <v>0.2407556825720928</v>
+        <v>1.827441551796372</v>
       </c>
       <c r="P24">
-        <v>0.1203453639000433</v>
+        <v>4.060611936339833</v>
       </c>
       <c r="Q24">
-        <v>0.9791745470853953</v>
+        <v>0.9689682875527498</v>
       </c>
       <c r="R24">
-        <v>0.08012645269970663</v>
+        <v>2.958490686979099</v>
       </c>
       <c r="S24">
-        <v>0.6527613797995947</v>
+        <v>2.743906298662931</v>
       </c>
       <c r="T24">
-        <v>0.08012645269970663</v>
+        <v>2.958490686979099</v>
       </c>
       <c r="U24">
-        <v>0.4894931924244544</v>
+        <v>2.246491771061606</v>
       </c>
       <c r="V24">
-        <v>0.3915322799993702</v>
+        <v>1.948043054500811</v>
       </c>
       <c r="W24">
-        <v>0.7588455945233485</v>
+        <v>1.673906219535914</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.0005104511313434171</v>
+        <v>7.73658349294782</v>
       </c>
       <c r="D25">
-        <v>0.01837021655258742</v>
+        <v>0.4716841930581974</v>
       </c>
       <c r="E25">
-        <v>0.0008468420349343653</v>
+        <v>0.0001533346788089328</v>
       </c>
       <c r="F25">
-        <v>0.0005104511313434171</v>
+        <v>7.73658349294782</v>
       </c>
       <c r="G25">
-        <v>0.06556308987453784</v>
+        <v>0.2402145757208905</v>
       </c>
       <c r="H25">
-        <v>0.06556308987453784</v>
+        <v>0.2402145757208905</v>
       </c>
       <c r="I25">
-        <v>0.06556308987453784</v>
+        <v>0.2402145757208905</v>
       </c>
       <c r="J25">
-        <v>3.773439065028473</v>
+        <v>1.031889489027874</v>
       </c>
       <c r="K25">
-        <v>0.8704000970102159</v>
+        <v>0.149880501300373</v>
       </c>
       <c r="L25">
-        <v>0.1466211963899108</v>
+        <v>1.12070183284987</v>
       </c>
       <c r="M25">
-        <v>0.02061018035849509</v>
+        <v>0.4045366655406436</v>
       </c>
       <c r="N25">
-        <v>0.06556308987453784</v>
+        <v>0.2402145757208905</v>
       </c>
       <c r="O25">
-        <v>0.0008468420349343653</v>
+        <v>0.0001533346788089328</v>
       </c>
       <c r="P25">
-        <v>0.0006786465831388912</v>
+        <v>3.868368413813315</v>
       </c>
       <c r="Q25">
-        <v>1.887142953531704</v>
+        <v>0.5160214118533413</v>
       </c>
       <c r="R25">
-        <v>0.02230679434693854</v>
+        <v>2.65898380111584</v>
       </c>
       <c r="S25">
-        <v>1.258265452731584</v>
+        <v>2.922875438884834</v>
       </c>
       <c r="T25">
-        <v>0.02230679434693854</v>
+        <v>2.65898380111584</v>
       </c>
       <c r="U25">
-        <v>0.9600898620173223</v>
+        <v>2.252210223093848</v>
       </c>
       <c r="V25">
-        <v>0.7811845075887653</v>
+        <v>1.849811093619257</v>
       </c>
       <c r="W25">
-        <v>0.6120451422975624</v>
+        <v>1.394455510640559</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>-0.000204237385315702</v>
+        <v>-6.495477200630874E-05</v>
       </c>
       <c r="D26">
-        <v>1.31839019444241</v>
+        <v>0.4776134271255647</v>
       </c>
       <c r="E26">
-        <v>3.704724255056352</v>
+        <v>0.2407556825720928</v>
       </c>
       <c r="F26">
-        <v>-0.000204237385315702</v>
+        <v>-6.495477200630874E-05</v>
       </c>
       <c r="G26">
-        <v>0.4244749908493259</v>
+        <v>-0.0003113697009199246</v>
       </c>
       <c r="H26">
-        <v>0.424474990845241</v>
+        <v>-0.0003113697009666391</v>
       </c>
       <c r="I26">
-        <v>0.424474990845241</v>
+        <v>-0.0003113697009666391</v>
       </c>
       <c r="J26">
-        <v>-0.0006577877870660543</v>
+        <v>1.717593411598698</v>
       </c>
       <c r="K26">
-        <v>1.522941917692442</v>
+        <v>0.9855229993493944</v>
       </c>
       <c r="L26">
-        <v>0.1863433773981615</v>
+        <v>1.688939989499504</v>
       </c>
       <c r="M26">
-        <v>0.1427239604622257</v>
+        <v>0.9607155705145068</v>
       </c>
       <c r="N26">
-        <v>0.424474990845241</v>
+        <v>-0.0003113697009666391</v>
       </c>
       <c r="O26">
-        <v>3.704724255056352</v>
+        <v>0.2407556825720928</v>
       </c>
       <c r="P26">
-        <v>1.852260008835518</v>
+        <v>0.1203453639000433</v>
       </c>
       <c r="Q26">
-        <v>1.852033233634643</v>
+        <v>0.9791745470853953</v>
       </c>
       <c r="R26">
-        <v>1.376331669505426</v>
+        <v>0.08012645269970663</v>
       </c>
       <c r="S26">
-        <v>1.234620743294657</v>
+        <v>0.6527613797995947</v>
       </c>
       <c r="T26">
-        <v>1.376331669505426</v>
+        <v>0.08012645269970663</v>
       </c>
       <c r="U26">
-        <v>1.032084305182303</v>
+        <v>0.4894931924244544</v>
       </c>
       <c r="V26">
-        <v>0.9105624423148905</v>
+        <v>0.3915322799993702</v>
       </c>
       <c r="W26">
-        <v>0.9123420838405563</v>
+        <v>0.7588455945233485</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.004119490844798204</v>
+        <v>0.0005104511313434171</v>
       </c>
       <c r="D27">
-        <v>0.005673294833611329</v>
+        <v>0.01837021655258742</v>
       </c>
       <c r="E27">
-        <v>7.124285368149723</v>
+        <v>0.0008468420349343653</v>
       </c>
       <c r="F27">
-        <v>-0.004119490844798204</v>
+        <v>0.0005104511313434171</v>
       </c>
       <c r="G27">
-        <v>0.1107240767835515</v>
+        <v>0.06556308987453784</v>
       </c>
       <c r="H27">
-        <v>0.1107240767835515</v>
+        <v>0.06556308987453784</v>
       </c>
       <c r="I27">
-        <v>0.1107240767835515</v>
+        <v>0.06556308987453784</v>
       </c>
       <c r="J27">
-        <v>5.178547965478611</v>
+        <v>3.773439065028473</v>
       </c>
       <c r="K27">
-        <v>0.01042179611449516</v>
+        <v>0.8704000970102159</v>
       </c>
       <c r="L27">
-        <v>6.387585543967804</v>
+        <v>0.1466211963899108</v>
       </c>
       <c r="M27">
-        <v>0.04013106952668354</v>
+        <v>0.02061018035849509</v>
       </c>
       <c r="N27">
-        <v>0.1107240767835515</v>
+        <v>0.06556308987453784</v>
       </c>
       <c r="O27">
-        <v>7.124285368149723</v>
+        <v>0.0008468420349343653</v>
       </c>
       <c r="P27">
-        <v>3.560082938652462</v>
+        <v>0.0006786465831388912</v>
       </c>
       <c r="Q27">
-        <v>6.151416666814167</v>
+        <v>1.887142953531704</v>
       </c>
       <c r="R27">
-        <v>2.410296651362825</v>
+        <v>0.02230679434693854</v>
       </c>
       <c r="S27">
-        <v>4.099571280927845</v>
+        <v>1.258265452731584</v>
       </c>
       <c r="T27">
-        <v>2.410296651362825</v>
+        <v>0.02230679434693854</v>
       </c>
       <c r="U27">
-        <v>3.102359479891772</v>
+        <v>0.9600898620173223</v>
       </c>
       <c r="V27">
-        <v>2.504032399270128</v>
+        <v>0.7811845075887653</v>
       </c>
       <c r="W27">
-        <v>2.35665620300121</v>
+        <v>0.6120451422975624</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.5199092148503732</v>
+        <v>-0.000204237385315702</v>
       </c>
       <c r="D28">
-        <v>2.078656330855167</v>
+        <v>1.31839019444241</v>
       </c>
       <c r="E28">
-        <v>5.515755973877438</v>
+        <v>3.704724255056352</v>
       </c>
       <c r="F28">
-        <v>0.5199092148503732</v>
+        <v>-0.000204237385315702</v>
       </c>
       <c r="G28">
-        <v>4.656508162372781</v>
+        <v>0.4244749908493259</v>
       </c>
       <c r="H28">
-        <v>4.656508162372675</v>
+        <v>0.424474990845241</v>
       </c>
       <c r="I28">
-        <v>4.656508162372675</v>
+        <v>0.424474990845241</v>
       </c>
       <c r="J28">
-        <v>0.02361430168291688</v>
+        <v>-0.0006577877870660543</v>
       </c>
       <c r="K28">
-        <v>1.3210072764911</v>
+        <v>1.522941917692442</v>
       </c>
       <c r="L28">
-        <v>6.81341118760848</v>
+        <v>0.1863433773981615</v>
       </c>
       <c r="M28">
-        <v>1.560890325498799</v>
+        <v>0.1427239604622257</v>
       </c>
       <c r="N28">
-        <v>4.656508162372675</v>
+        <v>0.424474990845241</v>
       </c>
       <c r="O28">
-        <v>5.515755973877438</v>
+        <v>3.704724255056352</v>
       </c>
       <c r="P28">
-        <v>3.017832594363905</v>
+        <v>1.852260008835518</v>
       </c>
       <c r="Q28">
-        <v>2.769685137780177</v>
+        <v>1.852033233634643</v>
       </c>
       <c r="R28">
-        <v>3.564057783700162</v>
+        <v>1.376331669505426</v>
       </c>
       <c r="S28">
-        <v>2.01975983013691</v>
+        <v>1.234620743294657</v>
       </c>
       <c r="T28">
-        <v>3.564057783700162</v>
+        <v>1.376331669505426</v>
       </c>
       <c r="U28">
-        <v>2.678946913195851</v>
+        <v>1.032084305182303</v>
       </c>
       <c r="V28">
-        <v>3.074459163031216</v>
+        <v>0.9105624423148905</v>
       </c>
       <c r="W28">
-        <v>2.811219096654619</v>
+        <v>0.9123420838405563</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>-0.004119490844798204</v>
+      </c>
+      <c r="D29">
+        <v>0.005673294833611329</v>
+      </c>
+      <c r="E29">
+        <v>7.124285368149723</v>
+      </c>
+      <c r="F29">
+        <v>-0.004119490844798204</v>
+      </c>
+      <c r="G29">
+        <v>0.1107240767835515</v>
+      </c>
+      <c r="H29">
+        <v>0.1107240767835515</v>
+      </c>
+      <c r="I29">
+        <v>0.1107240767835515</v>
+      </c>
+      <c r="J29">
+        <v>5.178547965478611</v>
+      </c>
+      <c r="K29">
+        <v>0.01042179611449516</v>
+      </c>
+      <c r="L29">
+        <v>6.387585543967804</v>
+      </c>
+      <c r="M29">
+        <v>0.04013106952668354</v>
+      </c>
+      <c r="N29">
+        <v>0.1107240767835515</v>
+      </c>
+      <c r="O29">
+        <v>7.124285368149723</v>
+      </c>
+      <c r="P29">
+        <v>3.560082938652462</v>
+      </c>
+      <c r="Q29">
+        <v>6.151416666814167</v>
+      </c>
+      <c r="R29">
+        <v>2.410296651362825</v>
+      </c>
+      <c r="S29">
+        <v>4.099571280927845</v>
+      </c>
+      <c r="T29">
+        <v>2.410296651362825</v>
+      </c>
+      <c r="U29">
+        <v>3.102359479891772</v>
+      </c>
+      <c r="V29">
+        <v>2.504032399270128</v>
+      </c>
+      <c r="W29">
+        <v>2.35665620300121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.5199092148503732</v>
+      </c>
+      <c r="D30">
+        <v>2.078656330855167</v>
+      </c>
+      <c r="E30">
+        <v>5.515755973877438</v>
+      </c>
+      <c r="F30">
+        <v>0.5199092148503732</v>
+      </c>
+      <c r="G30">
+        <v>4.656508162372781</v>
+      </c>
+      <c r="H30">
+        <v>4.656508162372675</v>
+      </c>
+      <c r="I30">
+        <v>4.656508162372675</v>
+      </c>
+      <c r="J30">
+        <v>0.02361430168291688</v>
+      </c>
+      <c r="K30">
+        <v>1.3210072764911</v>
+      </c>
+      <c r="L30">
+        <v>6.81341118760848</v>
+      </c>
+      <c r="M30">
+        <v>1.560890325498799</v>
+      </c>
+      <c r="N30">
+        <v>4.656508162372675</v>
+      </c>
+      <c r="O30">
+        <v>5.515755973877438</v>
+      </c>
+      <c r="P30">
+        <v>3.017832594363905</v>
+      </c>
+      <c r="Q30">
+        <v>2.769685137780177</v>
+      </c>
+      <c r="R30">
+        <v>3.564057783700162</v>
+      </c>
+      <c r="S30">
+        <v>2.01975983013691</v>
+      </c>
+      <c r="T30">
+        <v>3.564057783700162</v>
+      </c>
+      <c r="U30">
+        <v>2.678946913195851</v>
+      </c>
+      <c r="V30">
+        <v>3.074459163031216</v>
+      </c>
+      <c r="W30">
+        <v>2.811219096654619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.003379252784832453</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>4.674382796872621</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>-0.002083163816132063</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.003379252784832453</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>-0.002345040550205253</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>-0.002345040550205253</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>-0.002345040550205253</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.001599019385675633</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>-0.001584942924229441</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>15.24851381898139</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.002688977794970565</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>-0.002345040550205253</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>-0.002083163816132063</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.0006480444843501947</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>-0.0002420722152282151</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>-0.0003496505271682877</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.0009650361181253408</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>-0.0003496505271682877</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.0001375169510426925</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>-0.0003589945492068965</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>2.490568839816115</v>
       </c>
     </row>
